--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F8A030-FB2B-44C2-8EF1-814B7D602624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E67D90-6876-486A-A5F6-8604D1E050CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,90 @@
   </si>
   <si>
     <t>PrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스펨이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpamEventUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallEventUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세입금이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallingUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적게입금한경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화무시이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이입금한경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[web발신] 러닝액션게임 이름 시즌 2시작 사전예약 이벤트 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78-3515-11 계좌로 월세 입금 부탁드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금 금액이 "차액"만큼 부족해서 다시 입금 부탁드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1102,1103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금 금액이 "차액"만큼 초과해서 입금드렸으니 확인부탁드립니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,33 +345,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,16 +710,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="23.296875" bestFit="1" customWidth="1"/>
@@ -680,85 +767,85 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
@@ -781,6 +868,111 @@
       </c>
       <c r="H7" s="3" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>1001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>1002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>1101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>1003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>1101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>1102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>1003</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>1103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>1003</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -799,10 +991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -837,10 +1029,10 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -848,33 +1040,65 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>2001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>2002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>2003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>2004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7ED222-C632-437F-9F99-BE16CE033DC8}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -925,10 +1149,10 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -936,29 +1160,29 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E67D90-6876-486A-A5F6-8604D1E050CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB369DF-8171-4EEC-B27D-E3FD284C2C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -38,103 +38,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트 ID</t>
-  </si>
-  <si>
-    <t>이벤트 이름</t>
-  </si>
-  <si>
-    <t>이벤트 난이도</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 후속 이벤트 ID</t>
-  </si>
-  <si>
-    <t>이벤트 관련 프리팹 이름1</t>
-  </si>
-  <si>
-    <t>이벤트 관련 프리팹 이름2</t>
-  </si>
-  <si>
-    <t>이벤트 관련 프리팹 이름3</t>
-  </si>
-  <si>
-    <t>1:쉬움</t>
-  </si>
-  <si>
-    <t>2:중간</t>
-  </si>
-  <si>
-    <t>3:어려움</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
-    <t>이벤트의 ID</t>
-  </si>
-  <si>
     <t>예시)</t>
-  </si>
-  <si>
-    <t>1xxx</t>
-  </si>
-  <si>
-    <t>이벤트 이름을 표기</t>
-  </si>
-  <si>
-    <t>해당 이벤트의 난이도 표기</t>
-  </si>
-  <si>
-    <t>해당 이벤트가 끝나고 올</t>
-  </si>
-  <si>
-    <t>다음 이벤트 ID를 나타낸다.</t>
-  </si>
-  <si>
-    <t>없을 경우 -1으로 표기</t>
-  </si>
-  <si>
-    <t>이벤트를 진행하는데 있어서 필요한 오브젝트들에 대한 이름을 나타낸다.</t>
-  </si>
-  <si>
-    <t>필요하지 않을 경우 “X”로 표기한다.</t>
-  </si>
-  <si>
-    <t>EventID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>NextEventID</t>
-  </si>
-  <si>
-    <t>PrefabID1</t>
-  </si>
-  <si>
-    <t>PrefabID2</t>
-  </si>
-  <si>
-    <t>PrefabID3</t>
   </si>
   <si>
     <t>텍스트 ID</t>
@@ -204,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpamEventUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통화이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CallEventUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월세입금이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,18 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CallingUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoteUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적게입금한경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,14 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MessageUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[web발신] 러닝액션게임 이름 시즌 2시작 사전예약 이벤트 알림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,11 +160,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1102,1103]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입금 금액이 "차액"만큼 초과해서 입금드렸으니 확인부탁드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구와의 메시지 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화 대화 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자 대화 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,16 +260,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -710,16 +627,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="23.296875" bestFit="1" customWidth="1"/>
@@ -729,162 +646,98 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>1001</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
-      <c r="F8" t="s">
-        <v>48</v>
+      <c r="F8">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -892,16 +745,16 @@
         <v>1002</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E9">
+        <v>1105</v>
+      </c>
+      <c r="F9">
         <v>1101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -909,81 +762,85 @@
         <v>1003</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1104</v>
+      </c>
+      <c r="F10">
+        <v>1101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11">
-        <v>1101</v>
+        <v>1004</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12">
-        <v>1003</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B13">
+        <v>1102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14">
         <v>1103</v>
       </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13">
-        <v>1003</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>1104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>1105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -993,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1008,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1019,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1030,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1041,32 +898,32 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -1074,7 +931,7 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -1082,7 +939,7 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -1090,7 +947,7 @@
         <v>2003</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -1098,7 +955,7 @@
         <v>2004</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1128,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1139,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1150,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1161,32 +1018,32 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB369DF-8171-4EEC-B27D-E3FD284C2C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431E198B-D2F1-4313-8AD7-E14EFAC5AD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
     <sheet name="TextDT" sheetId="2" r:id="rId2"/>
     <sheet name="PrefabDT" sheetId="3" r:id="rId3"/>
+    <sheet name="TalkingDT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>텍스트의 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +80,6 @@
   </si>
   <si>
     <t>프리팹 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리팹 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -173,6 +166,319 @@
   </si>
   <si>
     <t>문자 대화 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 ID</t>
+  </si>
+  <si>
+    <t>이벤트 이름</t>
+  </si>
+  <si>
+    <t>이벤트 난이도</t>
+  </si>
+  <si>
+    <t>프리팹 ID</t>
+  </si>
+  <si>
+    <t>사용TextID</t>
+  </si>
+  <si>
+    <t>수락시 다음 이벤트</t>
+  </si>
+  <si>
+    <t>무시시 다음 이벤트</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>이벤트의 ID</t>
+  </si>
+  <si>
+    <t>1xxx</t>
+  </si>
+  <si>
+    <t>이벤트 이름을 표기</t>
+  </si>
+  <si>
+    <t>해당 이벤트의 난이도 표기</t>
+  </si>
+  <si>
+    <t>이벤트 시작할때 사용될</t>
+  </si>
+  <si>
+    <t>프리팹의 ID를 나타낸다.</t>
+  </si>
+  <si>
+    <t>초기에 사용될 텍스트의</t>
+  </si>
+  <si>
+    <t>ID리스트를 나타낸다.</t>
+  </si>
+  <si>
+    <t>해당 이벤트를 통해 무시 혹은 수락을 하였을 경우 다음 이벤트로 넘어갈때</t>
+  </si>
+  <si>
+    <t>사용 되는 ID들 표기</t>
+  </si>
+  <si>
+    <t>없을 경우 “-1”로 표기</t>
+  </si>
+  <si>
+    <t>1:쉬움</t>
+  </si>
+  <si>
+    <t>2:중간</t>
+  </si>
+  <si>
+    <t>3:어려움</t>
+  </si>
+  <si>
+    <t>EventID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>PrefabID</t>
+  </si>
+  <si>
+    <t>TextListID</t>
+  </si>
+  <si>
+    <t>AcceptEventID</t>
+  </si>
+  <si>
+    <t>IgnoreEventID</t>
+  </si>
+  <si>
+    <t>프리팹 type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 ID</t>
+  </si>
+  <si>
+    <t>대화 내용 ID</t>
+  </si>
+  <si>
+    <t>대화 Text ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 긍정적인 답변</t>
+  </si>
+  <si>
+    <t>긍정적인 다음 대화</t>
+  </si>
+  <si>
+    <t>부정적인 답변</t>
+  </si>
+  <si>
+    <t>부정적인 다음 대화</t>
+  </si>
+  <si>
+    <t>대화의 ID</t>
+  </si>
+  <si>
+    <t>4xxx</t>
+  </si>
+  <si>
+    <t>해당 대화 그룹의 이름을</t>
+  </si>
+  <si>
+    <t>나타낸다.</t>
+  </si>
+  <si>
+    <t>Npc가 말하는 Text의</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>우호적인 답변들의</t>
+  </si>
+  <si>
+    <t>리스트를 나타낸다.</t>
+  </si>
+  <si>
+    <t>답변을 받은 후</t>
+  </si>
+  <si>
+    <t>다음 대화 이벤트ID</t>
+  </si>
+  <si>
+    <t>부적정인 답변들의</t>
+  </si>
+  <si>
+    <t>MainTextID</t>
+  </si>
+  <si>
+    <t>PositiveTextList</t>
+  </si>
+  <si>
+    <t>PostiveTalkID</t>
+  </si>
+  <si>
+    <t>NavtiveTextList</t>
+  </si>
+  <si>
+    <t>NavtiveTalkId</t>
+  </si>
+  <si>
+    <t>TalkingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구와 대화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구와 대화2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구와 대화4</t>
+  </si>
+  <si>
+    <t>친구와 대화3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구대화종료1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구대화종료2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 우리 몇시에 만나기로 했지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시에 만나기로 했어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시쯤으로 기억하고 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 만나는거 내일이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 내일 만나서 뭐 먹을꺼야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쎄..내일 만나서 정하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 지금 바빠서 조금있다가 다시 연락할께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 정해서 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구대화종료3</t>
+  </si>
+  <si>
+    <t>20xx : 단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21xx : 대화내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 내일 아니였나? 내일로 기억하고 있는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 맞다..까먹고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞네..위에 내용보니 내일이었네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 중식한식양식중에 하나 골라봐 그걸로 찾아보게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 중식이 좋아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 양식이 좋아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 한식이 좋아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그럼 조금 있다가 다시 연락할게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그럼 내일 보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 조금 있다가 찾아서 보내 놓을게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2106, 2107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110, 2111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2114, 2115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2117, 2118, 2119</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +518,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="배달의민족 한나체 Pro"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="배달의민족 한나체 Air"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +553,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7EAED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -235,13 +568,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,35 +710,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -642,101 +1134,176 @@
     <col min="6" max="8" width="23.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>1001</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8">
+        <v>2002</v>
+      </c>
+      <c r="G8">
         <v>-1</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>-1</v>
       </c>
     </row>
@@ -745,15 +1312,18 @@
         <v>1002</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9">
+        <v>2001</v>
+      </c>
+      <c r="G9">
         <v>1105</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>1101</v>
       </c>
     </row>
@@ -762,15 +1332,18 @@
         <v>1003</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>2004</v>
+      </c>
+      <c r="G10" s="6">
         <v>1104</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>1101</v>
       </c>
     </row>
@@ -779,10 +1352,13 @@
         <v>1004</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2002</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -790,10 +1366,13 @@
         <v>1101</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>2001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -801,10 +1380,10 @@
         <v>1102</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -812,10 +1391,10 @@
         <v>1103</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -823,10 +1402,10 @@
         <v>1104</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -834,13 +1413,20 @@
         <v>1105</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -848,16 +1434,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -887,9 +1473,9 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -900,30 +1486,32 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -931,7 +1519,7 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -939,23 +1527,183 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>2101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>2102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>2103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>2104</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>2003</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>2004</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>2105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>2106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>2107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>2108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>2109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>2110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>2111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>2112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>2113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>2114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>2115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>2116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>2117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>2118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>2119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>2120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>2121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>2122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -969,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7ED222-C632-437F-9F99-BE16CE033DC8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -985,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1007,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1020,30 +1768,67 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>2001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>2002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>2003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>2004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>2005</v>
       </c>
     </row>
   </sheetData>
@@ -1053,4 +1838,324 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="4" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" customWidth="1"/>
+    <col min="8" max="8" width="17.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>4001</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="31">
+        <v>2105</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7">
+        <v>4002</v>
+      </c>
+      <c r="G7" s="31">
+        <v>2108</v>
+      </c>
+      <c r="H7">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>4002</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="31">
+        <v>2109</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8">
+        <v>4005</v>
+      </c>
+      <c r="G8" s="31">
+        <v>2112</v>
+      </c>
+      <c r="H8">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>4003</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="31">
+        <v>2113</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9">
+        <v>4002</v>
+      </c>
+      <c r="G9" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>4004</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="31">
+        <v>2116</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10">
+        <v>4007</v>
+      </c>
+      <c r="G10" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>4005</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>4006</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>4007</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="31">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431E198B-D2F1-4313-8AD7-E14EFAC5AD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD89910B-7964-497D-B01E-02CF26AEDAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,14 +418,6 @@
     <t>친구대화종료3</t>
   </si>
   <si>
-    <t>20xx : 단어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21xx : 대화내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>응? 내일 아니였나? 내일로 기억하고 있는데</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,19 +458,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2106, 2107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2110, 2111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2114, 2115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2117, 2118, 2119</t>
+    <t>30xx : 단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31xx : 대화내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3106, 3107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3110, 3111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3114, 3115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3117, 3118, 3119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문장형 Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어형 Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +743,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -764,26 +791,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,7 +1131,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1193,7 +1202,7 @@
       <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1205,10 +1214,10 @@
       <c r="F3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -1217,7 +1226,7 @@
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="10" t="s">
         <v>52</v>
       </c>
@@ -1227,10 +1236,10 @@
       <c r="F4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -1239,32 +1248,35 @@
       <c r="B5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="B7" s="8" t="s">
         <v>55</v>
       </c>
@@ -1436,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1475,7 +1487,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1486,27 +1498,30 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="24"/>
+        <v>118</v>
+      </c>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1515,24 +1530,40 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B8">
-        <v>2001</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9">
-        <v>2002</v>
+        <v>3001</v>
       </c>
       <c r="C9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>3002</v>
+      </c>
+      <c r="C10" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12">
-        <v>2101</v>
+        <v>3101</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1540,7 +1571,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13">
-        <v>2102</v>
+        <v>3102</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1548,7 +1579,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14">
-        <v>2103</v>
+        <v>3103</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1556,7 +1587,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15">
-        <v>2104</v>
+        <v>3104</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1564,7 +1595,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16">
-        <v>2105</v>
+        <v>3105</v>
       </c>
       <c r="C16" t="s">
         <v>99</v>
@@ -1572,7 +1603,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17">
-        <v>2106</v>
+        <v>3106</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
@@ -1580,7 +1611,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18">
-        <v>2107</v>
+        <v>3107</v>
       </c>
       <c r="C18" t="s">
         <v>101</v>
@@ -1588,7 +1619,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19">
-        <v>2108</v>
+        <v>3108</v>
       </c>
       <c r="C19" t="s">
         <v>102</v>
@@ -1596,7 +1627,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20">
-        <v>2109</v>
+        <v>3109</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
@@ -1604,7 +1635,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21">
-        <v>2110</v>
+        <v>3110</v>
       </c>
       <c r="C21" t="s">
         <v>104</v>
@@ -1612,7 +1643,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22">
-        <v>2111</v>
+        <v>3111</v>
       </c>
       <c r="C22" t="s">
         <v>105</v>
@@ -1620,7 +1651,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23">
-        <v>2112</v>
+        <v>3112</v>
       </c>
       <c r="C23" t="s">
         <v>106</v>
@@ -1628,82 +1659,82 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24">
-        <v>2113</v>
+        <v>3113</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25">
-        <v>2114</v>
+        <v>3114</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26">
-        <v>2115</v>
+        <v>3115</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27">
-        <v>2116</v>
+        <v>3116</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28">
-        <v>2117</v>
+        <v>3117</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29">
-        <v>2118</v>
+        <v>3118</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30">
-        <v>2119</v>
+        <v>3119</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B31">
-        <v>2120</v>
+        <v>3120</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B32">
-        <v>2121</v>
+        <v>3121</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33">
-        <v>2122</v>
+        <v>3122</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1751,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1757,7 +1788,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1768,7 +1799,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -1777,16 +1808,19 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="24"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1844,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1861,25 +1895,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1887,25 +1921,25 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1913,25 +1947,25 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1939,25 +1973,25 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1965,37 +1999,39 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2003,20 +2039,20 @@
       <c r="B7">
         <v>4001</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="31">
-        <v>2105</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="18">
+        <v>3105</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>120</v>
       </c>
       <c r="F7">
         <v>4002</v>
       </c>
-      <c r="G7" s="31">
-        <v>2108</v>
+      <c r="G7" s="18">
+        <v>3108</v>
       </c>
       <c r="H7">
         <v>4003</v>
@@ -2026,20 +2062,20 @@
       <c r="B8">
         <v>4002</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="31">
-        <v>2109</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="18">
+        <v>3109</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>121</v>
       </c>
       <c r="F8">
         <v>4005</v>
       </c>
-      <c r="G8" s="31">
-        <v>2112</v>
+      <c r="G8" s="18">
+        <v>3112</v>
       </c>
       <c r="H8">
         <v>4004</v>
@@ -2049,19 +2085,19 @@
       <c r="B9">
         <v>4003</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="31">
-        <v>2113</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="D9" s="18">
+        <v>3113</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F9">
         <v>4002</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="18">
         <v>-1</v>
       </c>
       <c r="H9">
@@ -2072,19 +2108,19 @@
       <c r="B10">
         <v>4004</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="31">
-        <v>2116</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="18">
+        <v>3116</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>123</v>
       </c>
       <c r="F10">
         <v>4007</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="18">
         <v>-1</v>
       </c>
       <c r="H10">
@@ -2095,17 +2131,17 @@
       <c r="B11">
         <v>4005</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18">
         <v>-1</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="18">
         <v>-1</v>
       </c>
       <c r="H11">
@@ -2116,17 +2152,17 @@
       <c r="B12">
         <v>4006</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <v>-1</v>
       </c>
       <c r="F12">
         <v>-1</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="18">
         <v>-1</v>
       </c>
       <c r="H12">
@@ -2137,17 +2173,17 @@
       <c r="B13">
         <v>4007</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
         <v>-1</v>
       </c>
       <c r="F13">
         <v>-1</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="18">
         <v>-1</v>
       </c>
       <c r="H13">

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD89910B-7964-497D-B01E-02CF26AEDAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2124E61A-E2FA-4176-A2A3-B76EEBA86183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="132">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,26 @@
   </si>
   <si>
     <t>단어형 Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, 3105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001, 3105, 3106, 3017, 3018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행업무 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행어플UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1102, 1103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,9 +739,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -791,8 +808,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1140,32 +1157,33 @@
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1173,25 +1191,25 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1199,103 +1217,103 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="24" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="30" t="s">
+      <c r="A7" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1309,13 +1327,16 @@
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="17">
         <v>2002</v>
       </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="17">
+        <v>3101</v>
+      </c>
+      <c r="G8" s="17">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="17">
         <v>-1</v>
       </c>
     </row>
@@ -1329,13 +1350,16 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="17">
         <v>2001</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="17">
+        <v>3002</v>
+      </c>
+      <c r="G9" s="17">
         <v>1105</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="17">
         <v>1101</v>
       </c>
     </row>
@@ -1349,13 +1373,16 @@
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="17">
         <v>2004</v>
       </c>
-      <c r="G10" s="6">
+      <c r="F10" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="29">
         <v>1104</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="17">
         <v>1101</v>
       </c>
     </row>
@@ -1369,9 +1396,12 @@
       <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="17">
         <v>2002</v>
       </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12">
@@ -1383,9 +1413,12 @@
       <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="17">
         <v>2001</v>
       </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B13">
@@ -1397,6 +1430,12 @@
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="E13" s="17">
+        <v>2002</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14">
@@ -1408,6 +1447,12 @@
       <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="E14" s="17">
+        <v>2002</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15">
@@ -1419,6 +1464,18 @@
       <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="E15" s="17">
+        <v>2004</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="17">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="17">
+        <v>-1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16">
@@ -1429,6 +1486,39 @@
       </c>
       <c r="D16" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2003</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>1106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="17">
+        <v>2005</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1448,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1487,7 +1577,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1498,7 +1588,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -1507,7 +1597,7 @@
       <c r="B5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -1516,10 +1606,10 @@
       <c r="B6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
+      <c r="A7" t="s">
         <v>125</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1751,7 +1841,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1788,7 +1878,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1799,7 +1889,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -1808,17 +1898,17 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="29"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
+      <c r="A7" t="s">
         <v>125</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1863,6 +1953,9 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>2005</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1972,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1895,25 +1988,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2002,15 +2095,15 @@
       <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="30" t="s">
+      <c r="A6" t="s">
         <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2042,16 +2135,16 @@
       <c r="C7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>3105</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>120</v>
       </c>
       <c r="F7">
         <v>4002</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>3108</v>
       </c>
       <c r="H7">
@@ -2065,16 +2158,16 @@
       <c r="C8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>3109</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>121</v>
       </c>
       <c r="F8">
         <v>4005</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>3112</v>
       </c>
       <c r="H8">
@@ -2088,16 +2181,16 @@
       <c r="C9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>3113</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>122</v>
       </c>
       <c r="F9">
         <v>4002</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>-1</v>
       </c>
       <c r="H9">
@@ -2111,16 +2204,16 @@
       <c r="C10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>3116</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>123</v>
       </c>
       <c r="F10">
         <v>4007</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>-1</v>
       </c>
       <c r="H10">
@@ -2134,14 +2227,14 @@
       <c r="C11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
         <v>-1</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>-1</v>
       </c>
       <c r="H11">
@@ -2155,14 +2248,14 @@
       <c r="C12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
         <v>-1</v>
       </c>
       <c r="F12">
         <v>-1</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>-1</v>
       </c>
       <c r="H12">
@@ -2176,14 +2269,14 @@
       <c r="C13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
         <v>-1</v>
       </c>
       <c r="F13">
         <v>-1</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>-1</v>
       </c>
       <c r="H13">

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2124E61A-E2FA-4176-A2A3-B76EEBA86183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EAA5F4-CC54-449A-9916-CC213ED34C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="137">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스펨이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쉬움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[web발신] 러닝액션게임 이름 시즌 2시작 사전예약 이벤트 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>78-3515-11 계좌로 월세 입금 부탁드립니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,6 +503,35 @@
   </si>
   <si>
     <t>1102, 1103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003, 3101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고메세지이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[web발신] 
+러닝액션게임 이름 시즌 2시작 사전예약 이벤트 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후속 이벤트들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고전화 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,20 +572,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="배달의민족 한나체 Pro"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="배달의민족 한나체 Air"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="18"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -592,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -714,13 +721,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,31 +755,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -775,33 +770,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -809,7 +777,70 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,15 +1176,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
@@ -1165,51 +1196,51 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1217,309 +1248,369 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="24"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="23" t="s">
+      <c r="B5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="D7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="30">
+        <v>2002</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="30">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="30">
+        <v>2001</v>
+      </c>
+      <c r="F10" s="30">
+        <v>3002</v>
+      </c>
+      <c r="G10" s="30">
+        <v>1105</v>
+      </c>
+      <c r="H10" s="30">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="30">
+        <v>2004</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8">
-        <v>1001</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G11" s="32">
+        <v>1104</v>
+      </c>
+      <c r="H11" s="30">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="30">
+        <v>2002</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="E13" s="30">
+        <v>2001</v>
+      </c>
+      <c r="F13">
+        <v>3003</v>
+      </c>
+      <c r="G13" s="30">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="30">
+        <v>2001</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="5">
+        <v>1102</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="30">
         <v>2002</v>
       </c>
-      <c r="F8" s="17">
-        <v>3101</v>
-      </c>
-      <c r="G8" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9">
-        <v>1002</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="5">
+        <v>1103</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="30">
+        <v>2002</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="5">
+        <v>1104</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2001</v>
-      </c>
-      <c r="F9" s="17">
-        <v>3002</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="E18" s="30">
+        <v>2004</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="30">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="5">
         <v>1105</v>
       </c>
-      <c r="H9" s="17">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>1003</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2004</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="30">
+        <v>2003</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="5">
+        <v>1106</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="29">
-        <v>1104</v>
-      </c>
-      <c r="H10" s="17">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>1004</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2002</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>1101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="17">
-        <v>2001</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <v>1102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="17">
-        <v>2002</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B14">
-        <v>1103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="17">
-        <v>2002</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B15">
-        <v>1104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="17">
-        <v>2004</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B16">
-        <v>1105</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="17">
-        <v>2003</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17">
-        <v>1106</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E20" s="30">
+        <v>2005</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="17">
-        <v>2005</v>
-      </c>
-      <c r="F17">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
+      <c r="H20" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1536,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1577,7 +1668,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1588,29 +1679,29 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="28"/>
+        <v>116</v>
+      </c>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="28"/>
+        <v>117</v>
+      </c>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -1624,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -1632,7 +1723,7 @@
         <v>3001</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -1640,191 +1731,199 @@
         <v>3002</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>124</v>
+      <c r="B11">
+        <v>3003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B12">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B13">
         <v>3101</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <v>3102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
+      <c r="C13" s="13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B31">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B32">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33">
+        <v>3121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34">
         <v>3122</v>
       </c>
-      <c r="C33" t="s">
-        <v>117</v>
+      <c r="C34" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1956,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1878,7 +1977,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1889,7 +1988,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -1898,18 +1997,18 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="28"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -1923,7 +2022,7 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -1931,7 +2030,7 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -1939,7 +2038,7 @@
         <v>2003</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -1947,7 +2046,7 @@
         <v>2004</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -1955,7 +2054,7 @@
         <v>2005</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +2071,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1988,26 +2087,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -2024,13 +2123,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1</v>
@@ -2041,25 +2140,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2070,22 +2169,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -2093,39 +2192,39 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+        <v>73</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2133,18 +2232,18 @@
         <v>4001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="17">
+        <v>89</v>
+      </c>
+      <c r="D7" s="10">
         <v>3105</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>120</v>
+      <c r="E7" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="F7">
         <v>4002</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="10">
         <v>3108</v>
       </c>
       <c r="H7">
@@ -2156,18 +2255,18 @@
         <v>4002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="17">
+        <v>90</v>
+      </c>
+      <c r="D8" s="10">
         <v>3109</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>121</v>
+      <c r="E8" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="F8">
         <v>4005</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="10">
         <v>3112</v>
       </c>
       <c r="H8">
@@ -2179,18 +2278,18 @@
         <v>4003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="17">
+        <v>92</v>
+      </c>
+      <c r="D9" s="10">
         <v>3113</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>122</v>
+      <c r="E9" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F9">
         <v>4002</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="10">
         <v>-1</v>
       </c>
       <c r="H9">
@@ -2202,18 +2301,18 @@
         <v>4004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="17">
+        <v>91</v>
+      </c>
+      <c r="D10" s="10">
         <v>3116</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>123</v>
+      <c r="E10" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="F10">
         <v>4007</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="10">
         <v>-1</v>
       </c>
       <c r="H10">
@@ -2225,16 +2324,16 @@
         <v>4005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17">
+        <v>93</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <v>-1</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="10">
         <v>-1</v>
       </c>
       <c r="H11">
@@ -2246,16 +2345,16 @@
         <v>4006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17">
+        <v>94</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
         <v>-1</v>
       </c>
       <c r="F12">
         <v>-1</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="10">
         <v>-1</v>
       </c>
       <c r="H12">
@@ -2267,16 +2366,16 @@
         <v>4007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17">
+        <v>105</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
         <v>-1</v>
       </c>
       <c r="F13">
         <v>-1</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="10">
         <v>-1</v>
       </c>
       <c r="H13">

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EAA5F4-CC54-449A-9916-CC213ED34C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7801539-9EE1-41DD-A3B0-99C1651578B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="142">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,13 +533,28 @@
   <si>
     <t>광고전화 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 데이터</t>
+  </si>
+  <si>
+    <t>이벤트마다</t>
+  </si>
+  <si>
+    <t>추가적으로 쓰일</t>
+  </si>
+  <si>
+    <t>Data의 ID를 표기</t>
+  </si>
+  <si>
+    <t>ExtraDataID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +592,22 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -736,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,77 +801,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1190,179 +1236,199 @@
     <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I1" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H3" s="28"/>
+      <c r="I3" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H4" s="30"/>
+      <c r="I4" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="22" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H5" s="30"/>
+      <c r="I5" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I7" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="5">
         <v>1001</v>
       </c>
@@ -1372,20 +1438,23 @@
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="19">
         <v>2002</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="30">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G9" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" s="5">
         <v>1002</v>
       </c>
@@ -1395,20 +1464,23 @@
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="19">
         <v>2001</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="19">
         <v>3002</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="19">
         <v>1105</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="19">
         <v>1101</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="5">
         <v>1003</v>
       </c>
@@ -1418,20 +1490,23 @@
       <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="19">
         <v>2004</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="21">
         <v>1104</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="19">
         <v>1101</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="5">
         <v>1004</v>
       </c>
@@ -1441,14 +1516,17 @@
       <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="19">
         <v>2002</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="5">
         <v>1005</v>
       </c>
@@ -1458,20 +1536,23 @@
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="19">
         <v>2001</v>
       </c>
       <c r="F13">
         <v>3003</v>
       </c>
-      <c r="G13" s="30">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G13" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1566,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="5">
         <v>1101</v>
       </c>
@@ -1495,14 +1576,17 @@
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="19">
         <v>2001</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>1102</v>
       </c>
@@ -1512,14 +1596,17 @@
       <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="19">
         <v>2002</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
         <v>1103</v>
       </c>
@@ -1529,14 +1616,17 @@
       <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="19">
         <v>2002</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>1104</v>
       </c>
@@ -1546,20 +1636,23 @@
       <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="19">
         <v>2004</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="30">
-        <v>-1</v>
-      </c>
-      <c r="H18" s="30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G18" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="19">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
         <v>1105</v>
       </c>
@@ -1569,18 +1662,21 @@
       <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="19">
         <v>2003</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="5">
         <v>1106</v>
       </c>
@@ -1590,20 +1686,23 @@
       <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="19">
         <v>2005</v>
       </c>
       <c r="F20" s="5">
         <v>-1</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="19" t="s">
         <v>129</v>
       </c>
       <c r="H20" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1668,7 +1767,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1679,7 +1778,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -1688,7 +1787,7 @@
       <c r="B5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -1697,7 +1796,7 @@
       <c r="B6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -1754,7 +1853,7 @@
       <c r="B13">
         <v>3101</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1977,7 +2076,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1988,7 +2087,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -1997,14 +2096,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7801539-9EE1-41DD-A3B0-99C1651578B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097BD2F2-576D-49B8-9DC7-0701D87EF63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="153">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,18 +298,6 @@
     <t>4xxx</t>
   </si>
   <si>
-    <t>해당 대화 그룹의 이름을</t>
-  </si>
-  <si>
-    <t>나타낸다.</t>
-  </si>
-  <si>
-    <t>Npc가 말하는 Text의</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>우호적인 답변들의</t>
   </si>
   <si>
@@ -332,12 +320,6 @@
   </si>
   <si>
     <t>PostiveTalkID</t>
-  </si>
-  <si>
-    <t>NavtiveTextList</t>
-  </si>
-  <si>
-    <t>NavtiveTalkId</t>
   </si>
   <si>
     <t>TalkingID</t>
@@ -548,13 +530,77 @@
   </si>
   <si>
     <t>ExtraDataID</t>
+  </si>
+  <si>
+    <t>긍정적인 답변 수치</t>
+  </si>
+  <si>
+    <t>부정적인 답변 수치</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>PostiveValue</t>
+  </si>
+  <si>
+    <t>NegativeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NegativeTalkId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NegativeTextList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc가 말하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text의ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 대화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹의 이름을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변에 따른 진행도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 선택한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변에 따른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행도 상승수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,13 +633,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
@@ -608,6 +647,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -767,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,18 +835,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -840,6 +877,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -873,19 +925,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1224,11 +1267,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
@@ -1239,222 +1282,222 @@
     <col min="9" max="9" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="23.4" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I1" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H3" s="30"/>
+      <c r="I3" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H4" s="32"/>
+      <c r="I4" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="29" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H5" s="32"/>
+      <c r="I5" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" thickBot="1">
       <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I7" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="5">
         <v>1001</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <v>2002</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="F9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="16">
         <v>-1</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="16">
         <v>-1</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="16">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9">
       <c r="B10" s="5">
         <v>1002</v>
       </c>
@@ -1464,23 +1507,23 @@
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>2001</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="16">
         <v>3002</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="16">
         <v>1105</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="16">
         <v>1101</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="16">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9">
       <c r="B11" s="5">
         <v>1003</v>
       </c>
@@ -1490,23 +1533,23 @@
       <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <v>2004</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="F11" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="18">
         <v>1104</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="16">
         <v>1101</v>
       </c>
       <c r="I11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9">
       <c r="B12" s="5">
         <v>1004</v>
       </c>
@@ -1516,48 +1559,48 @@
       <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <v>2002</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
       <c r="I12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9">
       <c r="B13" s="5">
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="16">
         <v>2001</v>
       </c>
       <c r="F13">
         <v>3003</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <v>-1</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="16">
         <v>-1</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="16">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1566,7 +1609,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9">
       <c r="B15" s="5">
         <v>1101</v>
       </c>
@@ -1576,17 +1619,17 @@
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>2001</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9">
       <c r="B16" s="5">
         <v>1102</v>
       </c>
@@ -1596,17 +1639,17 @@
       <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>2002</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9">
       <c r="B17" s="5">
         <v>1103</v>
       </c>
@@ -1616,17 +1659,17 @@
       <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="16">
         <v>2002</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9">
       <c r="B18" s="5">
         <v>1104</v>
       </c>
@@ -1636,23 +1679,23 @@
       <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <v>2004</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="F18" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="16">
         <v>-1</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="16">
         <v>-1</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="16">
         <v>4001</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9">
       <c r="B19" s="5">
         <v>1105</v>
       </c>
@@ -1662,38 +1705,38 @@
       <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="16">
         <v>2003</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
         <v>-1</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="16">
         <v>-1</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="16">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9">
       <c r="B20" s="5">
         <v>1106</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="16">
         <v>2005</v>
       </c>
       <c r="F20" s="5">
         <v>-1</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>129</v>
+      <c r="G20" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="H20" s="5">
         <v>-1</v>
@@ -1702,7 +1745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1728,17 +1771,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1760,47 +1803,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C4" s="36"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="34"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+      <c r="C5" s="36"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>123</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -1809,55 +1852,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="B9">
         <v>3001</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="B10">
         <v>3002</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="B11">
         <v>3003</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34.799999999999997">
       <c r="B13">
         <v>3101</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C13" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="B14">
         <v>3102</v>
       </c>
@@ -1865,7 +1908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3">
       <c r="B15">
         <v>3103</v>
       </c>
@@ -1873,7 +1916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3">
       <c r="B16">
         <v>3104</v>
       </c>
@@ -1881,148 +1924,148 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3">
       <c r="B17">
         <v>3105</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>3106</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19">
         <v>3107</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20">
         <v>3108</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21">
         <v>3109</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22">
         <v>3110</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23">
         <v>3111</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24">
         <v>3112</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25">
         <v>3113</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26">
         <v>3114</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27">
         <v>3115</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28">
         <v>3116</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29">
         <v>3117</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30">
         <v>3118</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31">
         <v>3119</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32">
         <v>3120</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33">
         <v>3121</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34">
         <v>3122</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2042,12 +2085,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2069,45 +2112,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C4" s="36"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="34"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C5" s="36"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -2116,7 +2159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="B8">
         <v>2001</v>
       </c>
@@ -2124,7 +2167,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="B9">
         <v>2002</v>
       </c>
@@ -2132,7 +2175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="B10">
         <v>2003</v>
       </c>
@@ -2140,7 +2183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="B11">
         <v>2004</v>
       </c>
@@ -2148,12 +2191,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="B12">
         <v>2005</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2167,23 +2210,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="4" width="14.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.796875" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" customWidth="1"/>
-    <col min="8" max="8" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="5"/>
+    <col min="2" max="4" width="14.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.296875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.3984375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="17.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="21" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2207,9 +2253,15 @@
       <c r="H1" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2233,253 +2285,275 @@
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="I2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>123</v>
+      <c r="C5" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="5">
+        <v>4001</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D7" s="16">
+        <v>3105</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4002</v>
+      </c>
+      <c r="G7" s="16">
+        <v>3108</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4003</v>
+      </c>
+      <c r="I7" s="5">
+        <v>50</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="5">
+        <v>4002</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="D8" s="16">
+        <v>3109</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4005</v>
+      </c>
+      <c r="G8" s="16">
+        <v>3112</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4004</v>
+      </c>
+      <c r="I8" s="5">
+        <v>50</v>
+      </c>
+      <c r="J8" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="5">
+        <v>4003</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3113</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4002</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="I9" s="5">
+        <v>50</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="5">
+        <v>4004</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="D10" s="16">
+        <v>3116</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4007</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="I10" s="5">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="5">
+        <v>4005</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B7">
-        <v>4001</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="10">
-        <v>3105</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7">
-        <v>4002</v>
-      </c>
-      <c r="G7" s="10">
-        <v>3108</v>
-      </c>
-      <c r="H7">
-        <v>4003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8">
-        <v>4002</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="10">
-        <v>3109</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8">
-        <v>4005</v>
-      </c>
-      <c r="G8" s="10">
-        <v>3112</v>
-      </c>
-      <c r="H8">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9">
-        <v>4003</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="10">
-        <v>3113</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9">
-        <v>4002</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>4004</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="10">
-        <v>3116</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10">
+      <c r="D11" s="5">
+        <v>3120</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="5">
+        <v>4006</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3121</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="5">
         <v>4007</v>
       </c>
-      <c r="G10" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>4005</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>4006</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <v>4007</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H13">
-        <v>-1</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3122</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097BD2F2-576D-49B8-9DC7-0701D87EF63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB06D0-7B4E-4AD9-847B-E19D8E8EFBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -892,6 +892,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -924,12 +930,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1347,7 +1347,7 @@
       <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="28" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1359,10 +1359,10 @@
       <c r="F3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="23" t="s">
         <v>132</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="12" t="s">
         <v>50</v>
       </c>
@@ -1384,10 +1384,10 @@
       <c r="F4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="24" t="s">
         <v>133</v>
       </c>
@@ -1399,16 +1399,16 @@
       <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="32"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="24" t="s">
         <v>134</v>
       </c>
@@ -1418,14 +1418,14 @@
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="28"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="15" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1">
@@ -1534,7 +1534,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="16">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>119</v>
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1810,7 +1810,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -1830,7 +1830,7 @@
       <c r="B5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -1839,7 +1839,7 @@
       <c r="B6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -2119,7 +2119,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -2139,14 +2139,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="36"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -2212,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -2229,7 +2229,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2253,15 +2253,15 @@
       <c r="H1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="26" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2293,7 +2293,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2325,7 +2325,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2357,13 +2357,13 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="27" t="s">
         <v>148</v>
       </c>
       <c r="D5" s="7"/>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB06D0-7B4E-4AD9-847B-E19D8E8EFBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4420D9AE-4C61-4B77-A509-7EE803242334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="167">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,34 +109,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통화이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월세입금이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어려움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적게입금한경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통화무시이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>많이입금한경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>78-3515-11 계좌로 월세 입금 부탁드립니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,18 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>친구와의 메시지 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통화 대화 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자 대화 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이벤트 ID</t>
   </si>
   <si>
@@ -255,22 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전화 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통화 UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지 UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대화 ID</t>
   </si>
   <si>
@@ -480,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>은행어플UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1102, 1103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,10 +445,6 @@
   </si>
   <si>
     <t>3003, 3101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고메세지이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,10 +461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광고전화 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추가 데이터</t>
   </si>
   <si>
@@ -593,6 +537,119 @@
   </si>
   <si>
     <t>진행도 상승수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대전화 App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행어플 App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 기타 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 메시지 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구와의 채팅 App 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고로 인한 채팅 App 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구의 채팅 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세입금 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고전화 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세 적게입금한경우 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세 많이입금한경우 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들래님 월세를 더 보냈던데 은행 계좌번호를 써주면 다시 입금해 드릴게요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들래님 월세를 덜 보내셨어요 덜 보내신 만큼 다시 입금 부탁드리겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 관련 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세 적게 보낸 만큼 다시 보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0번쨰 원소 : 적게 입금
+1번째 원소 : 많이 입금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 이벤트가 후속인지 아닌지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMainEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : 메인 이벤트 아님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 메인 이벤트임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 이벤트인지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,6 +955,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -906,24 +981,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1265,53 +1322,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="23.45" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" thickBot="1">
+        <v>28</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,445 +1384,492 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="G2" s="10" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="J2" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="15" t="s">
+      <c r="I7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" thickBot="1">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="5">
         <v>1001</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="16">
+      <c r="F9" s="16">
         <v>2002</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="16">
-        <v>-1</v>
+      <c r="G9" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="H9" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>1107</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="B10" s="5">
         <v>1002</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="F10" s="16">
         <v>2001</v>
       </c>
-      <c r="F10" s="16">
+      <c r="G10" s="16">
         <v>3002</v>
       </c>
-      <c r="G10" s="16">
+      <c r="H10" s="16">
         <v>1105</v>
       </c>
-      <c r="H10" s="16">
+      <c r="I10" s="16">
         <v>1101</v>
       </c>
-      <c r="I10" s="16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="5">
         <v>1003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="16">
+        <v>151</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="16">
         <v>2002</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="18">
         <v>1104</v>
       </c>
-      <c r="H11" s="16">
+      <c r="I11" s="16">
         <v>1101</v>
       </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="5">
         <v>1004</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="16">
+        <v>152</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="16">
         <v>2002</v>
       </c>
-      <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="5">
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="16">
+      <c r="F13" s="16">
         <v>2001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3003</v>
       </c>
-      <c r="G13" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="5">
         <v>1101</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="16">
         <v>2001</v>
       </c>
-      <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="5">
         <v>1102</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="16">
+      <c r="F16" s="16">
         <v>2002</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16">
+        <v>4002</v>
+      </c>
       <c r="H16" s="16"/>
-      <c r="I16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="B17" s="5">
         <v>1103</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="16">
+      <c r="F17" s="16">
         <v>2002</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="16">
+        <v>4001</v>
+      </c>
       <c r="H17" s="16"/>
-      <c r="I17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="B18" s="5">
         <v>1104</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="16">
+        <v>149</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="16">
         <v>2004</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H18" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="16">
+      <c r="G18" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16">
         <v>4001</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="1:11">
       <c r="B19" s="5">
         <v>1105</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="16">
+        <v>148</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="16">
         <v>2003</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I19" s="16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="33" customHeight="1">
       <c r="B20" s="5">
         <v>1106</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="16">
+        <v>110</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="16">
         <v>2005</v>
       </c>
-      <c r="F20" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="5">
-        <v>-1</v>
-      </c>
-      <c r="I20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" s="5">
+        <v>1107</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3003</v>
+      </c>
       <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="5">
+        <v>4004</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="16">
+        <v>2005</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1769,16 +1878,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1828,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C5" s="38"/>
     </row>
@@ -1837,13 +1946,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -1857,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1865,7 +1974,7 @@
         <v>3001</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1873,7 +1982,7 @@
         <v>3002</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1881,7 +1990,7 @@
         <v>3003</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1889,15 +1998,15 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="34.799999999999997">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33">
       <c r="B13">
         <v>3101</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1905,7 +2014,7 @@
         <v>3102</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1913,7 +2022,7 @@
         <v>3103</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1921,7 +2030,7 @@
         <v>3104</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -1929,7 +2038,7 @@
         <v>3105</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -1937,7 +2046,7 @@
         <v>3106</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -1945,7 +2054,7 @@
         <v>3107</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -1953,7 +2062,7 @@
         <v>3108</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -1961,7 +2070,7 @@
         <v>3109</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -1969,7 +2078,7 @@
         <v>3110</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -1977,7 +2086,7 @@
         <v>3111</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -1985,7 +2094,7 @@
         <v>3112</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -1993,7 +2102,7 @@
         <v>3113</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -2001,7 +2110,7 @@
         <v>3114</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -2009,7 +2118,7 @@
         <v>3115</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -2017,7 +2126,7 @@
         <v>3116</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -2025,7 +2134,7 @@
         <v>3117</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -2033,7 +2142,7 @@
         <v>3118</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -2041,7 +2150,7 @@
         <v>3119</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -2049,23 +2158,47 @@
         <v>3120</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="B33">
         <v>3121</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="B34">
         <v>3122</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36">
+        <v>4001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37">
+        <v>4002</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2085,9 +2218,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2098,7 +2231,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2150,7 +2283,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -2164,7 +2297,7 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2172,7 +2305,7 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2180,7 +2313,7 @@
         <v>2003</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2188,7 +2321,7 @@
         <v>2004</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2196,7 +2329,7 @@
         <v>2005</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2210,22 +2343,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="5"/>
-    <col min="2" max="4" width="14.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="5"/>
+    <col min="2" max="3" width="14.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.296875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.3984375" style="5" customWidth="1"/>
-    <col min="9" max="10" width="17.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="5"/>
+    <col min="6" max="6" width="17.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
@@ -2233,31 +2367,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2274,22 +2408,22 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2297,31 +2431,31 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2332,28 +2466,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2361,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -2372,42 +2506,42 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2415,13 +2549,13 @@
         <v>4001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D7" s="16">
         <v>3105</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F7" s="5">
         <v>4002</v>
@@ -2444,13 +2578,13 @@
         <v>4002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D8" s="16">
         <v>3109</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5">
         <v>4005</v>
@@ -2473,13 +2607,13 @@
         <v>4003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D9" s="16">
         <v>3113</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F9" s="5">
         <v>4002</v>
@@ -2497,13 +2631,13 @@
         <v>4004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D10" s="16">
         <v>3116</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F10" s="5">
         <v>4007</v>
@@ -2521,7 +2655,7 @@
         <v>4005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D11" s="5">
         <v>3120</v>
@@ -2534,7 +2668,7 @@
         <v>4006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D12" s="5">
         <v>3121</v>
@@ -2547,13 +2681,29 @@
         <v>4007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D13" s="5">
         <v>3122</v>
       </c>
       <c r="E13" s="16"/>
       <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="33">
+      <c r="B15" s="5">
+        <v>10001</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\Mandle_10Minute_Game\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4420D9AE-4C61-4B77-A509-7EE803242334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A88128D-9491-4762-88C4-9C7FF09C316D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="170">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,6 +651,15 @@
   <si>
     <t>메인 이벤트인지</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피곤함</t>
+  </si>
+  <si>
+    <t>배터리부족</t>
+  </si>
+  <si>
+    <t>wifi</t>
   </si>
 </sst>
 </file>
@@ -1324,24 +1333,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.45" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="23.4" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1382,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" thickBot="1">
+    <row r="2" spans="1:10" ht="18" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25" thickBot="1">
+    <row r="6" spans="1:10" ht="18" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1512,7 @@
       <c r="I6" s="33"/>
       <c r="J6" s="25"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25" thickBot="1">
+    <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -1884,10 +1893,10 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2001,7 +2010,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33">
+    <row r="13" spans="1:3" ht="34.799999999999997">
       <c r="B13">
         <v>3101</v>
       </c>
@@ -2212,15 +2221,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7ED222-C632-437F-9F99-BE16CE033DC8}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2330,6 +2339,30 @@
       </c>
       <c r="C12" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2006</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>2007</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>2008</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2349,17 +2382,17 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="5"/>
-    <col min="2" max="3" width="14.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="5"/>
+    <col min="2" max="3" width="14.19921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" style="5" customWidth="1"/>
     <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="5" customWidth="1"/>
-    <col min="9" max="10" width="17.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="5"/>
+    <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.3984375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="17.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
@@ -2694,7 +2727,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="33">
+    <row r="15" spans="1:10" ht="34.799999999999997">
       <c r="B15" s="5">
         <v>10001</v>
       </c>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A88128D-9491-4762-88C4-9C7FF09C316D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510500E6-B117-482C-9496-B193AC08F91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="230">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,6 +660,241 @@
   </si>
   <si>
     <t>wifi</t>
+  </si>
+  <si>
+    <t>택배기사 채팅 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만에 연락한 친구 채팅 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동창회 회장 채팅 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배기사와의 채팅 App 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배기사와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배기사와 대화종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만에 연락한 친구 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동창회 회장 친구 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 고객님. 배송 도착했는데 문 앞에 두고 갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 네! 그냥 두고 가주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넵 감사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넵, 안전하게 놓고 갑니다. 좋은 하루 되세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3124, 3125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고이벤트메세지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만에 연락한 친구 채팅 App대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동창회 회장 채팅 App대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3004, 3123, 3124, 3120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야 들래야! 오랜만이네 잘 지내냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 오랜만, 나는 잘지내지 너는 어떻게 지내?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럭저럭 지내고 있어, 너는 어떻게 지내?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실례지만 누구세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3005, 3127, 3128 , 3129, 3130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만인친구와 대화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3128, 3129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만인친구와 대화2</t>
+  </si>
+  <si>
+    <t>오랜만인친구와 대화3</t>
+  </si>
+  <si>
+    <t>오랜만인친구와 대화4</t>
+  </si>
+  <si>
+    <t>오랜만친구 대화종료1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만친구 대화종료2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 잘 지내고 있지, 사진 정리하다가 너랑 친구들이랑 같이 여행 갔던거 생각나서 연락했어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그때 재미있었지, 그때 같이 갔던 애들이랑 다같이 만날래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아하 그렇구나, 오랜만에 다 같이 모여서 만날까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3132, 3133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아 그러면 다음주 수요일에 만나는 거 어때?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능할 것 같아 그때 만나자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어 나 그날은 안될 것 같아, 조금 있다가 되는날 알려 줄게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요일은 좀 힘든데 그러면 다음주 금요일은 어때?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3135, 3137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예전에 너랑 같이 여행 갔던 OO이야 너무 오랜만이라 까먹은거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난이야 기억하지 잘 지내?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 기억났다 순간 누군가 했네 미안하다. 잘 지내?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3139, 3140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아, 그러면 그날 만나는 걸로 하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그러면 되는 날 말해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동창회 대화 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동창회 대화 2</t>
+  </si>
+  <si>
+    <t>동창회 대화종료1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동창회 대화종료2</t>
+  </si>
+  <si>
+    <t>들래야! 잘 지내냐? 우리 다음주에 동창회 하는데 올래? 다들 모인다고 해서 연락해봤어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음..혹시 누구누구 오는지 알 수 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3006, 3143, 3144, 3135, 3136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 시간 될 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3144, 3145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너랑 친했던 XX도 오고, OO도 올거야 다들 너 보고 싶어하더라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그러면 가는걸로 할게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…내가 다음주에는 일정이 많아서…안될 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어.. 다음 주에는 시간이 안될 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그러면 오는 걸로 알고 있을게, 조금 있다가 오는 애들 다 정해지면 단톡방 초대해줄게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그러면 못 오는 걸로 알고 있을게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,6 +1216,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1331,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1344,7 +1582,8 @@
     <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="8" max="8" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.59765625" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
@@ -1421,7 +1660,7 @@
       <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1451,7 +1690,7 @@
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
         <v>43</v>
@@ -1477,7 +1716,7 @@
       <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="12" t="s">
         <v>164</v>
       </c>
@@ -1499,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="15" t="s">
         <v>165</v>
       </c>
@@ -1680,89 +1919,76 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="B14" s="5">
+        <v>1006</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2002</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="5">
-        <v>1101</v>
+        <v>1007</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="16">
-        <v>2001</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+        <v>2002</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="5">
-        <v>1102</v>
+        <v>1008</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="16">
         <v>2002</v>
       </c>
-      <c r="G16" s="16">
-        <v>4002</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="B17" s="5">
-        <v>1103</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="16">
-        <v>2002</v>
-      </c>
-      <c r="G17" s="16">
-        <v>4001</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="5">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1771,108 +1997,241 @@
         <v>17</v>
       </c>
       <c r="F18" s="16">
-        <v>2004</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>109</v>
-      </c>
+        <v>2001</v>
+      </c>
+      <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="16">
-        <v>4001</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="B19" s="5">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="16">
-        <v>2003</v>
-      </c>
-      <c r="G19" s="16"/>
+        <v>2002</v>
+      </c>
+      <c r="G19" s="16">
+        <v>4002</v>
+      </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="33" customHeight="1">
       <c r="B20" s="5">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" s="16">
-        <v>2005</v>
-      </c>
-      <c r="G20" s="5"/>
+        <v>2002</v>
+      </c>
+      <c r="G20" s="16">
+        <v>4001</v>
+      </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>160</v>
-      </c>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:11">
       <c r="B21" s="5">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="16">
         <v>2004</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="5">
+        <v>1105</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="16">
+        <v>2003</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" ht="69.599999999999994">
+      <c r="B23" s="5">
+        <v>1106</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="16">
+        <v>2005</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="5">
+        <v>1107</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G24" s="5">
         <v>3003</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="5">
+        <v>1108</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="5">
+        <v>1109</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="5">
+        <v>1110</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="5">
+    <row r="31" spans="1:11">
+      <c r="B31" s="5">
         <v>4004</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C31" t="s">
         <v>159</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F31" s="16">
         <v>2005</v>
       </c>
     </row>
@@ -1887,16 +2246,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1928,7 +2287,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1939,7 +2298,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -1948,7 +2307,7 @@
       <c r="B5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -1957,7 +2316,7 @@
       <c r="B6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -2003,210 +2362,466 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="34.799999999999997">
+      <c r="B12">
+        <v>3004</v>
+      </c>
+      <c r="C12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="B13">
-        <v>3101</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>114</v>
+        <v>3005</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14">
-        <v>3102</v>
+        <v>3006</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15">
-        <v>3103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34.799999999999997">
       <c r="B16">
-        <v>3104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
+        <v>3101</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32">
+        <v>3117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>3118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>3119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35">
         <v>3120</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="B33">
+    <row r="36" spans="2:3">
+      <c r="B36">
         <v>3121</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="B34">
+    <row r="37" spans="2:3">
+      <c r="B37">
         <v>3122</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38">
+        <v>3123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39">
+        <v>3124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40">
+        <v>3125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41">
+        <v>3126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42">
+        <v>3127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43">
+        <v>3128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44">
+        <v>3129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>3130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46">
+        <v>3131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47">
+        <v>3132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48">
+        <v>3133</v>
+      </c>
+      <c r="C48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>3134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>3135</v>
+      </c>
+      <c r="C50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>3136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>3137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53">
+        <v>3138</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54">
+        <v>3139</v>
+      </c>
+      <c r="C54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55">
+        <v>3140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56">
+        <v>3141</v>
+      </c>
+      <c r="C56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57">
+        <v>3142</v>
+      </c>
+      <c r="C57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58">
+        <v>3143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59">
+        <v>3144</v>
+      </c>
+      <c r="C59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60">
+        <v>3145</v>
+      </c>
+      <c r="C60" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61">
+        <v>3146</v>
+      </c>
+      <c r="C61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62">
+        <v>3147</v>
+      </c>
+      <c r="C62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63">
+        <v>3148</v>
+      </c>
+      <c r="C63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64">
+        <v>3149</v>
+      </c>
+      <c r="C64" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65">
+        <v>3150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66">
+        <v>3151</v>
+      </c>
+      <c r="C66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="B36">
+    <row r="69" spans="1:3">
+      <c r="B69">
         <v>4001</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C69" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="B37">
+    <row r="70" spans="1:3">
+      <c r="B70">
         <v>4002</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C70" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2223,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7ED222-C632-437F-9F99-BE16CE033DC8}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2261,7 +2876,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2272,7 +2887,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -2281,14 +2896,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="38"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -2376,16 +2991,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.69921875" style="5"/>
-    <col min="2" max="3" width="14.19921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="5" customWidth="1"/>
     <col min="4" max="4" width="16.69921875" style="5" customWidth="1"/>
     <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
@@ -2723,18 +3339,260 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="5">
+        <v>4008</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="5">
+        <v>4009</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3123</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4010</v>
+      </c>
+      <c r="I15" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="5">
+        <v>4010</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="5">
+        <v>4011</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3127</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4012</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3130</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4014</v>
+      </c>
+      <c r="I17" s="5">
+        <v>50</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="5">
+        <v>4012</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3131</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4013</v>
+      </c>
+      <c r="I18" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="5">
+        <v>4013</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3134</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4015</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3136</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4016</v>
+      </c>
+      <c r="I19" s="5">
+        <v>20</v>
+      </c>
+      <c r="J19" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="5">
+        <v>4014</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3138</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4012</v>
+      </c>
+      <c r="I20" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="5">
+        <v>4015</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="5">
+        <v>4016</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="5">
+        <v>4017</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3143</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3146</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4019</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="5">
+        <v>4018</v>
+      </c>
+      <c r="I23" s="5">
+        <v>100</v>
+      </c>
+      <c r="J23" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="5">
+        <v>4018</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3147</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3148</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4019</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3149</v>
+      </c>
+      <c r="H24" s="5">
+        <v>4020</v>
+      </c>
+      <c r="I24" s="5">
+        <v>50</v>
+      </c>
+      <c r="J24" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="5">
+        <v>4019</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="5">
+        <v>4020</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="34.799999999999997">
-      <c r="B15" s="5">
+    <row r="30" spans="1:10">
+      <c r="B30" s="5">
         <v>10001</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D30" s="5">
         <v>3101</v>
       </c>
     </row>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510500E6-B117-482C-9496-B193AC08F91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609C1CF-021F-4505-946F-19D38242CABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="226">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,9 +275,6 @@
     <t>PositiveTextList</t>
   </si>
   <si>
-    <t>PostiveTalkID</t>
-  </si>
-  <si>
     <t>TalkingID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,10 +422,6 @@
   </si>
   <si>
     <t>3001, 3105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001, 3105, 3106, 3017, 3018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -485,14 +478,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>PostiveValue</t>
-  </si>
-  <si>
     <t>NegativeValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NegativeTalkId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -730,10 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3004, 3123, 3124, 3120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>야 들래야! 오랜만이네 잘 지내냐?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,10 +732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3005, 3127, 3128 , 3129, 3130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오랜만인친구와 대화1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -861,10 +839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3006, 3143, 3144, 3135, 3136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래 시간 될 것 같아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -894,6 +868,18 @@
   </si>
   <si>
     <t>그래 그러면 못 오는 걸로 알고 있을게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositiveTalkID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositiveValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NegativeTalkID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,7 +1100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,9 +1203,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1234,6 +1217,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1571,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1600,7 +1589,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>25</v>
@@ -1618,7 +1607,7 @@
         <v>29</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1">
@@ -1632,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>30</v>
@@ -1660,11 +1649,11 @@
       <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>35</v>
@@ -1680,7 +1669,7 @@
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1690,7 +1679,7 @@
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
         <v>43</v>
@@ -1706,7 +1695,7 @@
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1716,9 +1705,9 @@
       <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>44</v>
@@ -1730,7 +1719,7 @@
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1">
@@ -1738,9 +1727,9 @@
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="37"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>45</v>
@@ -1753,7 +1742,7 @@
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>46</v>
@@ -1762,7 +1751,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>48</v>
@@ -1780,7 +1769,7 @@
         <v>52</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1788,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="20"/>
       <c r="E8" s="20"/>
@@ -1802,7 +1791,7 @@
         <v>1001</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1814,7 +1803,7 @@
         <v>2002</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H9" s="16">
         <v>1107</v>
@@ -1827,7 +1816,7 @@
         <v>1002</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1854,7 +1843,7 @@
         <v>1003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1866,7 +1855,7 @@
         <v>2002</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H11" s="18">
         <v>1104</v>
@@ -1880,7 +1869,7 @@
         <v>1004</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1900,7 +1889,7 @@
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1923,7 +1912,7 @@
         <v>1006</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1940,7 +1929,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1957,7 +1946,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1974,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="5"/>
@@ -2008,7 +1997,7 @@
         <v>1102</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2030,7 +2019,7 @@
         <v>1103</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2052,7 +2041,7 @@
         <v>1104</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2063,8 +2052,8 @@
       <c r="F21" s="16">
         <v>2004</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>109</v>
+      <c r="G21" s="39">
+        <v>3001</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -2077,7 +2066,7 @@
         <v>1105</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2098,7 +2087,7 @@
         <v>1106</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2113,10 +2102,10 @@
       <c r="H23" s="16"/>
       <c r="I23" s="5"/>
       <c r="J23" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2124,7 +2113,7 @@
         <v>1107</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2146,7 +2135,7 @@
         <v>1108</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2157,8 +2146,8 @@
       <c r="F25" s="16">
         <v>2004</v>
       </c>
-      <c r="G25" s="34" t="s">
-        <v>187</v>
+      <c r="G25" s="40">
+        <v>3004</v>
       </c>
       <c r="J25">
         <v>4009</v>
@@ -2169,7 +2158,7 @@
         <v>1109</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2180,8 +2169,8 @@
       <c r="F26" s="16">
         <v>2004</v>
       </c>
-      <c r="G26" t="s">
-        <v>192</v>
+      <c r="G26" s="40">
+        <v>3005</v>
       </c>
       <c r="J26">
         <v>4011</v>
@@ -2192,7 +2181,7 @@
         <v>1110</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2203,8 +2192,8 @@
       <c r="F27" s="16">
         <v>2004</v>
       </c>
-      <c r="G27" t="s">
-        <v>221</v>
+      <c r="G27" s="40">
+        <v>3006</v>
       </c>
       <c r="J27">
         <v>4017</v>
@@ -2215,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2223,7 +2212,7 @@
         <v>4004</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2248,7 +2237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -2287,7 +2276,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2298,29 +2287,29 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="39"/>
+        <v>98</v>
+      </c>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="39"/>
+        <v>99</v>
+      </c>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -2334,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2342,7 +2331,7 @@
         <v>3001</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2350,7 +2339,7 @@
         <v>3002</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2358,7 +2347,7 @@
         <v>3003</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2366,7 +2355,7 @@
         <v>3004</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2374,7 +2363,7 @@
         <v>3005</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2382,7 +2371,7 @@
         <v>3006</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2390,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.799999999999997">
@@ -2398,7 +2387,7 @@
         <v>3101</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -2430,7 +2419,7 @@
         <v>3105</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -2438,7 +2427,7 @@
         <v>3106</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -2446,7 +2435,7 @@
         <v>3107</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -2454,7 +2443,7 @@
         <v>3108</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -2462,7 +2451,7 @@
         <v>3109</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -2470,7 +2459,7 @@
         <v>3110</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -2478,7 +2467,7 @@
         <v>3111</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -2486,7 +2475,7 @@
         <v>3112</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -2494,7 +2483,7 @@
         <v>3113</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -2502,7 +2491,7 @@
         <v>3114</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -2510,7 +2499,7 @@
         <v>3115</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -2518,7 +2507,7 @@
         <v>3116</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -2526,7 +2515,7 @@
         <v>3117</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -2534,7 +2523,7 @@
         <v>3118</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -2542,7 +2531,7 @@
         <v>3119</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -2550,7 +2539,7 @@
         <v>3120</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -2558,7 +2547,7 @@
         <v>3121</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -2566,7 +2555,7 @@
         <v>3122</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -2574,7 +2563,7 @@
         <v>3123</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -2582,7 +2571,7 @@
         <v>3124</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -2590,7 +2579,7 @@
         <v>3125</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -2598,7 +2587,7 @@
         <v>3126</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -2606,7 +2595,7 @@
         <v>3127</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -2614,7 +2603,7 @@
         <v>3128</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -2622,7 +2611,7 @@
         <v>3129</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -2630,7 +2619,7 @@
         <v>3130</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -2638,7 +2627,7 @@
         <v>3131</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -2646,7 +2635,7 @@
         <v>3132</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -2654,7 +2643,7 @@
         <v>3133</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -2662,7 +2651,7 @@
         <v>3134</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -2670,7 +2659,7 @@
         <v>3135</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -2678,7 +2667,7 @@
         <v>3136</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -2686,7 +2675,7 @@
         <v>3137</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -2694,7 +2683,7 @@
         <v>3138</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -2702,7 +2691,7 @@
         <v>3139</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -2710,7 +2699,7 @@
         <v>3140</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -2718,7 +2707,7 @@
         <v>3141</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -2726,7 +2715,7 @@
         <v>3142</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -2734,7 +2723,7 @@
         <v>3143</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -2742,7 +2731,7 @@
         <v>3144</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -2750,7 +2739,7 @@
         <v>3145</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -2758,7 +2747,7 @@
         <v>3146</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -2766,7 +2755,7 @@
         <v>3147</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -2774,7 +2763,7 @@
         <v>3148</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -2782,7 +2771,7 @@
         <v>3149</v>
       </c>
       <c r="C64" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2790,7 +2779,7 @@
         <v>3150</v>
       </c>
       <c r="C65" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2798,7 +2787,7 @@
         <v>3151</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2806,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2814,7 +2803,7 @@
         <v>4001</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2822,7 +2811,7 @@
         <v>4002</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2828,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2876,7 +2865,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2887,7 +2876,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -2896,18 +2885,18 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -2921,7 +2910,7 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2929,7 +2918,7 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2937,7 +2926,7 @@
         <v>2003</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2945,7 +2934,7 @@
         <v>2004</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2953,7 +2942,7 @@
         <v>2005</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2961,7 +2950,7 @@
         <v>2006</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2969,7 +2958,7 @@
         <v>2007</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2977,7 +2966,7 @@
         <v>2008</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2993,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -3037,10 +3026,10 @@
         <v>60</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3069,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3083,10 +3072,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>63</v>
@@ -3101,10 +3090,10 @@
         <v>65</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3115,10 +3104,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>64</v>
@@ -3133,10 +3122,10 @@
         <v>66</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3147,7 +3136,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3155,18 +3144,18 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>47</v>
@@ -3178,19 +3167,19 @@
         <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3198,13 +3187,13 @@
         <v>4001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="16">
         <v>3105</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="5">
         <v>4002</v>
@@ -3227,13 +3216,13 @@
         <v>4002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="16">
         <v>3109</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="5">
         <v>4005</v>
@@ -3256,13 +3245,13 @@
         <v>4003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="16">
         <v>3113</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="5">
         <v>4002</v>
@@ -3280,13 +3269,13 @@
         <v>4004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="16">
         <v>3116</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="5">
         <v>4007</v>
@@ -3304,7 +3293,7 @@
         <v>4005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="5">
         <v>3120</v>
@@ -3317,7 +3306,7 @@
         <v>4006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="5">
         <v>3121</v>
@@ -3330,7 +3319,7 @@
         <v>4007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="5">
         <v>3122</v>
@@ -3343,7 +3332,7 @@
         <v>4008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D14" s="5">
         <v>3101</v>
@@ -3354,13 +3343,13 @@
         <v>4009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D15" s="5">
         <v>3123</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F15" s="5">
         <v>4010</v>
@@ -3374,7 +3363,7 @@
         <v>4010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D16" s="5">
         <v>3126</v>
@@ -3385,13 +3374,13 @@
         <v>4011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D17" s="5">
         <v>3127</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F17" s="5">
         <v>4012</v>
@@ -3414,13 +3403,13 @@
         <v>4012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D18" s="5">
         <v>3131</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F18" s="5">
         <v>4013</v>
@@ -3434,13 +3423,13 @@
         <v>4013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D19" s="5">
         <v>3134</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F19" s="5">
         <v>4015</v>
@@ -3463,13 +3452,13 @@
         <v>4014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D20" s="5">
         <v>3138</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F20" s="5">
         <v>4012</v>
@@ -3483,7 +3472,7 @@
         <v>4015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D21" s="5">
         <v>3141</v>
@@ -3494,7 +3483,7 @@
         <v>4016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D22" s="5">
         <v>3142</v>
@@ -3505,7 +3494,7 @@
         <v>4017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D23" s="5">
         <v>3143</v>
@@ -3517,7 +3506,7 @@
         <v>4019</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H23" s="5">
         <v>4018</v>
@@ -3534,7 +3523,7 @@
         <v>4018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D24" s="5">
         <v>3147</v>
@@ -3563,7 +3552,7 @@
         <v>4019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D25" s="5">
         <v>3150</v>
@@ -3574,7 +3563,7 @@
         <v>4020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D26" s="5">
         <v>3151</v>
@@ -3582,7 +3571,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3590,7 +3579,7 @@
         <v>10001</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D30" s="5">
         <v>3101</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609C1CF-021F-4505-946F-19D38242CABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BAD99F-EE7D-4C80-AA27-2343D9D43970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
     <sheet name="TextDT" sheetId="2" r:id="rId2"/>
     <sheet name="PrefabDT" sheetId="3" r:id="rId3"/>
     <sheet name="TalkingDT" sheetId="4" r:id="rId4"/>
+    <sheet name="NarrationDT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="264">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -880,6 +881,155 @@
   </si>
   <si>
     <t>NegativeTalkID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집주인과의 채팅 App대화</t>
+  </si>
+  <si>
+    <t>어려움</t>
+  </si>
+  <si>
+    <t>집주인과의 전화 App대화</t>
+  </si>
+  <si>
+    <t>집주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세입금 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세입금 부족메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세입금 초과메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3007, 4003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나레이션으로 쓰일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트의 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NarrationID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NarrationText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NarrationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나레이션 Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10분늦는다고 했으니 게임이나 한판 하고 있을까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까먹지말고 오늘 은행앱으로 입금해놔야 겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나레이션 생성 애니메이션이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모드 출력된 후 해당 UI 유지시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위는 초단위로 기록된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나래이션이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나래이션 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나레이션의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NarrationName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행입금 이벤트 도입부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 도입부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안그래도 지금 입금하려 했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넵 알겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들래님 오늘까지 꼭 입금 부탁드려요 저번달에도 늦게 보내셨었잖아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들래님 이번달 월세 입금해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세입금 독촉전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4005, 4006, 4007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +1037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,6 +1091,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1203,6 +1360,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1217,12 +1380,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1575,7 +1732,7 @@
     <col min="8" max="8" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.59765625" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="11" max="11" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.4" customHeight="1" thickBot="1">
@@ -1649,7 +1806,7 @@
       <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1679,7 +1836,7 @@
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
         <v>43</v>
@@ -1705,7 +1862,7 @@
       <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="12" t="s">
         <v>160</v>
       </c>
@@ -1727,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="36"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="15" t="s">
         <v>161</v>
       </c>
@@ -1880,9 +2037,18 @@
       <c r="F12" s="16">
         <v>2002</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1111</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1112</v>
+      </c>
+      <c r="J12" s="5">
+        <v>10010</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="5">
@@ -2052,7 +2218,7 @@
       <c r="F21" s="16">
         <v>2004</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="16">
         <v>3001</v>
       </c>
       <c r="H21" s="16"/>
@@ -2146,7 +2312,7 @@
       <c r="F25" s="16">
         <v>2004</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25">
         <v>3004</v>
       </c>
       <c r="J25">
@@ -2169,7 +2335,7 @@
       <c r="F26" s="16">
         <v>2004</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26">
         <v>3005</v>
       </c>
       <c r="J26">
@@ -2192,11 +2358,57 @@
       <c r="F27" s="16">
         <v>2004</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27">
         <v>3006</v>
       </c>
       <c r="J27">
         <v>4017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28">
+        <v>1111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28">
+        <v>2004</v>
+      </c>
+      <c r="G28">
+        <v>3007</v>
+      </c>
+      <c r="J28" s="5">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29">
+        <v>1112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>2003</v>
+      </c>
+      <c r="G29">
+        <v>3007</v>
+      </c>
+      <c r="J29" s="5">
+        <v>4024</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2235,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2276,7 +2488,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2287,7 +2499,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -2296,7 +2508,7 @@
       <c r="B5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -2305,7 +2517,7 @@
       <c r="B6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -2375,443 +2587,515 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>3007</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34.799999999999997">
-      <c r="B16">
+    <row r="18" spans="1:3" ht="34.799999999999997">
+      <c r="B18">
         <v>3101</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
+    <row r="19" spans="1:3">
+      <c r="B19">
         <v>3102</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18">
+    <row r="20" spans="1:3">
+      <c r="B20">
         <v>3103</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19">
+    <row r="21" spans="1:3">
+      <c r="B21">
         <v>3104</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20">
+    <row r="22" spans="1:3">
+      <c r="B22">
         <v>3105</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21">
+    <row r="23" spans="1:3">
+      <c r="B23">
         <v>3106</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22">
+    <row r="24" spans="1:3">
+      <c r="B24">
         <v>3107</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23">
+    <row r="25" spans="1:3">
+      <c r="B25">
         <v>3108</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24">
+    <row r="26" spans="1:3">
+      <c r="B26">
         <v>3109</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25">
+    <row r="27" spans="1:3">
+      <c r="B27">
         <v>3110</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26">
+    <row r="28" spans="1:3">
+      <c r="B28">
         <v>3111</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27">
+    <row r="29" spans="1:3">
+      <c r="B29">
         <v>3112</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28">
+    <row r="30" spans="1:3">
+      <c r="B30">
         <v>3113</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29">
+    <row r="31" spans="1:3">
+      <c r="B31">
         <v>3114</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
-      <c r="B30">
+    <row r="32" spans="1:3">
+      <c r="B32">
         <v>3115</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31">
-        <v>3116</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32">
-        <v>3117</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="C65" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66">
+        <v>3149</v>
+      </c>
+      <c r="C66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67">
+        <v>3150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68">
         <v>3151</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C68" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="B69">
+    <row r="71" spans="1:3">
+      <c r="B71">
         <v>4001</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C71" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="B70">
+    <row r="72" spans="1:3">
+      <c r="B72">
         <v>4002</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73">
+        <v>4003</v>
+      </c>
+      <c r="C73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74">
+        <v>4004</v>
+      </c>
+      <c r="C74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75">
+        <v>4005</v>
+      </c>
+      <c r="C75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76">
+        <v>4006</v>
+      </c>
+      <c r="C76" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77">
+        <v>4007</v>
+      </c>
+      <c r="C77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81">
+        <v>5100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82">
+        <v>5101</v>
+      </c>
+      <c r="C82" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +3149,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2876,7 +3160,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -2885,14 +3169,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="38"/>
+      <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -2980,10 +3264,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -3569,20 +3853,223 @@
         <v>3151</v>
       </c>
     </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="5">
+        <v>4021</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="5">
+        <v>4022</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28">
+        <v>4002</v>
+      </c>
+    </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
-        <v>141</v>
+      <c r="B29" s="5">
+        <v>4023</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29">
+        <v>4001</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="5">
+        <v>4024</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4004</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I30" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="5">
         <v>10001</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D32" s="5">
         <v>3101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E700BA1-4920-4342-AF0B-E626177C7CC3}">
+  <dimension ref="A1:XFD9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5 16384:16384">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="XFD1" s="34"/>
+    </row>
+    <row r="2" spans="1:5 16384:16384">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5 16384:16384">
+      <c r="A3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5 16384:16384">
+      <c r="A4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5 16384:16384">
+      <c r="A5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5 16384:16384">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:5 16384:16384">
+      <c r="A7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5 16384:16384">
+      <c r="B8">
+        <v>6001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8">
+        <v>5100</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5 16384:16384">
+      <c r="B9">
+        <v>6002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>5200</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BAD99F-EE7D-4C80-AA27-2343D9D43970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75ED54A-814E-40CB-A6FE-D77F462681A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="275">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,10 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>// 기타 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>광고 메시지 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1030,6 +1026,53 @@
   </si>
   <si>
     <t>4005, 4006, 4007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마와의 통화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">// </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 사항</t>
+  </si>
+  <si>
+    <t>도입부 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구가 늦는다는 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐들이 온다는 친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차가 막혀서 10분정도 늦을 것 같아 미안하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3008, 9100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늦는 친구와의 채팅App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 대화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1715,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1746,7 +1789,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>25</v>
@@ -1778,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>30</v>
@@ -1810,7 +1853,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>35</v>
@@ -1864,7 +1907,7 @@
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>44</v>
@@ -1886,7 +1929,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="38"/>
       <c r="D6" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>45</v>
@@ -1908,7 +1951,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>48</v>
@@ -2000,7 +2043,7 @@
         <v>1003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2026,7 +2069,7 @@
         <v>1004</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2038,7 +2081,7 @@
         <v>2002</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H12" s="16">
         <v>1111</v>
@@ -2055,7 +2098,7 @@
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2078,7 +2121,7 @@
         <v>1006</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2095,7 +2138,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2112,7 +2155,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2163,7 +2206,7 @@
         <v>1102</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2185,7 +2228,7 @@
         <v>1103</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2207,7 +2250,7 @@
         <v>1104</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2232,7 +2275,7 @@
         <v>1105</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2271,7 +2314,7 @@
         <v>109</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2279,7 +2322,7 @@
         <v>1107</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2301,7 +2344,7 @@
         <v>1108</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2324,7 +2367,7 @@
         <v>1109</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2347,7 +2390,7 @@
         <v>1110</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2370,19 +2413,25 @@
         <v>1111</v>
       </c>
       <c r="C28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>226</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>227</v>
       </c>
       <c r="F28">
         <v>2004</v>
       </c>
       <c r="G28">
         <v>3007</v>
+      </c>
+      <c r="H28">
+        <v>1106</v>
+      </c>
+      <c r="I28">
+        <v>1106</v>
       </c>
       <c r="J28" s="5">
         <v>4021</v>
@@ -2393,13 +2442,13 @@
         <v>1112</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29">
         <v>2003</v>
@@ -2407,6 +2456,12 @@
       <c r="G29">
         <v>3007</v>
       </c>
+      <c r="H29">
+        <v>1106</v>
+      </c>
+      <c r="I29">
+        <v>1106</v>
+      </c>
       <c r="J29" s="5">
         <v>4024</v>
       </c>
@@ -2416,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2424,7 +2479,7 @@
         <v>4004</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2434,6 +2489,60 @@
       </c>
       <c r="F31" s="16">
         <v>2005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33">
+        <v>9001</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>2002</v>
+      </c>
+      <c r="G33" t="s">
+        <v>272</v>
+      </c>
+      <c r="H33">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34">
+        <v>9100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>2003</v>
+      </c>
+      <c r="G34">
+        <v>3008</v>
+      </c>
+      <c r="J34" s="5">
+        <v>10100</v>
       </c>
     </row>
   </sheetData>
@@ -2447,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2567,7 +2676,7 @@
         <v>3004</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2575,7 +2684,7 @@
         <v>3005</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2583,7 +2692,7 @@
         <v>3006</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2591,7 +2700,15 @@
         <v>3007</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>3008</v>
+      </c>
+      <c r="C16" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2783,7 +2900,7 @@
         <v>3123</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -2791,7 +2908,7 @@
         <v>3124</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -2799,7 +2916,7 @@
         <v>3125</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -2807,7 +2924,7 @@
         <v>3126</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -2815,7 +2932,7 @@
         <v>3127</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -2823,7 +2940,7 @@
         <v>3128</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -2831,7 +2948,7 @@
         <v>3129</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -2839,7 +2956,7 @@
         <v>3130</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -2847,7 +2964,7 @@
         <v>3131</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -2855,7 +2972,7 @@
         <v>3132</v>
       </c>
       <c r="C49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -2863,7 +2980,7 @@
         <v>3133</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -2871,7 +2988,7 @@
         <v>3134</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -2879,7 +2996,7 @@
         <v>3135</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -2887,7 +3004,7 @@
         <v>3136</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -2895,7 +3012,7 @@
         <v>3137</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -2903,7 +3020,7 @@
         <v>3138</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -2911,7 +3028,7 @@
         <v>3139</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -2919,7 +3036,7 @@
         <v>3140</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -2927,7 +3044,7 @@
         <v>3141</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -2935,7 +3052,7 @@
         <v>3142</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -2943,7 +3060,7 @@
         <v>3143</v>
       </c>
       <c r="C60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -2951,7 +3068,7 @@
         <v>3144</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -2959,7 +3076,7 @@
         <v>3145</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -2967,7 +3084,7 @@
         <v>3146</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -2975,7 +3092,7 @@
         <v>3147</v>
       </c>
       <c r="C64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2983,7 +3100,7 @@
         <v>3148</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2991,7 +3108,7 @@
         <v>3149</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2999,7 +3116,7 @@
         <v>3150</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3007,95 +3124,119 @@
         <v>3151</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="B71">
-        <v>4001</v>
-      </c>
-      <c r="C71" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="B72">
-        <v>4002</v>
-      </c>
-      <c r="C72" t="s">
-        <v>153</v>
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73">
-        <v>4003</v>
+        <v>9200</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74">
+        <v>9201</v>
+      </c>
+      <c r="C74" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86">
+        <v>4001</v>
+      </c>
+      <c r="C86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87">
+        <v>4002</v>
+      </c>
+      <c r="C87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="B88">
+        <v>4003</v>
+      </c>
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89">
         <v>4004</v>
       </c>
-      <c r="C74" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="B75">
+      <c r="C89" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90">
         <v>4005</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C90" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91">
+        <v>4006</v>
+      </c>
+      <c r="C91" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="B76">
-        <v>4006</v>
-      </c>
-      <c r="C76" t="s">
+    <row r="92" spans="1:3">
+      <c r="B92">
+        <v>4007</v>
+      </c>
+      <c r="C92" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="B77">
-        <v>4007</v>
-      </c>
-      <c r="C77" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96">
+        <v>5100</v>
+      </c>
+      <c r="C96" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
-      <c r="B81">
-        <v>5100</v>
-      </c>
-      <c r="C81" t="s">
+    <row r="97" spans="2:3">
+      <c r="B97">
+        <v>5101</v>
+      </c>
+      <c r="C97" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82">
-        <v>5101</v>
-      </c>
-      <c r="C82" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3234,7 +3375,7 @@
         <v>2006</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3242,7 +3383,7 @@
         <v>2007</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3250,7 +3391,7 @@
         <v>2008</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3264,10 +3405,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -3451,16 +3592,16 @@
         <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>124</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>123</v>
@@ -3616,7 +3757,7 @@
         <v>4008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="5">
         <v>3101</v>
@@ -3627,13 +3768,13 @@
         <v>4009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="5">
         <v>3123</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="5">
         <v>4010</v>
@@ -3647,24 +3788,24 @@
         <v>4010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="5">
         <v>3126</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="2:10">
       <c r="B17" s="5">
         <v>4011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="5">
         <v>3127</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="5">
         <v>4012</v>
@@ -3682,18 +3823,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="2:10">
       <c r="B18" s="5">
         <v>4012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="5">
         <v>3131</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="5">
         <v>4013</v>
@@ -3702,18 +3843,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="2:10">
       <c r="B19" s="5">
         <v>4013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" s="5">
         <v>3134</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19" s="5">
         <v>4015</v>
@@ -3731,18 +3872,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="2:10">
       <c r="B20" s="5">
         <v>4014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="5">
         <v>3138</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F20" s="5">
         <v>4012</v>
@@ -3751,34 +3892,34 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="2:10">
       <c r="B21" s="5">
         <v>4015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D21" s="5">
         <v>3141</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="2:10">
       <c r="B22" s="5">
         <v>4016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="5">
         <v>3142</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="2:10">
       <c r="B23" s="5">
         <v>4017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="5">
         <v>3143</v>
@@ -3790,7 +3931,7 @@
         <v>4019</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H23" s="5">
         <v>4018</v>
@@ -3802,12 +3943,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="2:10">
       <c r="B24" s="5">
         <v>4018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D24" s="5">
         <v>3147</v>
@@ -3831,92 +3972,120 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="2:10">
       <c r="B25" s="5">
         <v>4019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D25" s="5">
         <v>3150</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="2:10">
       <c r="B26" s="5">
         <v>4020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" s="5">
         <v>3151</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="2:10">
       <c r="B27" s="5">
         <v>4021</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" s="5">
         <v>4003</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="2:10">
       <c r="B28" s="5">
         <v>4022</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D28">
         <v>4002</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="2:10">
       <c r="B29" s="5">
         <v>4023</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D29">
         <v>4001</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="2:10">
       <c r="B30" s="5">
         <v>4024</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D30" s="5">
         <v>4004</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I30" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="2:10">
+      <c r="B31" s="5">
+        <v>4025</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="5">
+        <v>10001</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="5">
-        <v>10001</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="D34" s="5">
         <v>3101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35" s="5">
+        <v>10100</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D35" s="5">
+        <v>9200</v>
+      </c>
+      <c r="E35" s="5">
+        <v>9201</v>
+      </c>
+      <c r="I35" s="5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3946,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="XFD1" s="34"/>
     </row>
@@ -3964,16 +4133,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5 16384:16384">
@@ -3981,16 +4150,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5 16384:16384">
@@ -3998,16 +4167,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:5 16384:16384">
@@ -4015,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:5 16384:16384">
@@ -4032,16 +4201,16 @@
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="C7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="E7" t="s">
         <v>239</v>
-      </c>
-      <c r="E7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5 16384:16384">
@@ -4049,7 +4218,7 @@
         <v>6001</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8">
         <v>5100</v>
@@ -4063,7 +4232,7 @@
         <v>6002</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D9">
         <v>5200</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75ED54A-814E-40CB-A6FE-D77F462681A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554DB7BC-4CFD-404A-BFD4-61A2F20C9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="290">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1029,10 +1029,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엄마와의 통화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">// </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1073,6 +1069,69 @@
   </si>
   <si>
     <t>튜토리얼 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마와의 통화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마와의 통화2</t>
+  </si>
+  <si>
+    <t>엄마와의 통화종료1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마와의 통화종료2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 집에 올거니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 점심머고 집으로 갈 것 같아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아뇨 내일 할 일이 있어서 못 갈 것 같아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 먹고 나서 상황 보고 말씀드려야 할 것 같아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3154, 3155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 너무 바쁜거 아니니? 밥은 잘 챙겨 먹고 다녀?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 좀 바쁘네요…밥은 잘 챙겨 먹고 있으니 걱정 안 하셔도 돼요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러게요.. 나중에 바쁜 거 좀 끝나고 집에 갈게요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걱정안하셔도 괜찮아요. 내일 모레에는 시간이 될것같아서 그때 찾아뵐께요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3157, 3158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그러면 올 때 반찬통 가지고 오면 반찬 줄게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래, 알겠어. 하지만 꼭 몸 챙겨야해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,7 +1139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,6 +1200,14 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1300,7 +1367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1423,6 +1490,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1760,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2286,7 +2356,9 @@
       <c r="F22" s="16">
         <v>2003</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="16">
+        <v>3002</v>
+      </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -2496,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -2504,7 +2576,7 @@
         <v>9001</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2516,7 +2588,7 @@
         <v>2002</v>
       </c>
       <c r="G33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H33">
         <v>9100</v>
@@ -2527,7 +2599,7 @@
         <v>9100</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2556,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2708,7 +2780,7 @@
         <v>3008</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3127,115 +3199,195 @@
         <v>221</v>
       </c>
     </row>
+    <row r="69" spans="1:3">
+      <c r="B69">
+        <v>3152</v>
+      </c>
+      <c r="C69" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70">
+        <v>3153</v>
+      </c>
+      <c r="C70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71">
+        <v>3154</v>
+      </c>
+      <c r="C71" t="s">
+        <v>280</v>
+      </c>
+    </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>269</v>
+      <c r="B72">
+        <v>3155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73">
-        <v>9200</v>
+        <v>3156</v>
       </c>
       <c r="C73" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74">
+        <v>3157</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75">
+        <v>3158</v>
+      </c>
+      <c r="C75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76">
+        <v>3159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77">
+        <v>3160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78">
+        <v>3161</v>
+      </c>
+      <c r="C78" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="B80">
+        <v>9200</v>
+      </c>
+      <c r="C80" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81">
         <v>9201</v>
       </c>
-      <c r="C74" t="s">
-        <v>271</v>
+      <c r="C81" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="B83">
+        <v>4001</v>
+      </c>
+      <c r="C83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="B84">
+        <v>4002</v>
+      </c>
+      <c r="C84" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>142</v>
+      <c r="B85">
+        <v>4003</v>
+      </c>
+      <c r="C85" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="B86">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="B87">
-        <v>4002</v>
+        <v>4005</v>
       </c>
       <c r="C87" t="s">
-        <v>152</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="B88">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="B89">
-        <v>4004</v>
+        <v>4007</v>
       </c>
       <c r="C89" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="B90">
-        <v>4005</v>
-      </c>
-      <c r="C90" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="B91">
-        <v>4006</v>
-      </c>
-      <c r="C91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="B92">
-        <v>4007</v>
-      </c>
-      <c r="C92" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="B96">
+    <row r="93" spans="1:3">
+      <c r="B93">
         <v>5100</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C93" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
-      <c r="B97">
+    <row r="94" spans="1:3">
+      <c r="B94">
         <v>5101</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C94" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3405,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -4049,42 +4201,114 @@
         <v>4025</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>263</v>
+        <v>274</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3153</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3153</v>
+      </c>
+      <c r="F31" s="5">
+        <v>4027</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H31" s="5">
+        <v>4026</v>
+      </c>
+      <c r="I31" s="5">
+        <v>100</v>
+      </c>
+      <c r="J31" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="5">
+        <v>4026</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3156</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" s="5">
+        <v>4028</v>
+      </c>
+      <c r="G32" s="5">
+        <v>3159</v>
+      </c>
+      <c r="H32" s="5">
+        <v>4027</v>
+      </c>
+      <c r="I32" s="5">
+        <v>50</v>
+      </c>
+      <c r="J32" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>265</v>
+      <c r="B33" s="5">
+        <v>4027</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33">
+        <v>3160</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="5">
+        <v>4028</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="5">
         <v>10001</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D38" s="5">
         <v>3101</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="5">
+    <row r="39" spans="1:9">
+      <c r="B39" s="5">
         <v>10100</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C39" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="5">
         <v>9200</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E39" s="5">
         <v>9201</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I39" s="5">
         <v>100</v>
       </c>
     </row>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554DB7BC-4CFD-404A-BFD4-61A2F20C9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C29987A-CE8D-4C3B-8EC1-60EE02032471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -1476,6 +1476,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1490,9 +1493,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1830,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1919,7 +1919,7 @@
       <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1949,7 +1949,7 @@
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
         <v>43</v>
@@ -1975,7 +1975,7 @@
       <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="12" t="s">
         <v>159</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="38"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="15" t="s">
         <v>160</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>1112</v>
       </c>
       <c r="J12" s="5">
-        <v>10010</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2669,7 +2669,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -2689,7 +2689,7 @@
       <c r="B5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -2698,7 +2698,7 @@
       <c r="B6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -3243,7 +3243,7 @@
       <c r="B74">
         <v>3157</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="36" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -3462,14 +3462,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="40"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -3559,7 +3559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C29987A-CE8D-4C3B-8EC1-60EE02032471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564B99F8-FAA0-476A-A120-84683181BE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -1060,10 +1060,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3008, 9100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>늦는 친구와의 채팅App</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1132,6 +1128,10 @@
   </si>
   <si>
     <t>그래, 알겠어. 하지만 꼭 몸 챙겨야해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3008, 5100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1830,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2588,7 +2588,7 @@
         <v>2002</v>
       </c>
       <c r="G33" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="H33">
         <v>9100</v>
@@ -2599,7 +2599,7 @@
         <v>9100</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>16</v>
       </c>
       <c r="F34">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G34">
         <v>3008</v>
@@ -2630,7 +2630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
@@ -3204,7 +3204,7 @@
         <v>3152</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3212,7 +3212,7 @@
         <v>3153</v>
       </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3220,7 +3220,7 @@
         <v>3154</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3228,7 +3228,7 @@
         <v>3155</v>
       </c>
       <c r="C72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3236,7 +3236,7 @@
         <v>3156</v>
       </c>
       <c r="C73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3244,7 +3244,7 @@
         <v>3157</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>3158</v>
       </c>
       <c r="C75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3260,7 +3260,7 @@
         <v>3159</v>
       </c>
       <c r="C76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>3160</v>
       </c>
       <c r="C77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3276,7 +3276,7 @@
         <v>3161</v>
       </c>
       <c r="C78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3405,7 +3405,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4201,7 +4201,7 @@
         <v>4025</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D31" s="5">
         <v>3153</v>
@@ -4213,7 +4213,7 @@
         <v>4027</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H31" s="5">
         <v>4026</v>
@@ -4230,13 +4230,13 @@
         <v>4026</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D32" s="5">
         <v>3156</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F32" s="5">
         <v>4028</v>
@@ -4259,7 +4259,7 @@
         <v>4027</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D33">
         <v>3160</v>
@@ -4270,7 +4270,7 @@
         <v>4028</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D34" s="5">
         <v>3161</v>
@@ -4300,7 +4300,7 @@
         <v>10100</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D39" s="5">
         <v>9200</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564B99F8-FAA0-476A-A120-84683181BE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF17292-B74E-4AEB-848B-316F4F0B93BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -1131,7 +1131,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3008, 5100</t>
+    <t>3008, 9200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1830,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2159,9 +2159,7 @@
       <c r="I12" s="16">
         <v>1112</v>
       </c>
-      <c r="J12" s="5">
-        <v>10001</v>
-      </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="5">
@@ -2410,6 +2408,9 @@
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
+      <c r="J24">
+        <v>10001</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="5">
@@ -3559,7 +3560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF17292-B74E-4AEB-848B-316F4F0B93BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A98069-A3A4-49C0-BE39-3EAF9228BDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="298">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그래 그럼 조금 있다가 다시 연락할게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래 그럼 내일 보자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1132,6 +1128,42 @@
   </si>
   <si>
     <t>3008, 9200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그럼 조금 있다가 연락줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요 고객님 이번에 저희가 진행하고 있는 이벤트에 대해서 설명드리고자 하는데 괜찮으실까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 바뻐서 죄송합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니요 괜찮습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(대답하지 않는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객님! 끊지마세요! 정말 좋은 기회라니까요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고전화대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3163, 3164, 3165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고대화 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1828,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1859,7 +1891,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>25</v>
@@ -1877,7 +1909,7 @@
         <v>29</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1">
@@ -1891,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>30</v>
@@ -1923,7 +1955,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>35</v>
@@ -1939,7 +1971,7 @@
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1965,7 +1997,7 @@
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1977,7 +2009,7 @@
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>44</v>
@@ -1989,7 +2021,7 @@
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1">
@@ -1999,7 +2031,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="39"/>
       <c r="D6" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>45</v>
@@ -2012,7 +2044,7 @@
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>46</v>
@@ -2021,7 +2053,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>48</v>
@@ -2039,7 +2071,7 @@
         <v>52</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2047,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="20"/>
       <c r="E8" s="20"/>
@@ -2061,7 +2093,7 @@
         <v>1001</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2073,7 +2105,7 @@
         <v>2002</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="16">
         <v>1107</v>
@@ -2086,7 +2118,7 @@
         <v>1002</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2113,7 +2145,7 @@
         <v>1003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2125,7 +2157,7 @@
         <v>2002</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" s="18">
         <v>1104</v>
@@ -2139,7 +2171,7 @@
         <v>1004</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2151,7 +2183,7 @@
         <v>2002</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H12" s="16">
         <v>1111</v>
@@ -2166,7 +2198,7 @@
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2189,7 +2221,7 @@
         <v>1006</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2199,6 +2231,12 @@
       </c>
       <c r="F14" s="16">
         <v>2002</v>
+      </c>
+      <c r="G14">
+        <v>3004</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1108</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2206,7 +2244,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2216,6 +2254,12 @@
       </c>
       <c r="F15" s="16">
         <v>2002</v>
+      </c>
+      <c r="G15">
+        <v>3005</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1109</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2223,7 +2267,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2234,13 +2278,19 @@
       <c r="F16" s="16">
         <v>2002</v>
       </c>
+      <c r="G16">
+        <v>3006</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1110</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="5"/>
@@ -2274,7 +2324,7 @@
         <v>1102</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2296,7 +2346,7 @@
         <v>1103</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2318,7 +2368,7 @@
         <v>1104</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2343,7 +2393,7 @@
         <v>1105</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2359,14 +2409,16 @@
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="16">
+        <v>4025</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="69.599999999999994">
       <c r="B23" s="5">
         <v>1106</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2381,10 +2433,10 @@
       <c r="H23" s="16"/>
       <c r="I23" s="5"/>
       <c r="J23" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2392,7 +2444,7 @@
         <v>1107</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2417,7 +2469,7 @@
         <v>1108</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2440,7 +2492,7 @@
         <v>1109</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2463,7 +2515,7 @@
         <v>1110</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2486,13 +2538,13 @@
         <v>1111</v>
       </c>
       <c r="C28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>225</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>226</v>
       </c>
       <c r="F28">
         <v>2004</v>
@@ -2515,13 +2567,13 @@
         <v>1112</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F29">
         <v>2003</v>
@@ -2539,82 +2591,85 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="B31" s="5">
-        <v>4004</v>
-      </c>
-      <c r="C31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="16">
-        <v>2005</v>
-      </c>
-    </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" s="5">
+        <v>4004</v>
+      </c>
+      <c r="C33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="16">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35">
+        <v>9001</v>
+      </c>
+      <c r="C35" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33">
-        <v>9001</v>
-      </c>
-      <c r="C33" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>16</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <v>2002</v>
       </c>
-      <c r="G33" t="s">
-        <v>289</v>
-      </c>
-      <c r="H33">
+      <c r="G35" t="s">
+        <v>288</v>
+      </c>
+      <c r="H35">
         <v>9100</v>
       </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34">
+      <c r="I35">
         <v>9100</v>
       </c>
-      <c r="C34" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36">
+        <v>9100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
         <v>16</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <v>2004</v>
       </c>
-      <c r="G34">
+      <c r="G36">
         <v>3008</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J36" s="5">
         <v>10100</v>
       </c>
     </row>
@@ -2629,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2688,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="41"/>
     </row>
@@ -2697,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -2717,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2741,7 +2796,7 @@
         <v>3003</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2749,7 +2804,7 @@
         <v>3004</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2757,7 +2812,7 @@
         <v>3005</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2765,7 +2820,7 @@
         <v>3006</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2773,7 +2828,7 @@
         <v>3007</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2781,7 +2836,7 @@
         <v>3008</v>
       </c>
       <c r="C16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2789,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34.799999999999997">
@@ -2797,7 +2852,7 @@
         <v>3101</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2949,7 +3004,7 @@
         <v>3120</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -2957,7 +3012,7 @@
         <v>3121</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -2965,7 +3020,7 @@
         <v>3122</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -2973,7 +3028,7 @@
         <v>3123</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -2981,7 +3036,7 @@
         <v>3124</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -2989,7 +3044,7 @@
         <v>3125</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -2997,7 +3052,7 @@
         <v>3126</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -3005,7 +3060,7 @@
         <v>3127</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -3013,7 +3068,7 @@
         <v>3128</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -3021,7 +3076,7 @@
         <v>3129</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -3029,7 +3084,7 @@
         <v>3130</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -3037,7 +3092,7 @@
         <v>3131</v>
       </c>
       <c r="C48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -3045,7 +3100,7 @@
         <v>3132</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -3053,7 +3108,7 @@
         <v>3133</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -3061,7 +3116,7 @@
         <v>3134</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -3069,7 +3124,7 @@
         <v>3135</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -3077,7 +3132,7 @@
         <v>3136</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -3085,7 +3140,7 @@
         <v>3137</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -3093,7 +3148,7 @@
         <v>3138</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -3101,7 +3156,7 @@
         <v>3139</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -3109,7 +3164,7 @@
         <v>3140</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -3117,7 +3172,7 @@
         <v>3141</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -3125,7 +3180,7 @@
         <v>3142</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -3133,7 +3188,7 @@
         <v>3143</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -3141,7 +3196,7 @@
         <v>3144</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -3149,7 +3204,7 @@
         <v>3145</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -3157,7 +3212,7 @@
         <v>3146</v>
       </c>
       <c r="C63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -3165,231 +3220,271 @@
         <v>3147</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65">
         <v>3148</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66">
         <v>3149</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
       <c r="B67">
         <v>3150</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
       <c r="B68">
         <v>3151</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
       <c r="B69">
         <v>3152</v>
       </c>
       <c r="C69" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
       <c r="B70">
         <v>3153</v>
       </c>
       <c r="C70" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
       <c r="B71">
         <v>3154</v>
       </c>
       <c r="C71" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
       <c r="B72">
         <v>3155</v>
       </c>
       <c r="C72" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73">
         <v>3156</v>
       </c>
       <c r="C73" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
       <c r="B74">
         <v>3157</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
       <c r="B75">
         <v>3158</v>
       </c>
       <c r="C75" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
       <c r="B76">
         <v>3159</v>
       </c>
       <c r="C76" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
       <c r="B77">
         <v>3160</v>
       </c>
       <c r="C77" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
       <c r="B78">
         <v>3161</v>
       </c>
       <c r="C78" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79">
+        <v>3162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
       <c r="B80">
-        <v>9200</v>
+        <v>3163</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="B81">
-        <v>9201</v>
+        <v>3164</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>142</v>
+      <c r="B82">
+        <v>3165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="B83">
-        <v>4001</v>
+        <v>3166</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="B84">
-        <v>4002</v>
-      </c>
-      <c r="C84" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="B85">
-        <v>4003</v>
-      </c>
-      <c r="C85" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="B86">
-        <v>4004</v>
-      </c>
-      <c r="C86" t="s">
-        <v>259</v>
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="B87">
-        <v>4005</v>
+        <v>9200</v>
       </c>
       <c r="C87" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="B88">
-        <v>4006</v>
+        <v>9201</v>
       </c>
       <c r="C88" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="B89">
-        <v>4007</v>
-      </c>
-      <c r="C89" t="s">
-        <v>258</v>
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90">
+        <v>4001</v>
+      </c>
+      <c r="C90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91">
+        <v>4002</v>
+      </c>
+      <c r="C91" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
-        <v>241</v>
+      <c r="B92">
+        <v>4003</v>
+      </c>
+      <c r="C92" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="B93">
-        <v>5100</v>
+        <v>4004</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="B94">
+        <v>4005</v>
+      </c>
+      <c r="C94" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95">
+        <v>4006</v>
+      </c>
+      <c r="C95" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96">
+        <v>4007</v>
+      </c>
+      <c r="C96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100">
+        <v>5100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101">
         <v>5101</v>
       </c>
-      <c r="C94" t="s">
-        <v>243</v>
+      <c r="C101" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +3569,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -3488,7 +3583,7 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3496,7 +3591,7 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3504,7 +3599,7 @@
         <v>2003</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3512,7 +3607,7 @@
         <v>2004</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3520,7 +3615,7 @@
         <v>2005</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3528,7 +3623,7 @@
         <v>2006</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3536,7 +3631,7 @@
         <v>2007</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3544,7 +3639,7 @@
         <v>2008</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3560,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -3604,10 +3699,10 @@
         <v>60</v>
       </c>
       <c r="I1" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3636,10 +3731,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3650,10 +3745,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>63</v>
@@ -3668,10 +3763,10 @@
         <v>65</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3682,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>64</v>
@@ -3700,10 +3795,10 @@
         <v>66</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3714,7 +3809,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3722,15 +3817,15 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>70</v>
@@ -3745,19 +3840,19 @@
         <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3771,7 +3866,7 @@
         <v>3105</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="5">
         <v>4002</v>
@@ -3800,7 +3895,7 @@
         <v>3109</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="5">
         <v>4005</v>
@@ -3829,7 +3924,7 @@
         <v>3113</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5">
         <v>4002</v>
@@ -3853,7 +3948,7 @@
         <v>3116</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="5">
         <v>4007</v>
@@ -3910,7 +4005,7 @@
         <v>4008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14" s="5">
         <v>3101</v>
@@ -3921,13 +4016,13 @@
         <v>4009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="5">
         <v>3123</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F15" s="5">
         <v>4010</v>
@@ -3941,7 +4036,7 @@
         <v>4010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="5">
         <v>3126</v>
@@ -3952,13 +4047,13 @@
         <v>4011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="5">
         <v>3127</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17" s="5">
         <v>4012</v>
@@ -3981,13 +4076,13 @@
         <v>4012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="5">
         <v>3131</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18" s="5">
         <v>4013</v>
@@ -4001,13 +4096,13 @@
         <v>4013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" s="5">
         <v>3134</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F19" s="5">
         <v>4015</v>
@@ -4030,13 +4125,13 @@
         <v>4014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" s="5">
         <v>3138</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" s="5">
         <v>4012</v>
@@ -4050,7 +4145,7 @@
         <v>4015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" s="5">
         <v>3141</v>
@@ -4061,7 +4156,7 @@
         <v>4016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" s="5">
         <v>3142</v>
@@ -4072,7 +4167,7 @@
         <v>4017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="5">
         <v>3143</v>
@@ -4084,7 +4179,7 @@
         <v>4019</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H23" s="5">
         <v>4018</v>
@@ -4101,7 +4196,7 @@
         <v>4018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D24" s="5">
         <v>3147</v>
@@ -4130,7 +4225,7 @@
         <v>4019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25" s="5">
         <v>3150</v>
@@ -4141,7 +4236,7 @@
         <v>4020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D26" s="5">
         <v>3151</v>
@@ -4152,7 +4247,7 @@
         <v>4021</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D27" s="5">
         <v>4003</v>
@@ -4163,7 +4258,7 @@
         <v>4022</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D28">
         <v>4002</v>
@@ -4174,7 +4269,7 @@
         <v>4023</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29">
         <v>4001</v>
@@ -4185,13 +4280,13 @@
         <v>4024</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D30" s="5">
         <v>4004</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I30" s="5">
         <v>100</v>
@@ -4202,7 +4297,7 @@
         <v>4025</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D31" s="5">
         <v>3153</v>
@@ -4214,7 +4309,7 @@
         <v>4027</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H31" s="5">
         <v>4026</v>
@@ -4231,13 +4326,13 @@
         <v>4026</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D32" s="5">
         <v>3156</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F32" s="5">
         <v>4028</v>
@@ -4260,7 +4355,7 @@
         <v>4027</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D33">
         <v>3160</v>
@@ -4271,18 +4366,49 @@
         <v>4028</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D34" s="5">
         <v>3161</v>
       </c>
     </row>
+    <row r="35" spans="1:9">
+      <c r="B35" s="5">
+        <v>4029</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35">
+        <v>3162</v>
+      </c>
+      <c r="E35" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4030</v>
+      </c>
+      <c r="I35" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="5">
+        <v>4030</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3166</v>
+      </c>
+    </row>
     <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4290,7 +4416,7 @@
         <v>10001</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" s="5">
         <v>3101</v>
@@ -4301,7 +4427,7 @@
         <v>10100</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D39" s="5">
         <v>9200</v>
@@ -4340,16 +4466,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="XFD1" s="34"/>
     </row>
@@ -4358,16 +4484,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5 16384:16384">
@@ -4375,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5 16384:16384">
@@ -4392,16 +4518,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5 16384:16384">
@@ -4409,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5 16384:16384">
@@ -4423,19 +4549,19 @@
     </row>
     <row r="7" spans="1:5 16384:16384">
       <c r="A7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="C7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="E7" t="s">
         <v>238</v>
-      </c>
-      <c r="E7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:5 16384:16384">
@@ -4443,7 +4569,7 @@
         <v>6001</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D8">
         <v>5100</v>
@@ -4457,7 +4583,7 @@
         <v>6002</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D9">
         <v>5200</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A98069-A3A4-49C0-BE39-3EAF9228BDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EC82B6-80C3-4254-BEA2-AB03B3303129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="303">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1164,6 +1164,24 @@
   </si>
   <si>
     <t>광고대화 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 전화 App 대화</t>
+  </si>
+  <si>
+    <t>중간</t>
+  </si>
+  <si>
+    <t>피곤함이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배터리부족이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷재연결 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1860,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2212,7 +2230,9 @@
       <c r="G13">
         <v>3003</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16">
+        <v>1113</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
@@ -2286,165 +2306,104 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="16">
+        <v>2006</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="5">
-        <v>1101</v>
+        <v>1010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="16">
-        <v>2001</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+        <v>2007</v>
+      </c>
+      <c r="I18">
+        <v>1010</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="B19" s="5">
-        <v>1102</v>
+        <v>1011</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="16">
-        <v>2002</v>
-      </c>
-      <c r="G19" s="16">
-        <v>4002</v>
+        <v>2008</v>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="33" customHeight="1">
-      <c r="B20" s="5">
-        <v>1103</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="16">
-        <v>2002</v>
-      </c>
-      <c r="G20" s="16">
-        <v>4001</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="B21" s="5">
-        <v>1104</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="I19">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="33" customHeight="1"/>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="16">
-        <v>2004</v>
-      </c>
-      <c r="G21" s="16">
-        <v>3001</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="5">
-        <v>1105</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="16">
-        <v>2003</v>
-      </c>
-      <c r="G22" s="16">
-        <v>3002</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="69.599999999999994">
-      <c r="B23" s="5">
-        <v>1106</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F23" s="16">
-        <v>2005</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>2001</v>
+      </c>
+      <c r="G23" s="16"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>154</v>
-      </c>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:11">
       <c r="B24" s="5">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2453,46 +2412,42 @@
         <v>16</v>
       </c>
       <c r="F24" s="16">
-        <v>2004</v>
-      </c>
-      <c r="G24" s="5">
-        <v>3003</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24">
-        <v>10001</v>
-      </c>
+        <v>2002</v>
+      </c>
+      <c r="G24" s="16">
+        <v>4002</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="5">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="16">
-        <v>2004</v>
-      </c>
-      <c r="G25">
-        <v>3004</v>
-      </c>
-      <c r="J25">
-        <v>4009</v>
-      </c>
+        <v>2002</v>
+      </c>
+      <c r="G25" s="16">
+        <v>4001</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:11">
       <c r="B26" s="5">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2503,19 +2458,21 @@
       <c r="F26" s="16">
         <v>2004</v>
       </c>
-      <c r="G26">
-        <v>3005</v>
-      </c>
-      <c r="J26">
-        <v>4011</v>
+      <c r="G26" s="16">
+        <v>3001</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16">
+        <v>4001</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="B27" s="5">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2524,152 +2481,297 @@
         <v>17</v>
       </c>
       <c r="F27" s="16">
+        <v>2003</v>
+      </c>
+      <c r="G27" s="16">
+        <v>3002</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="69.599999999999994">
+      <c r="B28" s="5">
+        <v>1106</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="16">
+        <v>2005</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="5">
+        <v>1107</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="16">
         <v>2004</v>
       </c>
-      <c r="G27">
+      <c r="G29" s="5">
+        <v>3003</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="5">
+        <v>1108</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G30">
+        <v>3004</v>
+      </c>
+      <c r="J30">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="5">
+        <v>1109</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G31">
+        <v>3005</v>
+      </c>
+      <c r="J31">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="5">
+        <v>1110</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G32">
         <v>3006</v>
       </c>
-      <c r="J27">
+      <c r="J32">
         <v>4017</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="B28">
+    <row r="33" spans="1:10">
+      <c r="B33">
         <v>1111</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" t="s">
         <v>224</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
         <v>225</v>
       </c>
-      <c r="F28">
+      <c r="F33">
         <v>2004</v>
       </c>
-      <c r="G28">
+      <c r="G33">
         <v>3007</v>
       </c>
-      <c r="H28">
+      <c r="H33">
         <v>1106</v>
       </c>
-      <c r="I28">
+      <c r="I33">
         <v>1106</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J33" s="5">
         <v>4021</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="B29">
+    <row r="34" spans="1:10">
+      <c r="B34">
         <v>1112</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" t="s">
         <v>226</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
         <v>225</v>
       </c>
-      <c r="F29">
+      <c r="F34">
         <v>2003</v>
       </c>
-      <c r="G29">
+      <c r="G34">
         <v>3007</v>
       </c>
-      <c r="H29">
+      <c r="H34">
         <v>1106</v>
       </c>
-      <c r="I29">
+      <c r="I34">
         <v>1106</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J34" s="5">
         <v>4024</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="B33" s="5">
-        <v>4004</v>
-      </c>
-      <c r="C33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="16">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="B35">
+        <v>1113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35">
+        <v>2003</v>
+      </c>
+      <c r="G35">
+        <v>3003</v>
+      </c>
+      <c r="J35">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="5">
+        <v>4004</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="16">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40">
         <v>9001</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" t="s">
         <v>265</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
         <v>16</v>
       </c>
-      <c r="F35">
+      <c r="F40">
         <v>2002</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G40" t="s">
         <v>288</v>
       </c>
-      <c r="H35">
+      <c r="H40">
         <v>9100</v>
       </c>
-      <c r="I35">
+      <c r="I40">
         <v>9100</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="B36">
+    <row r="41" spans="1:10">
+      <c r="B41">
         <v>9100</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" t="s">
         <v>270</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
         <v>16</v>
       </c>
-      <c r="F36">
+      <c r="F41">
         <v>2004</v>
       </c>
-      <c r="G36">
+      <c r="G41">
         <v>3008</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J41" s="5">
         <v>10100</v>
       </c>
     </row>
@@ -3655,8 +3757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EC82B6-80C3-4254-BEA2-AB03B3303129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18FCCF2-29D4-40B6-991F-55367B8F5D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="312">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,9 +185,6 @@
     <t>ID리스트를 나타낸다.</t>
   </si>
   <si>
-    <t>해당 이벤트를 통해 무시 혹은 수락을 하였을 경우 다음 이벤트로 넘어갈때</t>
-  </si>
-  <si>
     <t>사용 되는 ID들 표기</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
     <t>추가적으로 쓰일</t>
   </si>
   <si>
-    <t>Data의 ID를 표기</t>
-  </si>
-  <si>
     <t>ExtraDataID</t>
   </si>
   <si>
@@ -1036,10 +1030,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>친구가 늦는다는 메시지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>짐들이 온다는 친구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1056,10 +1046,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>늦는 친구와의 채팅App</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>튜토리얼 대화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1127,10 +1113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3008, 9200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래 그럼 조금 있다가 연락줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1182,6 +1164,62 @@
   </si>
   <si>
     <t>인터넷재연결 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도입부Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data의 ID를 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 : 적게입금,많이입금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 이벤트를 통해 무시 혹은 수락을 하였을 경우 다음 이벤트로 넘어갈때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">음..시즌종료까지 10분 남았다고? 랭킹 1위는 아직 나겠지? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐?! 랭킹 2등으로 내려왔잖아 1시간전에만해도 1등이었는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곧 시즌 1 랭킹전이 종료가 됩니다. 시즌이 종료가 된후 프리시즌이 바로 시작됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시즌 종료 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchoolDash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시즌 종료 채팅App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3009, 6200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없을경우 0표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 : 토킹 id,나레이션 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10100, 6003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,7 +1227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,6 +1296,22 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1417,7 +1471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,6 +1597,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1880,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1895,10 +1961,10 @@
     <col min="8" max="8" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.59765625" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>25</v>
@@ -1927,10 +1993,10 @@
         <v>29</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" thickBot="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>30</v>
@@ -1962,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+    <row r="3" spans="1:11" ht="25.8" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +2039,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>35</v>
@@ -1985,14 +2051,17 @@
         <v>38</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>114</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="31.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +2071,7 @@
       <c r="C4" s="38"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>37</v>
@@ -2011,14 +2080,17 @@
         <v>39</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>115</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2027,77 +2099,82 @@
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" thickBot="1">
+        <v>299</v>
+      </c>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="39"/>
       <c r="D6" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="32"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" thickBot="1">
+      <c r="J6" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" thickBot="1">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="J7" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>116</v>
+      </c>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="20"/>
       <c r="E8" s="20"/>
@@ -2106,12 +2183,12 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="B9" s="5">
         <v>1001</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2123,7 +2200,7 @@
         <v>2002</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H9" s="16">
         <v>1107</v>
@@ -2131,12 +2208,12 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="B10" s="5">
         <v>1002</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2158,12 +2235,12 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="B11" s="5">
         <v>1003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2175,7 +2252,7 @@
         <v>2002</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11" s="18">
         <v>1104</v>
@@ -2184,12 +2261,12 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="B12" s="5">
         <v>1004</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2201,7 +2278,7 @@
         <v>2002</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H12" s="16">
         <v>1111</v>
@@ -2211,12 +2288,12 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="B13" s="5">
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2236,12 +2313,12 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="B14" s="5">
         <v>1006</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2259,12 +2336,12 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="B15" s="5">
         <v>1007</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2282,12 +2359,12 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="B16" s="5">
         <v>1008</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2310,7 +2387,7 @@
         <v>1009</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2327,7 +2404,7 @@
         <v>1010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2347,7 +2424,7 @@
         <v>1011</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2369,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="5"/>
       <c r="E22" s="5"/>
@@ -2403,7 +2480,7 @@
         <v>1102</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2425,7 +2502,7 @@
         <v>1103</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2447,7 +2524,7 @@
         <v>1104</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2472,7 +2549,7 @@
         <v>1105</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2497,7 +2574,7 @@
         <v>1106</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2512,10 +2589,10 @@
       <c r="H28" s="16"/>
       <c r="I28" s="5"/>
       <c r="J28" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2523,7 +2600,7 @@
         <v>1107</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2548,7 +2625,7 @@
         <v>1108</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2571,7 +2648,7 @@
         <v>1109</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2594,7 +2671,7 @@
         <v>1110</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2617,13 +2694,13 @@
         <v>1111</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F33">
         <v>2004</v>
@@ -2646,13 +2723,13 @@
         <v>1112</v>
       </c>
       <c r="C34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F34">
         <v>2003</v>
@@ -2675,13 +2752,13 @@
         <v>1113</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F35">
         <v>2003</v>
@@ -2698,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2706,7 +2783,7 @@
         <v>4004</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2723,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2731,7 +2808,7 @@
         <v>9001</v>
       </c>
       <c r="C40" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2743,21 +2820,19 @@
         <v>2002</v>
       </c>
       <c r="G40" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="H40">
-        <v>9100</v>
-      </c>
-      <c r="I40">
-        <v>9100</v>
-      </c>
+        <v>9002</v>
+      </c>
+      <c r="J40" s="45"/>
     </row>
     <row r="41" spans="1:10">
       <c r="B41">
-        <v>9100</v>
+        <v>9002</v>
       </c>
       <c r="C41" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2769,10 +2844,10 @@
         <v>2004</v>
       </c>
       <c r="G41">
-        <v>3008</v>
-      </c>
-      <c r="J41" s="5">
-        <v>10100</v>
+        <v>3009</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2786,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2845,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="41"/>
     </row>
@@ -2854,13 +2929,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -2874,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2882,7 +2957,7 @@
         <v>3001</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2890,7 +2965,7 @@
         <v>3002</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2898,7 +2973,7 @@
         <v>3003</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2906,7 +2981,7 @@
         <v>3004</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2914,7 +2989,7 @@
         <v>3005</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2922,7 +2997,7 @@
         <v>3006</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2930,7 +3005,7 @@
         <v>3007</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2938,620 +3013,612 @@
         <v>3008</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="34.799999999999997">
-      <c r="B18">
+      <c r="B17">
+        <v>3009</v>
+      </c>
+      <c r="C17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34.799999999999997">
+      <c r="B20">
         <v>3101</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19">
-        <v>3102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20">
-        <v>3103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
+      <c r="C20" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="C37" t="s">
-        <v>289</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="C61" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="C69" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="C70" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="C71" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="C72" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="C73" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74">
-        <v>3157</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>282</v>
+        <v>3155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="C75" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76">
-        <v>3159</v>
-      </c>
-      <c r="C76" t="s">
-        <v>284</v>
+        <v>3157</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="C78" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="C79" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="C80" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="B81">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="C81" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="B82">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="C82" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="B83">
+        <v>3164</v>
+      </c>
+      <c r="C83" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="B84">
+        <v>3165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="B85">
         <v>3166</v>
       </c>
-      <c r="C83" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="B87">
+      <c r="C85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89">
         <v>9200</v>
       </c>
-      <c r="C87" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="B88">
-        <v>9201</v>
-      </c>
-      <c r="C88" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
-        <v>141</v>
+      <c r="C89" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="B90">
-        <v>4001</v>
+        <v>9201</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="B91">
-        <v>4002</v>
-      </c>
-      <c r="C91" t="s">
-        <v>151</v>
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="C92" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="B93">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="C93" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="B94">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="C94" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="B95">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="C95" t="s">
         <v>256</v>
@@ -3559,34 +3626,87 @@
     </row>
     <row r="96" spans="1:3">
       <c r="B96">
+        <v>4005</v>
+      </c>
+      <c r="C96" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="B97">
+        <v>4006</v>
+      </c>
+      <c r="C97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98">
         <v>4007</v>
       </c>
-      <c r="C96" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C98" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="B102">
+        <v>5100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103">
+        <v>5101</v>
+      </c>
+      <c r="C103" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="B100">
-        <v>5100</v>
-      </c>
-      <c r="C100" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="B101">
-        <v>5101</v>
-      </c>
-      <c r="C101" t="s">
-        <v>242</v>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105">
+        <v>6001</v>
+      </c>
+      <c r="C105" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106">
+        <v>6002</v>
+      </c>
+      <c r="C106" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108">
+        <v>6010</v>
+      </c>
+      <c r="C108" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3619,7 +3739,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3671,7 +3791,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -3685,7 +3805,7 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3693,7 +3813,7 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3701,7 +3821,7 @@
         <v>2003</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3709,7 +3829,7 @@
         <v>2004</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3717,7 +3837,7 @@
         <v>2005</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3725,7 +3845,7 @@
         <v>2006</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3733,7 +3853,7 @@
         <v>2007</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3741,7 +3861,7 @@
         <v>2008</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3757,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -3780,31 +3900,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="I1" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3833,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3844,31 +3964,31 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3879,28 +3999,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3908,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3919,42 +4039,42 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="F6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3962,13 +4082,13 @@
         <v>4001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="16">
         <v>3105</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="5">
         <v>4002</v>
@@ -3991,13 +4111,13 @@
         <v>4002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="16">
         <v>3109</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="5">
         <v>4005</v>
@@ -4020,13 +4140,13 @@
         <v>4003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="16">
         <v>3113</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="5">
         <v>4002</v>
@@ -4044,13 +4164,13 @@
         <v>4004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="16">
         <v>3116</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="5">
         <v>4007</v>
@@ -4068,7 +4188,7 @@
         <v>4005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5">
         <v>3120</v>
@@ -4081,7 +4201,7 @@
         <v>4006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5">
         <v>3121</v>
@@ -4094,7 +4214,7 @@
         <v>4007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="5">
         <v>3122</v>
@@ -4107,7 +4227,7 @@
         <v>4008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D14" s="5">
         <v>3101</v>
@@ -4118,13 +4238,13 @@
         <v>4009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D15" s="5">
         <v>3123</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F15" s="5">
         <v>4010</v>
@@ -4138,7 +4258,7 @@
         <v>4010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="5">
         <v>3126</v>
@@ -4149,13 +4269,13 @@
         <v>4011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D17" s="5">
         <v>3127</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F17" s="5">
         <v>4012</v>
@@ -4178,13 +4298,13 @@
         <v>4012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" s="5">
         <v>3131</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F18" s="5">
         <v>4013</v>
@@ -4198,13 +4318,13 @@
         <v>4013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D19" s="5">
         <v>3134</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F19" s="5">
         <v>4015</v>
@@ -4227,13 +4347,13 @@
         <v>4014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D20" s="5">
         <v>3138</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F20" s="5">
         <v>4012</v>
@@ -4247,7 +4367,7 @@
         <v>4015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D21" s="5">
         <v>3141</v>
@@ -4258,7 +4378,7 @@
         <v>4016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D22" s="5">
         <v>3142</v>
@@ -4269,7 +4389,7 @@
         <v>4017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D23" s="5">
         <v>3143</v>
@@ -4281,7 +4401,7 @@
         <v>4019</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H23" s="5">
         <v>4018</v>
@@ -4298,7 +4418,7 @@
         <v>4018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D24" s="5">
         <v>3147</v>
@@ -4327,7 +4447,7 @@
         <v>4019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D25" s="5">
         <v>3150</v>
@@ -4338,7 +4458,7 @@
         <v>4020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D26" s="5">
         <v>3151</v>
@@ -4349,7 +4469,7 @@
         <v>4021</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D27" s="5">
         <v>4003</v>
@@ -4360,7 +4480,7 @@
         <v>4022</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D28">
         <v>4002</v>
@@ -4371,7 +4491,7 @@
         <v>4023</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29">
         <v>4001</v>
@@ -4382,13 +4502,13 @@
         <v>4024</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D30" s="5">
         <v>4004</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I30" s="5">
         <v>100</v>
@@ -4399,7 +4519,7 @@
         <v>4025</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D31" s="5">
         <v>3153</v>
@@ -4411,7 +4531,7 @@
         <v>4027</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H31" s="5">
         <v>4026</v>
@@ -4428,13 +4548,13 @@
         <v>4026</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D32" s="5">
         <v>3156</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F32" s="5">
         <v>4028</v>
@@ -4457,7 +4577,7 @@
         <v>4027</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D33">
         <v>3160</v>
@@ -4468,7 +4588,7 @@
         <v>4028</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D34" s="5">
         <v>3161</v>
@@ -4479,13 +4599,13 @@
         <v>4029</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D35">
         <v>3162</v>
       </c>
       <c r="E35" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F35" s="5">
         <v>4030</v>
@@ -4499,7 +4619,7 @@
         <v>4030</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D36" s="5">
         <v>3166</v>
@@ -4507,10 +4627,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4518,7 +4638,7 @@
         <v>10001</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D38" s="5">
         <v>3101</v>
@@ -4529,13 +4649,10 @@
         <v>10100</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D39" s="5">
-        <v>9200</v>
-      </c>
-      <c r="E39" s="5">
-        <v>9201</v>
+        <v>6010</v>
       </c>
       <c r="I39" s="5">
         <v>100</v>
@@ -4552,7 +4669,7 @@
   <dimension ref="A1:XFD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4568,16 +4685,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="XFD1" s="34"/>
     </row>
@@ -4586,16 +4703,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5 16384:16384">
@@ -4603,16 +4720,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5 16384:16384">
@@ -4620,16 +4737,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5 16384:16384">
@@ -4637,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5 16384:16384">
@@ -4651,19 +4768,19 @@
     </row>
     <row r="7" spans="1:5 16384:16384">
       <c r="A7" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" t="s">
         <v>236</v>
-      </c>
-      <c r="C7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:5 16384:16384">
@@ -4671,10 +4788,10 @@
         <v>6001</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D8">
-        <v>5100</v>
+        <v>6010</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4685,7 +4802,7 @@
         <v>6002</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D9">
         <v>5200</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18FCCF2-29D4-40B6-991F-55367B8F5D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557C1AB5-7A70-4C3B-9911-F52EC879C7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -1207,10 +1207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3009, 6200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 없을경우 0표기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1219,7 +1215,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10100, 6003</t>
+    <t>10100, 6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3009, 9010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1583,6 +1583,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1597,18 +1609,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2035,7 +2035,7 @@
       <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -2057,18 +2057,18 @@
       <c r="J3" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="42" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="31.2">
+      <c r="K3" s="37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
         <v>42</v>
@@ -2086,7 +2086,7 @@
       <c r="J4" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="38" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="12" t="s">
         <v>156</v>
       </c>
@@ -2113,14 +2113,14 @@
       <c r="J5" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="43"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="15" t="s">
         <v>157</v>
       </c>
@@ -2132,9 +2132,9 @@
       <c r="H6" s="32"/>
       <c r="I6" s="33"/>
       <c r="J6" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="K6" s="44"/>
+        <v>308</v>
+      </c>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="18" thickBot="1">
       <c r="A7" t="s">
@@ -2569,7 +2569,7 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="69.599999999999994">
+    <row r="28" spans="1:11" ht="34.799999999999997">
       <c r="B28" s="5">
         <v>1106</v>
       </c>
@@ -2820,12 +2820,12 @@
         <v>2002</v>
       </c>
       <c r="G40" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H40">
         <v>9002</v>
       </c>
-      <c r="J40" s="45"/>
+      <c r="J40" s="40"/>
     </row>
     <row r="41" spans="1:10">
       <c r="B41">
@@ -2846,8 +2846,8 @@
       <c r="G41">
         <v>3009</v>
       </c>
-      <c r="J41" s="45" t="s">
-        <v>311</v>
+      <c r="J41" s="40" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2861,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2902,7 +2902,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="44" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -2922,7 +2922,7 @@
       <c r="B5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="45"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -2931,7 +2931,7 @@
       <c r="B6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="45"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -3682,7 +3682,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="B105">
-        <v>6001</v>
+        <v>9001</v>
       </c>
       <c r="C105" t="s">
         <v>302</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="B106">
-        <v>6002</v>
+        <v>9002</v>
       </c>
       <c r="C106" t="s">
         <v>303</v>
@@ -3698,14 +3698,9 @@
     </row>
     <row r="107" spans="1:3">
       <c r="B107">
-        <v>6003</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="B108">
-        <v>6010</v>
-      </c>
-      <c r="C108" t="s">
+        <v>9010</v>
+      </c>
+      <c r="C107" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3760,7 +3755,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3771,7 +3766,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -3780,14 +3775,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="45"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="41"/>
+      <c r="C6" s="45"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -3877,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -4652,7 +4647,7 @@
         <v>267</v>
       </c>
       <c r="D39" s="5">
-        <v>6010</v>
+        <v>9010</v>
       </c>
       <c r="I39" s="5">
         <v>100</v>
@@ -4791,7 +4786,7 @@
         <v>252</v>
       </c>
       <c r="D8">
-        <v>6010</v>
+        <v>9001</v>
       </c>
       <c r="E8">
         <v>2</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557C1AB5-7A70-4C3B-9911-F52EC879C7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12612F9-B140-4707-BFF9-5CFEB58E872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="315">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,6 +1220,18 @@
   </si>
   <si>
     <t>3009, 9010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3004, 3123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3005, 3127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3006, 3143</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1227,7 +1239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1471,7 +1483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,6 +1606,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1946,11 +1961,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" bestFit="1" customWidth="1"/>
@@ -1964,7 +1979,7 @@
     <col min="11" max="11" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +2011,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickBot="1">
+    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2028,14 +2043,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25.8" customHeight="1">
+    <row r="3" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -2061,14 +2076,14 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
         <v>42</v>
@@ -2090,14 +2105,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="12" t="s">
         <v>156</v>
       </c>
@@ -2115,12 +2130,12 @@
       </c>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:11" ht="18" thickBot="1">
+    <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="43"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="15" t="s">
         <v>157</v>
       </c>
@@ -2136,7 +2151,7 @@
       </c>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" ht="18" thickBot="1">
+    <row r="7" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -2169,7 +2184,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2198,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B9" s="5">
         <v>1001</v>
       </c>
@@ -2208,7 +2223,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B10" s="5">
         <v>1002</v>
       </c>
@@ -2235,7 +2250,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B11" s="5">
         <v>1003</v>
       </c>
@@ -2251,7 +2266,7 @@
       <c r="F11" s="16">
         <v>2002</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>105</v>
       </c>
       <c r="H11" s="18">
@@ -2261,7 +2276,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B12" s="5">
         <v>1004</v>
       </c>
@@ -2288,7 +2303,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B13" s="5">
         <v>1005</v>
       </c>
@@ -2304,7 +2319,7 @@
       <c r="F13" s="16">
         <v>2001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="41">
         <v>3003</v>
       </c>
       <c r="H13" s="16">
@@ -2313,7 +2328,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B14" s="5">
         <v>1006</v>
       </c>
@@ -2329,14 +2344,14 @@
       <c r="F14" s="16">
         <v>2002</v>
       </c>
-      <c r="G14">
-        <v>3004</v>
+      <c r="G14" s="41" t="s">
+        <v>312</v>
       </c>
       <c r="H14" s="16">
         <v>1108</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" s="5">
         <v>1007</v>
       </c>
@@ -2352,14 +2367,14 @@
       <c r="F15" s="16">
         <v>2002</v>
       </c>
-      <c r="G15">
-        <v>3005</v>
+      <c r="G15" s="41" t="s">
+        <v>313</v>
       </c>
       <c r="H15" s="16">
         <v>1109</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>1008</v>
       </c>
@@ -2375,14 +2390,14 @@
       <c r="F16" s="16">
         <v>2002</v>
       </c>
-      <c r="G16">
-        <v>3006</v>
+      <c r="G16" s="41" t="s">
+        <v>314</v>
       </c>
       <c r="H16" s="16">
         <v>1110</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
         <v>1009</v>
       </c>
@@ -2398,8 +2413,9 @@
       <c r="F17" s="16">
         <v>2006</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>1010</v>
       </c>
@@ -2415,11 +2431,12 @@
       <c r="F18" s="16">
         <v>2007</v>
       </c>
+      <c r="G18" s="41"/>
       <c r="I18">
         <v>1010</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
         <v>1011</v>
       </c>
@@ -2435,13 +2452,14 @@
       <c r="F19" s="16">
         <v>2008</v>
       </c>
+      <c r="G19" s="41"/>
       <c r="H19" s="16"/>
       <c r="I19">
         <v>1011</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="33" customHeight="1"/>
-    <row r="22" spans="1:11">
+    <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +2473,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B23" s="5">
         <v>1101</v>
       </c>
@@ -2475,7 +2493,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B24" s="5">
         <v>1102</v>
       </c>
@@ -2497,7 +2515,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B25" s="5">
         <v>1103</v>
       </c>
@@ -2519,7 +2537,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B26" s="5">
         <v>1104</v>
       </c>
@@ -2544,7 +2562,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B27" s="5">
         <v>1105</v>
       </c>
@@ -2569,7 +2587,7 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="34.799999999999997">
+    <row r="28" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B28" s="5">
         <v>1106</v>
       </c>
@@ -2595,7 +2613,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B29" s="5">
         <v>1107</v>
       </c>
@@ -2620,7 +2638,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B30" s="5">
         <v>1108</v>
       </c>
@@ -2643,7 +2661,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B31" s="5">
         <v>1109</v>
       </c>
@@ -2666,7 +2684,7 @@
         <v>4011</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B32" s="5">
         <v>1110</v>
       </c>
@@ -2689,7 +2707,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>1111</v>
       </c>
@@ -2718,7 +2736,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>1112</v>
       </c>
@@ -2747,7 +2765,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>1113</v>
       </c>
@@ -2770,7 +2788,7 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2778,7 +2796,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B38" s="5">
         <v>4004</v>
       </c>
@@ -2795,7 +2813,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2803,7 +2821,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>9001</v>
       </c>
@@ -2827,7 +2845,7 @@
       </c>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>9002</v>
       </c>
@@ -2863,17 +2881,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +2902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2895,45 +2913,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="46"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="45"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="46"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="45"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="46"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -2944,7 +2962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +2970,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>3001</v>
       </c>
@@ -2960,7 +2978,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>3002</v>
       </c>
@@ -2968,7 +2986,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>3003</v>
       </c>
@@ -2976,7 +2994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>3004</v>
       </c>
@@ -2984,7 +3002,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>3005</v>
       </c>
@@ -2992,7 +3010,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>3006</v>
       </c>
@@ -3000,7 +3018,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>3007</v>
       </c>
@@ -3008,7 +3026,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>3008</v>
       </c>
@@ -3016,7 +3034,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>3009</v>
       </c>
@@ -3024,7 +3042,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3032,7 +3050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34.799999999999997">
+    <row r="20" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>3101</v>
       </c>
@@ -3040,7 +3058,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>3102</v>
       </c>
@@ -3048,7 +3066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>3103</v>
       </c>
@@ -3056,7 +3074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>3104</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>3105</v>
       </c>
@@ -3072,7 +3090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>3106</v>
       </c>
@@ -3080,7 +3098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>3107</v>
       </c>
@@ -3088,7 +3106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>3108</v>
       </c>
@@ -3096,7 +3114,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>3109</v>
       </c>
@@ -3104,7 +3122,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>3110</v>
       </c>
@@ -3112,7 +3130,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>3111</v>
       </c>
@@ -3120,7 +3138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>3112</v>
       </c>
@@ -3128,7 +3146,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>3113</v>
       </c>
@@ -3136,7 +3154,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>3114</v>
       </c>
@@ -3144,7 +3162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>3115</v>
       </c>
@@ -3152,7 +3170,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>3116</v>
       </c>
@@ -3160,7 +3178,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>3117</v>
       </c>
@@ -3168,7 +3186,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>3118</v>
       </c>
@@ -3176,7 +3194,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>3119</v>
       </c>
@@ -3184,7 +3202,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>3120</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>3121</v>
       </c>
@@ -3200,7 +3218,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>3122</v>
       </c>
@@ -3208,7 +3226,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>3123</v>
       </c>
@@ -3216,7 +3234,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>3124</v>
       </c>
@@ -3224,7 +3242,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44">
         <v>3125</v>
       </c>
@@ -3232,7 +3250,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>3126</v>
       </c>
@@ -3240,7 +3258,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>3127</v>
       </c>
@@ -3248,7 +3266,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>3128</v>
       </c>
@@ -3256,7 +3274,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>3129</v>
       </c>
@@ -3264,7 +3282,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49">
         <v>3130</v>
       </c>
@@ -3272,7 +3290,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50">
         <v>3131</v>
       </c>
@@ -3280,7 +3298,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51">
         <v>3132</v>
       </c>
@@ -3288,7 +3306,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>3133</v>
       </c>
@@ -3296,7 +3314,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>3134</v>
       </c>
@@ -3304,7 +3322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>3135</v>
       </c>
@@ -3312,7 +3330,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>3136</v>
       </c>
@@ -3320,7 +3338,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B56">
         <v>3137</v>
       </c>
@@ -3328,7 +3346,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B57">
         <v>3138</v>
       </c>
@@ -3336,7 +3354,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B58">
         <v>3139</v>
       </c>
@@ -3344,7 +3362,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>3140</v>
       </c>
@@ -3352,7 +3370,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>3141</v>
       </c>
@@ -3360,7 +3378,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>3142</v>
       </c>
@@ -3368,7 +3386,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>3143</v>
       </c>
@@ -3376,7 +3394,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B63">
         <v>3144</v>
       </c>
@@ -3384,7 +3402,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64">
         <v>3145</v>
       </c>
@@ -3392,7 +3410,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B65">
         <v>3146</v>
       </c>
@@ -3400,7 +3418,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>3147</v>
       </c>
@@ -3408,7 +3426,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>3148</v>
       </c>
@@ -3416,7 +3434,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>3149</v>
       </c>
@@ -3424,7 +3442,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>3150</v>
       </c>
@@ -3432,7 +3450,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B70">
         <v>3151</v>
       </c>
@@ -3440,7 +3458,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B71">
         <v>3152</v>
       </c>
@@ -3448,7 +3466,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B72">
         <v>3153</v>
       </c>
@@ -3456,7 +3474,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>3154</v>
       </c>
@@ -3464,7 +3482,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>3155</v>
       </c>
@@ -3472,7 +3490,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>3156</v>
       </c>
@@ -3480,7 +3498,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>3157</v>
       </c>
@@ -3488,7 +3506,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B77">
         <v>3158</v>
       </c>
@@ -3496,7 +3514,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B78">
         <v>3159</v>
       </c>
@@ -3504,7 +3522,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B79">
         <v>3160</v>
       </c>
@@ -3512,7 +3530,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>3161</v>
       </c>
@@ -3520,7 +3538,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>3162</v>
       </c>
@@ -3528,7 +3546,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B82">
         <v>3163</v>
       </c>
@@ -3536,7 +3554,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B83">
         <v>3164</v>
       </c>
@@ -3544,7 +3562,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B84">
         <v>3165</v>
       </c>
@@ -3552,7 +3570,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B85">
         <v>3166</v>
       </c>
@@ -3560,7 +3578,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3568,7 +3586,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B89">
         <v>9200</v>
       </c>
@@ -3576,7 +3594,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B90">
         <v>9201</v>
       </c>
@@ -3584,7 +3602,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3592,7 +3610,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B92">
         <v>4001</v>
       </c>
@@ -3600,7 +3618,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B93">
         <v>4002</v>
       </c>
@@ -3608,7 +3626,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B94">
         <v>4003</v>
       </c>
@@ -3616,7 +3634,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B95">
         <v>4004</v>
       </c>
@@ -3624,7 +3642,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B96">
         <v>4005</v>
       </c>
@@ -3632,7 +3650,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B97">
         <v>4006</v>
       </c>
@@ -3640,7 +3658,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B98">
         <v>4007</v>
       </c>
@@ -3648,7 +3666,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3656,7 +3674,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B102">
         <v>5100</v>
       </c>
@@ -3664,7 +3682,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B103">
         <v>5101</v>
       </c>
@@ -3672,7 +3690,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -3680,7 +3698,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B105">
         <v>9001</v>
       </c>
@@ -3688,7 +3706,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B106">
         <v>9002</v>
       </c>
@@ -3696,7 +3714,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B107">
         <v>9010</v>
       </c>
@@ -3721,12 +3739,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3737,7 +3755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3748,43 +3766,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="46"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="45"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="46"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="45"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="46"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -3795,7 +3813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>2001</v>
       </c>
@@ -3803,7 +3821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>2002</v>
       </c>
@@ -3811,7 +3829,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>2003</v>
       </c>
@@ -3819,7 +3837,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>2004</v>
       </c>
@@ -3827,7 +3845,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>2005</v>
       </c>
@@ -3835,7 +3853,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>2006</v>
       </c>
@@ -3843,7 +3861,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>2007</v>
       </c>
@@ -3851,7 +3869,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>2008</v>
       </c>
@@ -3872,11 +3890,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.69921875" style="5"/>
     <col min="2" max="2" width="14.19921875" style="5" customWidth="1"/>
@@ -3890,7 +3908,7 @@
     <col min="11" max="16384" width="8.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3922,7 +3940,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -3954,7 +3972,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +4004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -4018,7 +4036,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
@@ -4040,7 +4058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>103</v>
       </c>
@@ -4072,7 +4090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7" s="5">
         <v>4001</v>
       </c>
@@ -4101,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <v>4002</v>
       </c>
@@ -4130,7 +4148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" s="5">
         <v>4003</v>
       </c>
@@ -4154,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" s="5">
         <v>4004</v>
       </c>
@@ -4178,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" s="5">
         <v>4005</v>
       </c>
@@ -4191,7 +4209,7 @@
       <c r="E11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="5">
         <v>4006</v>
       </c>
@@ -4204,7 +4222,7 @@
       <c r="E12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" s="5">
         <v>4007</v>
       </c>
@@ -4217,7 +4235,7 @@
       <c r="E13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" s="5">
         <v>4008</v>
       </c>
@@ -4228,7 +4246,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" s="5">
         <v>4009</v>
       </c>
@@ -4248,7 +4266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>4010</v>
       </c>
@@ -4259,7 +4277,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
         <v>4011</v>
       </c>
@@ -4288,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>4012</v>
       </c>
@@ -4308,7 +4326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
         <v>4013</v>
       </c>
@@ -4337,7 +4355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="5">
         <v>4014</v>
       </c>
@@ -4357,7 +4375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
         <v>4015</v>
       </c>
@@ -4368,7 +4386,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="5">
         <v>4016</v>
       </c>
@@ -4379,7 +4397,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="5">
         <v>4017</v>
       </c>
@@ -4408,7 +4426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="5">
         <v>4018</v>
       </c>
@@ -4437,7 +4455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="5">
         <v>4019</v>
       </c>
@@ -4448,7 +4466,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="5">
         <v>4020</v>
       </c>
@@ -4459,7 +4477,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="5">
         <v>4021</v>
       </c>
@@ -4470,7 +4488,7 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="5">
         <v>4022</v>
       </c>
@@ -4481,7 +4499,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="5">
         <v>4023</v>
       </c>
@@ -4492,7 +4510,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="5">
         <v>4024</v>
       </c>
@@ -4509,7 +4527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="5">
         <v>4025</v>
       </c>
@@ -4538,7 +4556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="5">
         <v>4026</v>
       </c>
@@ -4567,7 +4585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B33" s="5">
         <v>4027</v>
       </c>
@@ -4578,7 +4596,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B34" s="5">
         <v>4028</v>
       </c>
@@ -4589,7 +4607,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B35" s="5">
         <v>4029</v>
       </c>
@@ -4609,7 +4627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B36" s="5">
         <v>4030</v>
       </c>
@@ -4620,7 +4638,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>260</v>
       </c>
@@ -4628,7 +4646,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B38" s="5">
         <v>10001</v>
       </c>
@@ -4639,7 +4657,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B39" s="5">
         <v>10100</v>
       </c>
@@ -4667,7 +4685,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15.69921875" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
@@ -4675,7 +4693,7 @@
     <col min="5" max="5" width="29.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5 16384:16384">
+    <row r="1" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4693,7 +4711,7 @@
       </c>
       <c r="XFD1" s="34"/>
     </row>
-    <row r="2" spans="1:5 16384:16384">
+    <row r="2" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -4710,7 +4728,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:5 16384:16384">
+    <row r="3" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
       <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
@@ -4727,7 +4745,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:5 16384:16384">
+    <row r="4" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -4744,7 +4762,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:5 16384:16384">
+    <row r="5" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
@@ -4755,13 +4773,13 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:5 16384:16384">
+    <row r="6" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
       <c r="A6" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:5 16384:16384">
+    <row r="7" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -4778,7 +4796,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:5 16384:16384">
+    <row r="8" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>6001</v>
       </c>
@@ -4792,7 +4810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5 16384:16384">
+    <row r="9" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>6002</v>
       </c>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12612F9-B140-4707-BFF9-5CFEB58E872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707033CC-7845-41F0-ADA8-525C2E064E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -1239,7 +1239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1965,7 +1965,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" bestFit="1" customWidth="1"/>
@@ -1979,7 +1979,7 @@
     <col min="11" max="11" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="25.8" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="18" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="18" thickBot="1">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11">
       <c r="B9" s="5">
         <v>1001</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11">
       <c r="B10" s="5">
         <v>1002</v>
       </c>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11">
       <c r="B11" s="5">
         <v>1003</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11">
       <c r="B12" s="5">
         <v>1004</v>
       </c>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11">
       <c r="B13" s="5">
         <v>1005</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11">
       <c r="B14" s="5">
         <v>1006</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11">
       <c r="B15" s="5">
         <v>1007</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11">
       <c r="B16" s="5">
         <v>1008</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11">
       <c r="B17" s="5">
         <v>1009</v>
       </c>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11">
       <c r="B18" s="5">
         <v>1010</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11">
       <c r="B19" s="5">
         <v>1011</v>
       </c>
@@ -2458,8 +2458,8 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="33" customHeight="1"/>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2473,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="B23" s="5">
         <v>1101</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11">
       <c r="B24" s="5">
         <v>1102</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="B25" s="5">
         <v>1103</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11">
       <c r="B26" s="5">
         <v>1104</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11">
       <c r="B27" s="5">
         <v>1105</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="34.799999999999997">
       <c r="B28" s="5">
         <v>1106</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11">
       <c r="B29" s="5">
         <v>1107</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11">
       <c r="B30" s="5">
         <v>1108</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11">
       <c r="B31" s="5">
         <v>1109</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>4011</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11">
       <c r="B32" s="5">
         <v>1110</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10">
       <c r="B33">
         <v>1111</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10">
       <c r="B34">
         <v>1112</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10">
       <c r="B35">
         <v>1113</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10">
       <c r="B38" s="5">
         <v>4004</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10">
       <c r="B40">
         <v>9001</v>
       </c>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10">
       <c r="B41">
         <v>9002</v>
       </c>
@@ -2881,17 +2881,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="C4" s="46"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C5" s="46"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="C6" s="46"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="B9">
         <v>3001</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="B10">
         <v>3002</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="B11">
         <v>3003</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="B12">
         <v>3004</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3">
       <c r="B13">
         <v>3005</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3">
       <c r="B14">
         <v>3006</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3">
       <c r="B15">
         <v>3007</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3">
       <c r="B16">
         <v>3008</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3">
       <c r="B17">
         <v>3009</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="34.799999999999997">
       <c r="B20">
         <v>3101</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3">
       <c r="B21">
         <v>3102</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3">
       <c r="B22">
         <v>3103</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3">
       <c r="B23">
         <v>3104</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3">
       <c r="B24">
         <v>3105</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3">
       <c r="B25">
         <v>3106</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3">
       <c r="B26">
         <v>3107</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3">
       <c r="B27">
         <v>3108</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3">
       <c r="B28">
         <v>3109</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3">
       <c r="B29">
         <v>3110</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3">
       <c r="B30">
         <v>3111</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3">
       <c r="B31">
         <v>3112</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3">
       <c r="B32">
         <v>3113</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3">
       <c r="B33">
         <v>3114</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3">
       <c r="B34">
         <v>3115</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3">
       <c r="B35">
         <v>3116</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3">
       <c r="B36">
         <v>3117</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:3">
       <c r="B37">
         <v>3118</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:3">
       <c r="B38">
         <v>3119</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:3">
       <c r="B39">
         <v>3120</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:3">
       <c r="B40">
         <v>3121</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:3">
       <c r="B41">
         <v>3122</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:3">
       <c r="B42">
         <v>3123</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:3">
       <c r="B43">
         <v>3124</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:3">
       <c r="B44">
         <v>3125</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:3">
       <c r="B45">
         <v>3126</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:3">
       <c r="B46">
         <v>3127</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:3">
       <c r="B47">
         <v>3128</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:3">
       <c r="B48">
         <v>3129</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:3">
       <c r="B49">
         <v>3130</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:3">
       <c r="B50">
         <v>3131</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:3">
       <c r="B51">
         <v>3132</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:3">
       <c r="B52">
         <v>3133</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:3">
       <c r="B53">
         <v>3134</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:3">
       <c r="B54">
         <v>3135</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:3">
       <c r="B55">
         <v>3136</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:3">
       <c r="B56">
         <v>3137</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:3">
       <c r="B57">
         <v>3138</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:3">
       <c r="B58">
         <v>3139</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:3">
       <c r="B59">
         <v>3140</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:3">
       <c r="B60">
         <v>3141</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:3">
       <c r="B61">
         <v>3142</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:3">
       <c r="B62">
         <v>3143</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:3">
       <c r="B63">
         <v>3144</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:3">
       <c r="B64">
         <v>3145</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:3">
       <c r="B65">
         <v>3146</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3">
       <c r="B66">
         <v>3147</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3">
       <c r="B67">
         <v>3148</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3">
       <c r="B68">
         <v>3149</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3">
       <c r="B69">
         <v>3150</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:3">
       <c r="B70">
         <v>3151</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3">
       <c r="B71">
         <v>3152</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3">
       <c r="B72">
         <v>3153</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3">
       <c r="B73">
         <v>3154</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3">
       <c r="B74">
         <v>3155</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:3">
       <c r="B75">
         <v>3156</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3">
       <c r="B76">
         <v>3157</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3">
       <c r="B77">
         <v>3158</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3">
       <c r="B78">
         <v>3159</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:3">
       <c r="B79">
         <v>3160</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:3">
       <c r="B80">
         <v>3161</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3">
       <c r="B81">
         <v>3162</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3">
       <c r="B82">
         <v>3163</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3">
       <c r="B83">
         <v>3164</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3">
       <c r="B84">
         <v>3165</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3">
       <c r="B85">
         <v>3166</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3">
       <c r="B89">
         <v>9200</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3">
       <c r="B90">
         <v>9201</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3">
       <c r="B92">
         <v>4001</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3">
       <c r="B93">
         <v>4002</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3">
       <c r="B94">
         <v>4003</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3">
       <c r="B95">
         <v>4004</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3">
       <c r="B96">
         <v>4005</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3">
       <c r="B97">
         <v>4006</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3">
       <c r="B98">
         <v>4007</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3">
       <c r="B102">
         <v>5100</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3">
       <c r="B103">
         <v>5101</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3">
       <c r="B105">
         <v>9001</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3">
       <c r="B106">
         <v>9002</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3">
       <c r="B107">
         <v>9010</v>
       </c>
@@ -3739,12 +3739,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="C4" s="46"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3795,14 +3795,14 @@
       </c>
       <c r="C5" s="46"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="46"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="B8">
         <v>2001</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="B9">
         <v>2002</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="B10">
         <v>2003</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="B11">
         <v>2004</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="B12">
         <v>2005</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3">
       <c r="B13">
         <v>2006</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3">
       <c r="B14">
         <v>2007</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3">
       <c r="B15">
         <v>2008</v>
       </c>
@@ -3890,11 +3890,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.69921875" style="5"/>
     <col min="2" max="2" width="14.19921875" style="5" customWidth="1"/>
@@ -3908,7 +3908,7 @@
     <col min="11" max="16384" width="8.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>103</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="B7" s="5">
         <v>4001</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="B8" s="5">
         <v>4002</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="B9" s="5">
         <v>4003</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="B10" s="5">
         <v>4004</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="B11" s="5">
         <v>4005</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="E11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="B12" s="5">
         <v>4006</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="E12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="B13" s="5">
         <v>4007</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="E13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="B14" s="5">
         <v>4008</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="B15" s="5">
         <v>4009</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="B16" s="5">
         <v>4010</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10">
       <c r="B17" s="5">
         <v>4011</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10">
       <c r="B18" s="5">
         <v>4012</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10">
       <c r="B19" s="5">
         <v>4013</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10">
       <c r="B20" s="5">
         <v>4014</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10">
       <c r="B21" s="5">
         <v>4015</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10">
       <c r="B22" s="5">
         <v>4016</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10">
       <c r="B23" s="5">
         <v>4017</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10">
       <c r="B24" s="5">
         <v>4018</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10">
       <c r="B25" s="5">
         <v>4019</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10">
       <c r="B26" s="5">
         <v>4020</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10">
       <c r="B27" s="5">
         <v>4021</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10">
       <c r="B28" s="5">
         <v>4022</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10">
       <c r="B29" s="5">
         <v>4023</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10">
       <c r="B30" s="5">
         <v>4024</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10">
       <c r="B31" s="5">
         <v>4025</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>268</v>
       </c>
       <c r="D31" s="5">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="E31" s="5">
         <v>3153</v>
@@ -4556,7 +4556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10">
       <c r="B32" s="5">
         <v>4026</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9">
       <c r="B33" s="5">
         <v>4027</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9">
       <c r="B34" s="5">
         <v>4028</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9">
       <c r="B35" s="5">
         <v>4029</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9">
       <c r="B36" s="5">
         <v>4030</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
         <v>260</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9">
       <c r="B38" s="5">
         <v>10001</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9">
       <c r="B39" s="5">
         <v>10100</v>
       </c>
@@ -4666,9 +4666,6 @@
       </c>
       <c r="D39" s="5">
         <v>9010</v>
-      </c>
-      <c r="I39" s="5">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4685,7 +4682,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="15.69921875" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
@@ -4693,7 +4690,7 @@
     <col min="5" max="5" width="29.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5 16384:16384">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4711,7 +4708,7 @@
       </c>
       <c r="XFD1" s="34"/>
     </row>
-    <row r="2" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5 16384:16384">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -4728,7 +4725,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5 16384:16384">
       <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
@@ -4745,7 +4742,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5 16384:16384">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -4762,7 +4759,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5 16384:16384">
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
@@ -4773,13 +4770,13 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5 16384:16384">
       <c r="A6" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5 16384:16384">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -4796,7 +4793,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5 16384:16384">
       <c r="B8">
         <v>6001</v>
       </c>
@@ -4810,7 +4807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5 16384:16384" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5 16384:16384">
       <c r="B9">
         <v>6002</v>
       </c>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707033CC-7845-41F0-ADA8-525C2E064E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E798A56-4B48-4C10-A8AA-D1727ABC7FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="321">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,18 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>친구의 채팅 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월세입금 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고전화 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월세 적게입금한경우 팝업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,18 +623,6 @@
     <t>wifi</t>
   </si>
   <si>
-    <t>택배기사 채팅 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오랜만에 연락한 친구 채팅 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동창회 회장 채팅 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>택배기사와의 채팅 App 대화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1232,6 +1208,52 @@
   </si>
   <si>
     <t>3006, 3143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세 초과 대화</t>
+  </si>
+  <si>
+    <t>월세 부족 대화</t>
+  </si>
+  <si>
+    <t>월세 많이 채팅 App대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세 적게 채팅 App대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 처리 반대로 : -99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마와의 전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구와의 채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세입금 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배기사 채탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만에 연락한 친구 채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동창회 회장 채팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1959,10 +1981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1990,7 +2012,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>25</v>
@@ -2022,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>30</v>
@@ -2054,7 +2076,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>35</v>
@@ -2066,14 +2088,14 @@
         <v>38</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="23" t="s">
         <v>114</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2102,7 +2124,7 @@
         <v>115</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2114,7 +2136,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>43</v>
@@ -2126,9 +2148,11 @@
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="K5" s="38"/>
+        <v>293</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1">
       <c r="A6" s="1" t="s">
@@ -2137,7 +2161,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="44"/>
       <c r="D6" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>44</v>
@@ -2147,7 +2171,7 @@
       <c r="H6" s="32"/>
       <c r="I6" s="33"/>
       <c r="J6" s="25" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K6" s="39"/>
     </row>
@@ -2162,7 +2186,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>47</v>
@@ -2221,14 +2245,16 @@
         <v>1107</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="16">
+        <v>-99</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="5">
         <v>1002</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2255,7 +2281,7 @@
         <v>1003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>143</v>
+        <v>315</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2281,7 +2307,7 @@
         <v>1004</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>144</v>
+        <v>316</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2293,7 +2319,7 @@
         <v>2002</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H12" s="16">
         <v>1111</v>
@@ -2308,7 +2334,7 @@
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2333,7 +2359,7 @@
         <v>1006</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2345,7 +2371,7 @@
         <v>2002</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H14" s="16">
         <v>1108</v>
@@ -2356,7 +2382,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2368,7 +2394,7 @@
         <v>2002</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H15" s="16">
         <v>1109</v>
@@ -2379,7 +2405,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2391,7 +2417,7 @@
         <v>2002</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H16" s="16">
         <v>1110</v>
@@ -2402,7 +2428,7 @@
         <v>1009</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2420,7 +2446,7 @@
         <v>1010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2441,7 +2467,7 @@
         <v>1011</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2498,7 +2524,7 @@
         <v>1102</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2520,7 +2546,7 @@
         <v>1103</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2610,7 +2636,7 @@
         <v>107</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2643,7 +2669,7 @@
         <v>1108</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2666,7 +2692,7 @@
         <v>1109</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2689,7 +2715,7 @@
         <v>1110</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2712,13 +2738,13 @@
         <v>1111</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F33">
         <v>2004</v>
@@ -2741,13 +2767,13 @@
         <v>1112</v>
       </c>
       <c r="C34" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F34">
         <v>2003</v>
@@ -2770,13 +2796,13 @@
         <v>1113</v>
       </c>
       <c r="C35" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F35">
         <v>2003</v>
@@ -2788,84 +2814,130 @@
         <v>4029</v>
       </c>
     </row>
+    <row r="36" spans="1:10">
+      <c r="B36">
+        <v>1114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>2004</v>
+      </c>
+      <c r="G36">
+        <v>3007</v>
+      </c>
+      <c r="J36">
+        <v>11001</v>
+      </c>
+    </row>
     <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="B38" s="5">
+      <c r="B37">
+        <v>1115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>2004</v>
+      </c>
+      <c r="G37">
+        <v>3007</v>
+      </c>
+      <c r="J37">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="5">
         <v>4004</v>
       </c>
-      <c r="C38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F41" s="16">
         <v>2005</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="B40">
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43">
         <v>9001</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
+        <v>299</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>2002</v>
+      </c>
+      <c r="G43" t="s">
         <v>305</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="H43">
+        <v>9002</v>
+      </c>
+      <c r="J43" s="40"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44">
+        <v>9002</v>
+      </c>
+      <c r="C44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
         <v>16</v>
       </c>
-      <c r="F40">
-        <v>2002</v>
-      </c>
-      <c r="G40" t="s">
-        <v>311</v>
-      </c>
-      <c r="H40">
-        <v>9002</v>
-      </c>
-      <c r="J40" s="40"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="B41">
-        <v>9002</v>
-      </c>
-      <c r="C41" t="s">
-        <v>307</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41">
+      <c r="F44">
         <v>2004</v>
       </c>
-      <c r="G41">
+      <c r="G44">
         <v>3009</v>
       </c>
-      <c r="J41" s="40" t="s">
-        <v>310</v>
+      <c r="J44" s="40" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2881,7 +2953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
@@ -2999,7 +3071,7 @@
         <v>3004</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3007,7 +3079,7 @@
         <v>3005</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3015,7 +3087,7 @@
         <v>3006</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3023,7 +3095,7 @@
         <v>3007</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3031,7 +3103,7 @@
         <v>3008</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3039,7 +3111,7 @@
         <v>3009</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3207,7 +3279,7 @@
         <v>3120</v>
       </c>
       <c r="C39" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -3231,7 +3303,7 @@
         <v>3123</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -3239,7 +3311,7 @@
         <v>3124</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -3247,7 +3319,7 @@
         <v>3125</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -3255,7 +3327,7 @@
         <v>3126</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -3263,7 +3335,7 @@
         <v>3127</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -3271,7 +3343,7 @@
         <v>3128</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -3279,7 +3351,7 @@
         <v>3129</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -3287,7 +3359,7 @@
         <v>3130</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -3295,7 +3367,7 @@
         <v>3131</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -3303,7 +3375,7 @@
         <v>3132</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -3311,7 +3383,7 @@
         <v>3133</v>
       </c>
       <c r="C52" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -3319,7 +3391,7 @@
         <v>3134</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -3327,7 +3399,7 @@
         <v>3135</v>
       </c>
       <c r="C54" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -3335,7 +3407,7 @@
         <v>3136</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -3343,7 +3415,7 @@
         <v>3137</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -3351,7 +3423,7 @@
         <v>3138</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -3359,7 +3431,7 @@
         <v>3139</v>
       </c>
       <c r="C58" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -3367,7 +3439,7 @@
         <v>3140</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -3375,7 +3447,7 @@
         <v>3141</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -3383,7 +3455,7 @@
         <v>3142</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -3391,7 +3463,7 @@
         <v>3143</v>
       </c>
       <c r="C62" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -3399,7 +3471,7 @@
         <v>3144</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -3407,7 +3479,7 @@
         <v>3145</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -3415,7 +3487,7 @@
         <v>3146</v>
       </c>
       <c r="C65" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="2:3">
@@ -3423,7 +3495,7 @@
         <v>3147</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="2:3">
@@ -3431,7 +3503,7 @@
         <v>3148</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="2:3">
@@ -3439,7 +3511,7 @@
         <v>3149</v>
       </c>
       <c r="C68" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="2:3">
@@ -3447,7 +3519,7 @@
         <v>3150</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="2:3">
@@ -3455,7 +3527,7 @@
         <v>3151</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -3463,7 +3535,7 @@
         <v>3152</v>
       </c>
       <c r="C71" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="2:3">
@@ -3471,7 +3543,7 @@
         <v>3153</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -3479,7 +3551,7 @@
         <v>3154</v>
       </c>
       <c r="C73" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="2:3">
@@ -3487,7 +3559,7 @@
         <v>3155</v>
       </c>
       <c r="C74" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="2:3">
@@ -3495,7 +3567,7 @@
         <v>3156</v>
       </c>
       <c r="C75" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -3503,7 +3575,7 @@
         <v>3157</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -3511,7 +3583,7 @@
         <v>3158</v>
       </c>
       <c r="C77" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -3519,7 +3591,7 @@
         <v>3159</v>
       </c>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="2:3">
@@ -3527,7 +3599,7 @@
         <v>3160</v>
       </c>
       <c r="C79" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -3535,7 +3607,7 @@
         <v>3161</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3543,7 +3615,7 @@
         <v>3162</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3551,7 +3623,7 @@
         <v>3163</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3559,7 +3631,7 @@
         <v>3164</v>
       </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3567,7 +3639,7 @@
         <v>3165</v>
       </c>
       <c r="C84" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3575,7 +3647,7 @@
         <v>3166</v>
       </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3583,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3591,7 +3663,7 @@
         <v>9200</v>
       </c>
       <c r="C89" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3599,7 +3671,7 @@
         <v>9201</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3615,7 +3687,7 @@
         <v>4001</v>
       </c>
       <c r="C92" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3623,7 +3695,7 @@
         <v>4002</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3631,7 +3703,7 @@
         <v>4003</v>
       </c>
       <c r="C94" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3639,7 +3711,7 @@
         <v>4004</v>
       </c>
       <c r="C95" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3647,7 +3719,7 @@
         <v>4005</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3655,7 +3727,7 @@
         <v>4006</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3663,7 +3735,7 @@
         <v>4007</v>
       </c>
       <c r="C98" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3671,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3679,7 +3751,7 @@
         <v>5100</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3687,7 +3759,7 @@
         <v>5101</v>
       </c>
       <c r="C103" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3695,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3703,7 +3775,7 @@
         <v>9001</v>
       </c>
       <c r="C105" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3711,7 +3783,7 @@
         <v>9002</v>
       </c>
       <c r="C106" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3719,7 +3791,7 @@
         <v>9010</v>
       </c>
       <c r="C107" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3858,7 +3930,7 @@
         <v>2006</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3866,7 +3938,7 @@
         <v>2007</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3874,7 +3946,7 @@
         <v>2008</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3888,10 +3960,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -4075,16 +4147,16 @@
         <v>68</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>121</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>120</v>
@@ -4240,7 +4312,7 @@
         <v>4008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D14" s="5">
         <v>3101</v>
@@ -4251,13 +4323,13 @@
         <v>4009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D15" s="5">
         <v>3123</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F15" s="5">
         <v>4010</v>
@@ -4271,7 +4343,7 @@
         <v>4010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D16" s="5">
         <v>3126</v>
@@ -4282,13 +4354,13 @@
         <v>4011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D17" s="5">
         <v>3127</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F17" s="5">
         <v>4012</v>
@@ -4311,13 +4383,13 @@
         <v>4012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D18" s="5">
         <v>3131</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F18" s="5">
         <v>4013</v>
@@ -4331,13 +4403,13 @@
         <v>4013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D19" s="5">
         <v>3134</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F19" s="5">
         <v>4015</v>
@@ -4360,13 +4432,13 @@
         <v>4014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D20" s="5">
         <v>3138</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F20" s="5">
         <v>4012</v>
@@ -4380,7 +4452,7 @@
         <v>4015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D21" s="5">
         <v>3141</v>
@@ -4391,7 +4463,7 @@
         <v>4016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D22" s="5">
         <v>3142</v>
@@ -4402,7 +4474,7 @@
         <v>4017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D23" s="5">
         <v>3143</v>
@@ -4414,7 +4486,7 @@
         <v>4019</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H23" s="5">
         <v>4018</v>
@@ -4431,7 +4503,7 @@
         <v>4018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D24" s="5">
         <v>3147</v>
@@ -4460,7 +4532,7 @@
         <v>4019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D25" s="5">
         <v>3150</v>
@@ -4471,7 +4543,7 @@
         <v>4020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D26" s="5">
         <v>3151</v>
@@ -4482,7 +4554,7 @@
         <v>4021</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D27" s="5">
         <v>4003</v>
@@ -4493,7 +4565,7 @@
         <v>4022</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D28">
         <v>4002</v>
@@ -4504,7 +4576,7 @@
         <v>4023</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D29">
         <v>4001</v>
@@ -4515,13 +4587,13 @@
         <v>4024</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D30" s="5">
         <v>4004</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I30" s="5">
         <v>100</v>
@@ -4532,7 +4604,7 @@
         <v>4025</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D31" s="5">
         <v>3152</v>
@@ -4544,7 +4616,7 @@
         <v>4027</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H31" s="5">
         <v>4026</v>
@@ -4561,13 +4633,13 @@
         <v>4026</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D32" s="5">
         <v>3156</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F32" s="5">
         <v>4028</v>
@@ -4590,7 +4662,7 @@
         <v>4027</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D33">
         <v>3160</v>
@@ -4601,7 +4673,7 @@
         <v>4028</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D34" s="5">
         <v>3161</v>
@@ -4612,13 +4684,13 @@
         <v>4029</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D35">
         <v>3162</v>
       </c>
       <c r="E35" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F35" s="5">
         <v>4030</v>
@@ -4632,7 +4704,7 @@
         <v>4030</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D36" s="5">
         <v>3166</v>
@@ -4640,10 +4712,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4662,11 +4734,35 @@
         <v>10100</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D39" s="5">
         <v>9010</v>
       </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40">
+        <v>11001</v>
+      </c>
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40">
+        <v>4001</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41">
+        <v>11002</v>
+      </c>
+      <c r="C41" t="s">
+        <v>310</v>
+      </c>
+      <c r="D41">
+        <v>4002</v>
+      </c>
+      <c r="E41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4695,16 +4791,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="XFD1" s="34"/>
     </row>
@@ -4713,16 +4809,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:5 16384:16384">
@@ -4730,16 +4826,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5 16384:16384">
@@ -4747,16 +4843,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5 16384:16384">
@@ -4764,10 +4860,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:5 16384:16384">
@@ -4781,16 +4877,16 @@
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:5 16384:16384">
@@ -4798,7 +4894,7 @@
         <v>6001</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D8">
         <v>9001</v>
@@ -4812,7 +4908,7 @@
         <v>6002</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D9">
         <v>5200</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E798A56-4B48-4C10-A8AA-D1727ABC7FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F026B90-584E-49A0-AE99-A6FD74F2E2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -939,10 +939,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나래이션 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1254,6 +1250,10 @@
   </si>
   <si>
     <t>동창회 회장 채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나레이션ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1983,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2088,14 +2088,14 @@
         <v>38</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="23" t="s">
         <v>114</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2124,7 +2124,7 @@
         <v>115</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2148,10 +2148,10 @@
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1">
@@ -2171,7 +2171,7 @@
       <c r="H6" s="32"/>
       <c r="I6" s="33"/>
       <c r="J6" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K6" s="39"/>
     </row>
@@ -2254,7 +2254,7 @@
         <v>1002</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2281,7 +2281,7 @@
         <v>1003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>1004</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2352,14 +2352,16 @@
         <v>1113</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="16">
+        <v>-99</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="5">
         <v>1006</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2371,7 +2373,7 @@
         <v>2002</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H14" s="16">
         <v>1108</v>
@@ -2382,7 +2384,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2394,7 +2396,7 @@
         <v>2002</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H15" s="16">
         <v>1109</v>
@@ -2405,7 +2407,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2417,7 +2419,7 @@
         <v>2002</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H16" s="16">
         <v>1110</v>
@@ -2428,7 +2430,7 @@
         <v>1009</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2446,7 +2448,7 @@
         <v>1010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2467,7 +2469,7 @@
         <v>1011</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2796,13 +2798,13 @@
         <v>1113</v>
       </c>
       <c r="C35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>287</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>288</v>
       </c>
       <c r="F35">
         <v>2003</v>
@@ -2819,7 +2821,7 @@
         <v>1114</v>
       </c>
       <c r="C36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2842,7 +2844,7 @@
         <v>1115</v>
       </c>
       <c r="C37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2890,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2898,7 +2900,7 @@
         <v>9001</v>
       </c>
       <c r="C43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2910,7 +2912,7 @@
         <v>2002</v>
       </c>
       <c r="G43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H43">
         <v>9002</v>
@@ -2922,7 +2924,7 @@
         <v>9002</v>
       </c>
       <c r="C44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>3009</v>
       </c>
       <c r="J44" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +2955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
@@ -3103,7 +3105,7 @@
         <v>3008</v>
       </c>
       <c r="C16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3111,7 +3113,7 @@
         <v>3009</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3279,7 +3281,7 @@
         <v>3120</v>
       </c>
       <c r="C39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -3535,7 +3537,7 @@
         <v>3152</v>
       </c>
       <c r="C71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="2:3">
@@ -3543,7 +3545,7 @@
         <v>3153</v>
       </c>
       <c r="C72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -3551,7 +3553,7 @@
         <v>3154</v>
       </c>
       <c r="C73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="2:3">
@@ -3559,7 +3561,7 @@
         <v>3155</v>
       </c>
       <c r="C74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="2:3">
@@ -3567,7 +3569,7 @@
         <v>3156</v>
       </c>
       <c r="C75" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -3575,7 +3577,7 @@
         <v>3157</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -3583,7 +3585,7 @@
         <v>3158</v>
       </c>
       <c r="C77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -3591,7 +3593,7 @@
         <v>3159</v>
       </c>
       <c r="C78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="2:3">
@@ -3599,7 +3601,7 @@
         <v>3160</v>
       </c>
       <c r="C79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -3607,7 +3609,7 @@
         <v>3161</v>
       </c>
       <c r="C80" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3615,7 +3617,7 @@
         <v>3162</v>
       </c>
       <c r="C81" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3623,7 +3625,7 @@
         <v>3163</v>
       </c>
       <c r="C82" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3631,7 +3633,7 @@
         <v>3164</v>
       </c>
       <c r="C83" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3639,7 +3641,7 @@
         <v>3165</v>
       </c>
       <c r="C84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3647,7 +3649,7 @@
         <v>3166</v>
       </c>
       <c r="C85" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3655,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3663,7 +3665,7 @@
         <v>9200</v>
       </c>
       <c r="C89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3671,7 +3673,7 @@
         <v>9201</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3703,7 +3705,7 @@
         <v>4003</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3711,7 +3713,7 @@
         <v>4004</v>
       </c>
       <c r="C95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3719,7 +3721,7 @@
         <v>4005</v>
       </c>
       <c r="C96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3727,7 +3729,7 @@
         <v>4006</v>
       </c>
       <c r="C97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3735,7 +3737,7 @@
         <v>4007</v>
       </c>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3767,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3775,7 +3777,7 @@
         <v>9001</v>
       </c>
       <c r="C105" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3783,7 +3785,7 @@
         <v>9002</v>
       </c>
       <c r="C106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3791,7 +3793,7 @@
         <v>9010</v>
       </c>
       <c r="C107" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4587,13 +4589,13 @@
         <v>4024</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D30" s="5">
         <v>4004</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I30" s="5">
         <v>100</v>
@@ -4604,7 +4606,7 @@
         <v>4025</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D31" s="5">
         <v>3152</v>
@@ -4616,7 +4618,7 @@
         <v>4027</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H31" s="5">
         <v>4026</v>
@@ -4633,13 +4635,13 @@
         <v>4026</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D32" s="5">
         <v>3156</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F32" s="5">
         <v>4028</v>
@@ -4662,7 +4664,7 @@
         <v>4027</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D33">
         <v>3160</v>
@@ -4673,7 +4675,7 @@
         <v>4028</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D34" s="5">
         <v>3161</v>
@@ -4684,13 +4686,13 @@
         <v>4029</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D35">
         <v>3162</v>
       </c>
       <c r="E35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F35" s="5">
         <v>4030</v>
@@ -4704,7 +4706,7 @@
         <v>4030</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D36" s="5">
         <v>3166</v>
@@ -4712,10 +4714,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4734,7 +4736,7 @@
         <v>10100</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D39" s="5">
         <v>9010</v>
@@ -4745,7 +4747,7 @@
         <v>11001</v>
       </c>
       <c r="C40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D40">
         <v>4001</v>
@@ -4757,7 +4759,7 @@
         <v>11002</v>
       </c>
       <c r="C41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D41">
         <v>4002</v>
@@ -4774,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E700BA1-4920-4342-AF0B-E626177C7CC3}">
   <dimension ref="A1:XFD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4791,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>239</v>
@@ -4812,7 +4814,7 @@
         <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
         <v>231</v>
@@ -4829,7 +4831,7 @@
         <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
         <v>227</v>
@@ -4846,7 +4848,7 @@
         <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -4880,7 +4882,7 @@
         <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>229</v>
@@ -4894,7 +4896,7 @@
         <v>6001</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8">
         <v>9001</v>
@@ -4908,10 +4910,10 @@
         <v>6002</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9">
-        <v>5200</v>
+        <v>5101</v>
       </c>
       <c r="E9">
         <v>2</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F026B90-584E-49A0-AE99-A6FD74F2E2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6623CF05-E65E-4B4A-B243-15B2C4532143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="323">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1254,6 +1254,14 @@
   </si>
   <si>
     <t>나레이션ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 달성 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 1등 달성 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1981,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2940,6 +2948,28 @@
       </c>
       <c r="J44" s="40" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47">
+        <v>8999</v>
+      </c>
+      <c r="C47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4776,7 +4806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E700BA1-4920-4342-AF0B-E626177C7CC3}">
   <dimension ref="A1:XFD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6623CF05-E65E-4B4A-B243-15B2C4532143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77680757-8AD9-4DCB-9A4B-FDB86798BA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -1991,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2318,7 +2318,7 @@
         <v>315</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>18</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77680757-8AD9-4DCB-9A4B-FDB86798BA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4DB588-3230-4112-8A02-7A60194A10C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -1041,10 +1041,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내일 점심머고 집으로 갈 것 같아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아뇨 내일 할 일이 있어서 못 갈 것 같아요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1262,6 +1258,10 @@
   </si>
   <si>
     <t>미니게임 1등 달성 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 점심먹고 집으로 갈 것 같아요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1991,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2096,14 +2096,14 @@
         <v>38</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="23" t="s">
         <v>114</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2132,7 +2132,7 @@
         <v>115</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2156,10 +2156,10 @@
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1">
@@ -2179,7 +2179,7 @@
       <c r="H6" s="32"/>
       <c r="I6" s="33"/>
       <c r="J6" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K6" s="39"/>
     </row>
@@ -2262,7 +2262,7 @@
         <v>1002</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2289,7 +2289,7 @@
         <v>1003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>1004</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2369,7 +2369,7 @@
         <v>1006</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2381,7 +2381,7 @@
         <v>2002</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H14" s="16">
         <v>1108</v>
@@ -2392,7 +2392,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2404,7 +2404,7 @@
         <v>2002</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H15" s="16">
         <v>1109</v>
@@ -2415,7 +2415,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2427,7 +2427,7 @@
         <v>2002</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H16" s="16">
         <v>1110</v>
@@ -2438,7 +2438,7 @@
         <v>1009</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2456,7 +2456,7 @@
         <v>1010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2477,7 +2477,7 @@
         <v>1011</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2806,13 +2806,13 @@
         <v>1113</v>
       </c>
       <c r="C35" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>286</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>287</v>
       </c>
       <c r="F35">
         <v>2003</v>
@@ -2829,7 +2829,7 @@
         <v>1114</v>
       </c>
       <c r="C36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>1115</v>
       </c>
       <c r="C37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>9001</v>
       </c>
       <c r="C43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>2002</v>
       </c>
       <c r="G43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H43">
         <v>9002</v>
@@ -2932,7 +2932,7 @@
         <v>9002</v>
       </c>
       <c r="C44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>3009</v>
       </c>
       <c r="J44" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2963,7 +2963,7 @@
         <v>8999</v>
       </c>
       <c r="C47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2985,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3143,7 +3143,7 @@
         <v>3009</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3311,7 +3311,7 @@
         <v>3120</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -3575,7 +3575,7 @@
         <v>3153</v>
       </c>
       <c r="C72" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -3583,7 +3583,7 @@
         <v>3154</v>
       </c>
       <c r="C73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="2:3">
@@ -3591,7 +3591,7 @@
         <v>3155</v>
       </c>
       <c r="C74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="2:3">
@@ -3599,7 +3599,7 @@
         <v>3156</v>
       </c>
       <c r="C75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -3607,7 +3607,7 @@
         <v>3157</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -3615,7 +3615,7 @@
         <v>3158</v>
       </c>
       <c r="C77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -3623,7 +3623,7 @@
         <v>3159</v>
       </c>
       <c r="C78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="2:3">
@@ -3631,7 +3631,7 @@
         <v>3160</v>
       </c>
       <c r="C79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -3639,7 +3639,7 @@
         <v>3161</v>
       </c>
       <c r="C80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3647,7 +3647,7 @@
         <v>3162</v>
       </c>
       <c r="C81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3655,7 +3655,7 @@
         <v>3163</v>
       </c>
       <c r="C82" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>3164</v>
       </c>
       <c r="C83" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3671,7 +3671,7 @@
         <v>3165</v>
       </c>
       <c r="C84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3679,7 +3679,7 @@
         <v>3166</v>
       </c>
       <c r="C85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>9001</v>
       </c>
       <c r="C105" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3815,7 +3815,7 @@
         <v>9002</v>
       </c>
       <c r="C106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3823,7 +3823,7 @@
         <v>9010</v>
       </c>
       <c r="C107" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3994,8 +3994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -4648,7 +4648,7 @@
         <v>4027</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H31" s="5">
         <v>4026</v>
@@ -4671,7 +4671,7 @@
         <v>3156</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F32" s="5">
         <v>4028</v>
@@ -4716,13 +4716,13 @@
         <v>4029</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D35">
         <v>3162</v>
       </c>
       <c r="E35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F35" s="5">
         <v>4030</v>
@@ -4736,7 +4736,7 @@
         <v>4030</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D36" s="5">
         <v>3166</v>
@@ -4777,7 +4777,7 @@
         <v>11001</v>
       </c>
       <c r="C40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40">
         <v>4001</v>
@@ -4789,7 +4789,7 @@
         <v>11002</v>
       </c>
       <c r="C41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D41">
         <v>4002</v>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>239</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4DB588-3230-4112-8A02-7A60194A10C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE92FFE2-27BF-43E9-8BC0-A75A85A6CA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="324">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1262,6 +1262,10 @@
   </si>
   <si>
     <t>내일 점심먹고 집으로 갈 것 같아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 도입부2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2985,7 +2989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A90" workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
@@ -4804,10 +4808,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E700BA1-4920-4342-AF0B-E626177C7CC3}">
-  <dimension ref="A1:XFD9"/>
+  <dimension ref="A1:XFD10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4949,6 +4953,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:5 16384:16384">
+      <c r="B10">
+        <v>6003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10">
+        <v>9002</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE92FFE2-27BF-43E9-8BC0-A75A85A6CA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046C8862-8236-4E79-A175-DDC5168155BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="331">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1179,10 +1179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 : 토킹 id,나레이션 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10100, 6001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1217,10 +1213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트 처리 반대로 : -99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엄마와의 전화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1237,10 +1229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>택배기사 채탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오랜만에 연락한 친구 채팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1266,6 +1254,46 @@
   </si>
   <si>
     <t>게임 도입부2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지,전화 : 토킹 id,나레이션 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그외 이벤트 : 반대로 처리, 루프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -99 : 반대처리, -45: 루프 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -99.-45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배기사 채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-99, -45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, -45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1517,7 +1545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1635,9 +1663,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -1658,6 +1683,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1995,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2010,7 +2047,7 @@
     <col min="8" max="8" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.59765625" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.796875" customWidth="1"/>
+    <col min="11" max="11" width="27.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
@@ -2084,7 +2121,7 @@
       <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -2107,7 +2144,7 @@
         <v>114</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2117,7 +2154,7 @@
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
         <v>42</v>
@@ -2146,7 +2183,7 @@
       <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="12" t="s">
         <v>153</v>
       </c>
@@ -2163,7 +2200,7 @@
         <v>291</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1">
@@ -2171,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="44"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="15" t="s">
         <v>154</v>
       </c>
@@ -2185,7 +2222,9 @@
       <c r="J6" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="K6" s="39"/>
+      <c r="K6" s="47" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="18" thickBot="1">
       <c r="A7" t="s">
@@ -2257,8 +2296,8 @@
         <v>1107</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="J9" s="16">
-        <v>-99</v>
+      <c r="J9" s="48" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2266,7 +2305,7 @@
         <v>1002</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2293,7 +2332,7 @@
         <v>1003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2319,7 +2358,7 @@
         <v>1004</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2346,7 +2385,7 @@
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2357,15 +2396,15 @@
       <c r="F13" s="16">
         <v>2001</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="40">
         <v>3003</v>
       </c>
       <c r="H13" s="16">
         <v>1113</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="16">
-        <v>-99</v>
+      <c r="J13" s="48" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2373,7 +2412,7 @@
         <v>1006</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2384,8 +2423,8 @@
       <c r="F14" s="16">
         <v>2002</v>
       </c>
-      <c r="G14" s="41" t="s">
-        <v>304</v>
+      <c r="G14" s="40" t="s">
+        <v>303</v>
       </c>
       <c r="H14" s="16">
         <v>1108</v>
@@ -2396,7 +2435,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2407,8 +2446,8 @@
       <c r="F15" s="16">
         <v>2002</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>305</v>
+      <c r="G15" s="40" t="s">
+        <v>304</v>
       </c>
       <c r="H15" s="16">
         <v>1109</v>
@@ -2419,7 +2458,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2430,8 +2469,8 @@
       <c r="F16" s="16">
         <v>2002</v>
       </c>
-      <c r="G16" s="41" t="s">
-        <v>306</v>
+      <c r="G16" s="40" t="s">
+        <v>305</v>
       </c>
       <c r="H16" s="16">
         <v>1110</v>
@@ -2453,7 +2492,10 @@
       <c r="F17" s="16">
         <v>2006</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="40"/>
+      <c r="J17" s="49" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="5">
@@ -2466,14 +2508,17 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="16">
         <v>2007</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="40"/>
       <c r="I18">
         <v>1010</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2487,18 +2532,43 @@
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="16">
         <v>2008</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="16"/>
       <c r="I19">
         <v>1011</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="33" customHeight="1"/>
+      <c r="J19" s="49" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="B20" s="46">
+        <v>1012</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="16">
+        <v>2009</v>
+      </c>
+      <c r="I20">
+        <v>1012</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>330</v>
+      </c>
+    </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>0</v>
@@ -2511,7 +2581,9 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" s="5">
@@ -2833,7 +2905,7 @@
         <v>1114</v>
       </c>
       <c r="C36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2856,7 +2928,7 @@
         <v>1115</v>
       </c>
       <c r="C37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2924,12 +2996,12 @@
         <v>2002</v>
       </c>
       <c r="G43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H43">
         <v>9002</v>
       </c>
-      <c r="J43" s="40"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10">
       <c r="B44">
@@ -2950,8 +3022,8 @@
       <c r="G44">
         <v>3009</v>
       </c>
-      <c r="J44" s="40" t="s">
-        <v>302</v>
+      <c r="J44" s="39" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2959,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2967,7 +3039,7 @@
         <v>8999</v>
       </c>
       <c r="C47" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3028,7 +3100,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3039,7 +3111,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -3048,7 +3120,7 @@
       <c r="B5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="45"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -3057,7 +3129,7 @@
       <c r="B6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="45"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -3579,7 +3651,7 @@
         <v>3153</v>
       </c>
       <c r="C72" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -3841,10 +3913,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7ED222-C632-437F-9F99-BE16CE033DC8}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3881,7 +3953,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3892,7 +3964,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -3901,14 +3973,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="45"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="46"/>
+      <c r="C6" s="45"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -3983,6 +4055,14 @@
       </c>
       <c r="C15" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>2009</v>
+      </c>
+      <c r="C16" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4781,7 +4861,7 @@
         <v>11001</v>
       </c>
       <c r="C40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D40">
         <v>4001</v>
@@ -4793,7 +4873,7 @@
         <v>11002</v>
       </c>
       <c r="C41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D41">
         <v>4002</v>
@@ -4810,7 +4890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E700BA1-4920-4342-AF0B-E626177C7CC3}">
   <dimension ref="A1:XFD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -4827,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>239</v>
@@ -4958,7 +5038,7 @@
         <v>6003</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D10">
         <v>9002</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046C8862-8236-4E79-A175-DDC5168155BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5427F687-E046-4A8C-A822-9B4E5E3A70A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -1669,6 +1669,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1683,18 +1695,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2033,7 +2033,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2121,7 +2121,7 @@
       <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="45" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -2154,7 +2154,7 @@
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
         <v>42</v>
@@ -2183,7 +2183,7 @@
       <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="12" t="s">
         <v>153</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="43"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="15" t="s">
         <v>154</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="J6" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="42" t="s">
         <v>326</v>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
         <v>1107</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="43" t="s">
         <v>327</v>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
         <v>1105</v>
       </c>
       <c r="I10" s="16">
-        <v>1101</v>
+        <v>1002</v>
       </c>
       <c r="J10" s="16"/>
     </row>
@@ -2349,9 +2349,7 @@
       <c r="H11" s="18">
         <v>1104</v>
       </c>
-      <c r="I11" s="16">
-        <v>1101</v>
-      </c>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="5">
@@ -2403,7 +2401,7 @@
         <v>1113</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="43" t="s">
         <v>329</v>
       </c>
     </row>
@@ -2493,7 +2491,7 @@
         <v>2006</v>
       </c>
       <c r="G17" s="40"/>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="44" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2517,7 +2515,7 @@
       <c r="I18">
         <v>1010</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="44" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2542,12 +2540,12 @@
       <c r="I19">
         <v>1011</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="44" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" s="46">
+      <c r="B20" s="41">
         <v>1012</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2565,7 +2563,7 @@
       <c r="I20">
         <v>1012</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="44" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2601,7 +2599,9 @@
       <c r="F23" s="16">
         <v>2001</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="16">
+        <v>3002</v>
+      </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
@@ -3100,7 +3100,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -3120,7 +3120,7 @@
       <c r="B5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="49"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -3129,7 +3129,7 @@
       <c r="B6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -3953,7 +3953,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -3973,14 +3973,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="49"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="45"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5427F687-E046-4A8C-A822-9B4E5E3A70A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9324C-41EE-4D7A-B6D9-5586D5ABEF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="336">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통화무시이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>78-3515-11 계좌로 월세 입금 부탁드립니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1257,10 +1253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알람</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1294,6 +1286,35 @@
   </si>
   <si>
     <t>0, -45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집주인과의 전화 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마 전화 다시 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행광고 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Web발신]
+도시에 관한 퀴즈를 맞추고 해당 도시로 여행을 떠나자! 하루에 한번 도시 퀴즈에 도전을 하고 추첨을 통해 해당 도시로 여행을 떠나는 티켓을 얻어보세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003, 3167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행광고 채팅 App대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행광고 메시지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2030,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2055,31 +2076,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1">
@@ -2093,16 +2114,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>1</v>
@@ -2119,32 +2140,32 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2157,23 +2178,23 @@
       <c r="C4" s="46"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>40</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2181,26 +2202,26 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1">
@@ -2210,52 +2231,52 @@
       <c r="B6" s="14"/>
       <c r="C6" s="47"/>
       <c r="D6" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="32"/>
       <c r="I6" s="33"/>
       <c r="J6" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" thickBot="1">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="J7" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K7" s="22"/>
     </row>
@@ -2264,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="20"/>
       <c r="E8" s="20"/>
@@ -2278,7 +2299,7 @@
         <v>1001</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2290,14 +2311,14 @@
         <v>2002</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H9" s="16">
         <v>1107</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2305,7 +2326,7 @@
         <v>1002</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2323,7 +2344,7 @@
         <v>1105</v>
       </c>
       <c r="I10" s="16">
-        <v>1002</v>
+        <v>1101</v>
       </c>
       <c r="J10" s="16"/>
     </row>
@@ -2332,7 +2353,7 @@
         <v>1003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2344,7 +2365,7 @@
         <v>2002</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="18">
         <v>1104</v>
@@ -2356,7 +2377,7 @@
         <v>1004</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2368,7 +2389,7 @@
         <v>2002</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H12" s="16">
         <v>1111</v>
@@ -2383,7 +2404,7 @@
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2402,7 +2423,7 @@
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2410,7 +2431,7 @@
         <v>1006</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2422,7 +2443,7 @@
         <v>2002</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H14" s="16">
         <v>1108</v>
@@ -2433,7 +2454,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2445,7 +2466,7 @@
         <v>2002</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H15" s="16">
         <v>1109</v>
@@ -2456,7 +2477,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2468,18 +2489,18 @@
         <v>2002</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H16" s="16">
         <v>1110</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:10">
       <c r="B17" s="5">
         <v>1009</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2492,15 +2513,15 @@
       </c>
       <c r="G17" s="40"/>
       <c r="J17" s="44" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="B18" s="5">
         <v>1010</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2516,15 +2537,15 @@
         <v>1010</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="B19" s="5">
         <v>1011</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2541,15 +2562,15 @@
         <v>1011</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="B20" s="41">
         <v>1012</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2564,244 +2585,117 @@
         <v>1012</v>
       </c>
       <c r="J20" s="44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="5">
+        <v>1013</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2002</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="5">
-        <v>1101</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F29" s="16">
         <v>2001</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G29" s="16">
         <v>3002</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="5">
+      <c r="H29" s="16">
+        <v>1105</v>
+      </c>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="5">
         <v>1102</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C30" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="16">
+        <v>2002</v>
+      </c>
+      <c r="G30" s="16">
+        <v>4002</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="5">
+        <v>1103</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F31" s="16">
         <v>2002</v>
       </c>
-      <c r="G24" s="16">
-        <v>4002</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="B25" s="5">
-        <v>1103</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="16">
-        <v>2002</v>
-      </c>
-      <c r="G25" s="16">
+      <c r="G31" s="16">
         <v>4001</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="5">
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="5">
         <v>1104</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="16">
-        <v>2004</v>
-      </c>
-      <c r="G26" s="16">
-        <v>3001</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="5">
-        <v>1105</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="16">
-        <v>2003</v>
-      </c>
-      <c r="G27" s="16">
-        <v>3002</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="34.799999999999997">
-      <c r="B28" s="5">
-        <v>1106</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="16">
-        <v>2005</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="B29" s="5">
-        <v>1107</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="16">
-        <v>2004</v>
-      </c>
-      <c r="G29" s="5">
-        <v>3003</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="B30" s="5">
-        <v>1108</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="16">
-        <v>2004</v>
-      </c>
-      <c r="G30">
-        <v>3004</v>
-      </c>
-      <c r="J30">
-        <v>4009</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="B31" s="5">
-        <v>1109</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="16">
-        <v>2004</v>
-      </c>
-      <c r="G31">
-        <v>3005</v>
-      </c>
-      <c r="J31">
-        <v>4011</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="5">
-        <v>1110</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2812,239 +2706,429 @@
       <c r="F32" s="16">
         <v>2004</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="16">
+        <v>3001</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" s="5">
+        <v>1105</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="16">
+        <v>2003</v>
+      </c>
+      <c r="G33" s="16">
+        <v>3002</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="34.799999999999997">
+      <c r="B34" s="5">
+        <v>1106</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="16">
+        <v>2005</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" s="5">
+        <v>1107</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3003</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="5">
+        <v>1108</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G36">
+        <v>3004</v>
+      </c>
+      <c r="J36">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" s="5">
+        <v>1109</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G37">
+        <v>3005</v>
+      </c>
+      <c r="J37">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" s="5">
+        <v>1110</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="16">
+        <v>2004</v>
+      </c>
+      <c r="G38">
         <v>3006</v>
       </c>
-      <c r="J32">
+      <c r="J38">
         <v>4017</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="B33">
+    <row r="39" spans="1:11">
+      <c r="B39">
         <v>1111</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
         <v>216</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F39">
+        <v>2004</v>
+      </c>
+      <c r="G39">
+        <v>3007</v>
+      </c>
+      <c r="H39">
+        <v>1106</v>
+      </c>
+      <c r="I39">
+        <v>1106</v>
+      </c>
+      <c r="J39" s="5">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40">
+        <v>1112</v>
+      </c>
+      <c r="C40" t="s">
         <v>217</v>
       </c>
-      <c r="F33">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40">
+        <v>2003</v>
+      </c>
+      <c r="G40">
+        <v>3007</v>
+      </c>
+      <c r="H40">
+        <v>1106</v>
+      </c>
+      <c r="I40">
+        <v>1106</v>
+      </c>
+      <c r="J40" s="5">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41">
+        <v>1113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41">
+        <v>2003</v>
+      </c>
+      <c r="G41">
+        <v>3003</v>
+      </c>
+      <c r="J41">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42">
+        <v>1114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42">
         <v>2004</v>
       </c>
-      <c r="G33">
+      <c r="G42">
         <v>3007</v>
       </c>
-      <c r="H33">
-        <v>1106</v>
-      </c>
-      <c r="I33">
-        <v>1106</v>
-      </c>
-      <c r="J33" s="5">
-        <v>4021</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="B34">
+      <c r="J42">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="B43">
+        <v>1115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>2004</v>
+      </c>
+      <c r="G43">
+        <v>3007</v>
+      </c>
+      <c r="J43">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44">
+        <v>1116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>329</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>2001</v>
+      </c>
+      <c r="G44">
+        <v>3007</v>
+      </c>
+      <c r="H44">
         <v>1112</v>
       </c>
-      <c r="C34" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>217</v>
-      </c>
-      <c r="F34">
-        <v>2003</v>
-      </c>
-      <c r="G34">
-        <v>3007</v>
-      </c>
-      <c r="H34">
-        <v>1106</v>
-      </c>
-      <c r="I34">
-        <v>1106</v>
-      </c>
-      <c r="J34" s="5">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="B35">
-        <v>1113</v>
-      </c>
-      <c r="C35" t="s">
-        <v>285</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>286</v>
-      </c>
-      <c r="F35">
-        <v>2003</v>
-      </c>
-      <c r="G35">
-        <v>3003</v>
-      </c>
-      <c r="J35">
-        <v>4029</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="B36">
-        <v>1114</v>
-      </c>
-      <c r="C36" t="s">
-        <v>308</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36">
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45">
+        <v>1117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>334</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45">
         <v>2004</v>
       </c>
-      <c r="G36">
-        <v>3007</v>
-      </c>
-      <c r="J36">
-        <v>11001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="B37">
-        <v>1115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37">
+      <c r="G45">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" s="5">
+        <v>4004</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="16">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49">
+        <v>9001</v>
+      </c>
+      <c r="C49" t="s">
+        <v>296</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>2002</v>
+      </c>
+      <c r="G49" t="s">
+        <v>301</v>
+      </c>
+      <c r="H49">
+        <v>9002</v>
+      </c>
+      <c r="J49" s="39"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50">
+        <v>9002</v>
+      </c>
+      <c r="C50" t="s">
+        <v>298</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50">
         <v>2004</v>
       </c>
-      <c r="G37">
-        <v>3007</v>
-      </c>
-      <c r="J37">
-        <v>11002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="B41" s="5">
-        <v>4004</v>
-      </c>
-      <c r="C41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="16">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="B43">
-        <v>9001</v>
-      </c>
-      <c r="C43" t="s">
-        <v>297</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43">
-        <v>2002</v>
-      </c>
-      <c r="G43" t="s">
-        <v>302</v>
-      </c>
-      <c r="H43">
-        <v>9002</v>
-      </c>
-      <c r="J43" s="39"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="B44">
-        <v>9002</v>
-      </c>
-      <c r="C44" t="s">
-        <v>299</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44">
-        <v>2004</v>
-      </c>
-      <c r="G44">
+      <c r="G50">
         <v>3009</v>
       </c>
-      <c r="J44" s="39" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="J50" s="39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53">
+        <v>8999</v>
+      </c>
+      <c r="C53" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="B47">
-        <v>8999</v>
-      </c>
-      <c r="C47" t="s">
-        <v>318</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3059,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3118,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="49"/>
     </row>
@@ -3127,13 +3211,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -3147,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3155,7 +3239,7 @@
         <v>3001</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3163,7 +3247,7 @@
         <v>3002</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3171,7 +3255,7 @@
         <v>3003</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3179,7 +3263,7 @@
         <v>3004</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3187,7 +3271,7 @@
         <v>3005</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3195,7 +3279,7 @@
         <v>3006</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3203,7 +3287,7 @@
         <v>3007</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3211,7 +3295,7 @@
         <v>3008</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3219,7 +3303,7 @@
         <v>3009</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3227,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34.799999999999997">
@@ -3235,7 +3319,7 @@
         <v>3101</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3243,7 +3327,7 @@
         <v>3102</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3251,7 +3335,7 @@
         <v>3103</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3259,7 +3343,7 @@
         <v>3104</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3267,7 +3351,7 @@
         <v>3105</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3275,7 +3359,7 @@
         <v>3106</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3283,7 +3367,7 @@
         <v>3107</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3291,7 +3375,7 @@
         <v>3108</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3299,7 +3383,7 @@
         <v>3109</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3307,7 +3391,7 @@
         <v>3110</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3315,7 +3399,7 @@
         <v>3111</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3323,7 +3407,7 @@
         <v>3112</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3331,7 +3415,7 @@
         <v>3113</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -3339,7 +3423,7 @@
         <v>3114</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -3347,7 +3431,7 @@
         <v>3115</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -3355,7 +3439,7 @@
         <v>3116</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -3363,7 +3447,7 @@
         <v>3117</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -3371,7 +3455,7 @@
         <v>3118</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -3379,7 +3463,7 @@
         <v>3119</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -3387,7 +3471,7 @@
         <v>3120</v>
       </c>
       <c r="C39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -3395,7 +3479,7 @@
         <v>3121</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -3403,7 +3487,7 @@
         <v>3122</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -3411,7 +3495,7 @@
         <v>3123</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -3419,7 +3503,7 @@
         <v>3124</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -3427,7 +3511,7 @@
         <v>3125</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -3435,7 +3519,7 @@
         <v>3126</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -3443,7 +3527,7 @@
         <v>3127</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -3451,7 +3535,7 @@
         <v>3128</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -3459,7 +3543,7 @@
         <v>3129</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -3467,7 +3551,7 @@
         <v>3130</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -3475,7 +3559,7 @@
         <v>3131</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -3483,7 +3567,7 @@
         <v>3132</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -3491,7 +3575,7 @@
         <v>3133</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -3499,7 +3583,7 @@
         <v>3134</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -3507,7 +3591,7 @@
         <v>3135</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -3515,7 +3599,7 @@
         <v>3136</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -3523,7 +3607,7 @@
         <v>3137</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -3531,7 +3615,7 @@
         <v>3138</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -3539,7 +3623,7 @@
         <v>3139</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -3547,7 +3631,7 @@
         <v>3140</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -3555,7 +3639,7 @@
         <v>3141</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -3563,7 +3647,7 @@
         <v>3142</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -3571,7 +3655,7 @@
         <v>3143</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -3579,7 +3663,7 @@
         <v>3144</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -3587,7 +3671,7 @@
         <v>3145</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -3595,7 +3679,7 @@
         <v>3146</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="2:3">
@@ -3603,7 +3687,7 @@
         <v>3147</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="2:3">
@@ -3611,7 +3695,7 @@
         <v>3148</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="2:3">
@@ -3619,7 +3703,7 @@
         <v>3149</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="2:3">
@@ -3627,7 +3711,7 @@
         <v>3150</v>
       </c>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="2:3">
@@ -3635,7 +3719,7 @@
         <v>3151</v>
       </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -3643,7 +3727,7 @@
         <v>3152</v>
       </c>
       <c r="C71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="2:3">
@@ -3651,7 +3735,7 @@
         <v>3153</v>
       </c>
       <c r="C72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -3659,7 +3743,7 @@
         <v>3154</v>
       </c>
       <c r="C73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="2:3">
@@ -3667,7 +3751,7 @@
         <v>3155</v>
       </c>
       <c r="C74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="2:3">
@@ -3675,7 +3759,7 @@
         <v>3156</v>
       </c>
       <c r="C75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -3683,7 +3767,7 @@
         <v>3157</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -3691,7 +3775,7 @@
         <v>3158</v>
       </c>
       <c r="C77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -3699,7 +3783,7 @@
         <v>3159</v>
       </c>
       <c r="C78" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="2:3">
@@ -3707,7 +3791,7 @@
         <v>3160</v>
       </c>
       <c r="C79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -3715,7 +3799,7 @@
         <v>3161</v>
       </c>
       <c r="C80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3723,7 +3807,7 @@
         <v>3162</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3731,7 +3815,7 @@
         <v>3163</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3739,7 +3823,7 @@
         <v>3164</v>
       </c>
       <c r="C83" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3747,7 +3831,7 @@
         <v>3165</v>
       </c>
       <c r="C84" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3755,151 +3839,164 @@
         <v>3166</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="B89">
-        <v>9200</v>
-      </c>
-      <c r="C89" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="B90">
-        <v>9201</v>
-      </c>
-      <c r="C90" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="B92">
-        <v>4001</v>
-      </c>
-      <c r="C92" t="s">
-        <v>145</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="52.2">
+      <c r="B86">
+        <v>3167</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87">
+        <v>3168</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="B93">
-        <v>4002</v>
-      </c>
-      <c r="C93" t="s">
-        <v>146</v>
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="B94">
-        <v>4003</v>
+        <v>9200</v>
       </c>
       <c r="C94" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="B95">
-        <v>4004</v>
+        <v>9201</v>
       </c>
       <c r="C95" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="B96">
-        <v>4005</v>
-      </c>
-      <c r="C96" t="s">
-        <v>246</v>
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="B97">
-        <v>4006</v>
+        <v>4001</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="B98">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="C98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99">
+        <v>4003</v>
+      </c>
+      <c r="C99" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100">
+        <v>4004</v>
+      </c>
+      <c r="C100" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>232</v>
+      <c r="B101">
+        <v>4005</v>
+      </c>
+      <c r="C101" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="B102">
-        <v>5100</v>
+        <v>4006</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="B103">
-        <v>5101</v>
+        <v>4007</v>
       </c>
       <c r="C103" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="B105">
-        <v>9001</v>
-      </c>
-      <c r="C105" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="B106">
-        <v>9002</v>
-      </c>
-      <c r="C106" t="s">
-        <v>295</v>
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="B107">
+        <v>5100</v>
+      </c>
+      <c r="C107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108">
+        <v>5101</v>
+      </c>
+      <c r="C108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="B110">
+        <v>9001</v>
+      </c>
+      <c r="C110" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111">
+        <v>9002</v>
+      </c>
+      <c r="C111" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="B112">
         <v>9010</v>
       </c>
-      <c r="C107" t="s">
-        <v>296</v>
+      <c r="C112" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +4029,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3984,7 +4081,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -3998,7 +4095,7 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4006,7 +4103,7 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4014,7 +4111,7 @@
         <v>2003</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4022,7 +4119,7 @@
         <v>2004</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4030,7 +4127,7 @@
         <v>2005</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4038,7 +4135,7 @@
         <v>2006</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4046,7 +4143,7 @@
         <v>2007</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4054,7 +4151,7 @@
         <v>2008</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4062,7 +4159,7 @@
         <v>2009</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4076,10 +4173,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -4101,31 +4198,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="I1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>117</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4142,22 +4239,22 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4165,31 +4262,31 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4200,28 +4297,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4229,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -4240,42 +4337,42 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="F6" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4283,13 +4380,13 @@
         <v>4001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="16">
         <v>3105</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="5">
         <v>4002</v>
@@ -4312,13 +4409,13 @@
         <v>4002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="16">
         <v>3109</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="5">
         <v>4005</v>
@@ -4341,13 +4438,13 @@
         <v>4003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="16">
         <v>3113</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="5">
         <v>4002</v>
@@ -4365,13 +4462,13 @@
         <v>4004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="16">
         <v>3116</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="5">
         <v>4007</v>
@@ -4389,7 +4486,7 @@
         <v>4005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5">
         <v>3120</v>
@@ -4402,7 +4499,7 @@
         <v>4006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="5">
         <v>3121</v>
@@ -4415,7 +4512,7 @@
         <v>4007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="5">
         <v>3122</v>
@@ -4428,7 +4525,7 @@
         <v>4008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D14" s="5">
         <v>3101</v>
@@ -4439,13 +4536,13 @@
         <v>4009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="5">
         <v>3123</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="5">
         <v>4010</v>
@@ -4459,7 +4556,7 @@
         <v>4010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="5">
         <v>3126</v>
@@ -4470,13 +4567,13 @@
         <v>4011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" s="5">
         <v>3127</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" s="5">
         <v>4012</v>
@@ -4499,13 +4596,13 @@
         <v>4012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" s="5">
         <v>3131</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F18" s="5">
         <v>4013</v>
@@ -4519,13 +4616,13 @@
         <v>4013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" s="5">
         <v>3134</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F19" s="5">
         <v>4015</v>
@@ -4548,13 +4645,13 @@
         <v>4014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D20" s="5">
         <v>3138</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="5">
         <v>4012</v>
@@ -4568,7 +4665,7 @@
         <v>4015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="5">
         <v>3141</v>
@@ -4579,7 +4676,7 @@
         <v>4016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" s="5">
         <v>3142</v>
@@ -4590,7 +4687,7 @@
         <v>4017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="5">
         <v>3143</v>
@@ -4602,7 +4699,7 @@
         <v>4019</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H23" s="5">
         <v>4018</v>
@@ -4619,7 +4716,7 @@
         <v>4018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D24" s="5">
         <v>3147</v>
@@ -4648,7 +4745,7 @@
         <v>4019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" s="5">
         <v>3150</v>
@@ -4659,7 +4756,7 @@
         <v>4020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D26" s="5">
         <v>3151</v>
@@ -4670,7 +4767,7 @@
         <v>4021</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" s="5">
         <v>4003</v>
@@ -4681,7 +4778,7 @@
         <v>4022</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D28">
         <v>4002</v>
@@ -4692,7 +4789,7 @@
         <v>4023</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29">
         <v>4001</v>
@@ -4703,13 +4800,13 @@
         <v>4024</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D30" s="5">
         <v>4004</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I30" s="5">
         <v>100</v>
@@ -4720,7 +4817,7 @@
         <v>4025</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D31" s="5">
         <v>3152</v>
@@ -4732,7 +4829,7 @@
         <v>4027</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H31" s="5">
         <v>4026</v>
@@ -4749,13 +4846,13 @@
         <v>4026</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D32" s="5">
         <v>3156</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F32" s="5">
         <v>4028</v>
@@ -4778,7 +4875,7 @@
         <v>4027</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D33">
         <v>3160</v>
@@ -4789,7 +4886,7 @@
         <v>4028</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D34" s="5">
         <v>3161</v>
@@ -4800,13 +4897,13 @@
         <v>4029</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D35">
         <v>3162</v>
       </c>
       <c r="E35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F35" s="5">
         <v>4030</v>
@@ -4820,7 +4917,7 @@
         <v>4030</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D36" s="5">
         <v>3166</v>
@@ -4828,10 +4925,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4839,7 +4936,7 @@
         <v>10001</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" s="5">
         <v>3101</v>
@@ -4850,7 +4947,7 @@
         <v>10100</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D39" s="5">
         <v>9010</v>
@@ -4861,7 +4958,7 @@
         <v>11001</v>
       </c>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D40">
         <v>4001</v>
@@ -4873,12 +4970,23 @@
         <v>11002</v>
       </c>
       <c r="C41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D41">
         <v>4002</v>
       </c>
       <c r="E41"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3167</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4907,16 +5015,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="XFD1" s="34"/>
     </row>
@@ -4925,16 +5033,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:5 16384:16384">
@@ -4942,16 +5050,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5 16384:16384">
@@ -4959,16 +5067,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5 16384:16384">
@@ -4976,10 +5084,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5 16384:16384">
@@ -4990,19 +5098,19 @@
     </row>
     <row r="7" spans="1:5 16384:16384">
       <c r="A7" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="C7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="E7" t="s">
         <v>229</v>
-      </c>
-      <c r="E7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:5 16384:16384">
@@ -5010,7 +5118,7 @@
         <v>6001</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8">
         <v>9001</v>
@@ -5024,7 +5132,7 @@
         <v>6002</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9">
         <v>5101</v>
@@ -5038,7 +5146,7 @@
         <v>6003</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10">
         <v>9002</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9324C-41EE-4D7A-B6D9-5586D5ABEF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE87F8-0212-4A70-AFBA-D42A8CC26849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="342">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1315,6 +1315,30 @@
   </si>
   <si>
     <t>여행광고 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위는 초단위이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후속 이벤트 간격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextEventDuartion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후속이벤트와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 이벤트간의 간격을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타내는 컬럼이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1322,7 +1346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1392,22 +1416,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1429,7 +1437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1560,13 +1568,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1603,18 +1707,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1630,21 +1722,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1654,21 +1734,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1678,12 +1743,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -1693,9 +1752,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1703,13 +1759,91 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2051,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2065,13 +2199,13 @@
     <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.69921875" customWidth="1"/>
-    <col min="8" max="8" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.59765625" customWidth="1"/>
     <col min="9" max="9" width="16.59765625" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" ht="23.4" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,14 +2230,17 @@
       <c r="H1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickBot="1">
+    <row r="2" spans="1:12" ht="18" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2128,126 +2265,141 @@
       <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25.8" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="K3" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="L3" s="31" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:12" s="5" customFormat="1">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="43"/>
+      <c r="J4" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="L4" s="34" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:12" s="5" customFormat="1">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="30" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="24" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="K5" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="L5" s="34" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" thickBot="1">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="15" t="s">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="18" thickBot="1">
+      <c r="A6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="25" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="K6" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="L6" s="39" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18" thickBot="1">
+    <row r="7" spans="1:12" ht="18" thickBot="1">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2272,29 +2424,32 @@
       <c r="H7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="K7" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="C8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="5">
         <v>1001</v>
       </c>
@@ -2307,21 +2462,21 @@
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="12">
         <v>2002</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="12">
         <v>1107</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="43" t="s">
+      <c r="I9" s="12"/>
+      <c r="K9" s="27" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="B10" s="5">
         <v>1002</v>
       </c>
@@ -2334,21 +2489,24 @@
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="12">
         <v>2001</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="12">
         <v>3002</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="12">
         <v>1105</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="12">
         <v>1101</v>
       </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="12">
+        <v>10</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="5">
         <v>1003</v>
       </c>
@@ -2361,18 +2519,18 @@
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>2002</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="14">
         <v>1104</v>
       </c>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" s="5">
         <v>1004</v>
       </c>
@@ -2385,21 +2543,24 @@
       <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="12">
         <v>2002</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="12">
         <v>1111</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="12">
         <v>1112</v>
       </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="J12" s="12">
+        <v>10</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="B13" s="5">
         <v>1005</v>
       </c>
@@ -2412,21 +2573,21 @@
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="12">
         <v>2001</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="25">
         <v>3003</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="12">
         <v>1113</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="43" t="s">
+      <c r="I13" s="12"/>
+      <c r="K13" s="27" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="B14" s="5">
         <v>1006</v>
       </c>
@@ -2439,17 +2600,17 @@
       <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="12">
         <v>2002</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="12">
         <v>1108</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="B15" s="5">
         <v>1007</v>
       </c>
@@ -2462,17 +2623,17 @@
       <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <v>2002</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="12">
         <v>1109</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="B16" s="5">
         <v>1008</v>
       </c>
@@ -2485,17 +2646,17 @@
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>2002</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="12">
         <v>1110</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="B17" s="5">
         <v>1009</v>
       </c>
@@ -2508,15 +2669,15 @@
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>2006</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="J17" s="44" t="s">
+      <c r="G17" s="25"/>
+      <c r="K17" s="28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="B18" s="5">
         <v>1010</v>
       </c>
@@ -2529,18 +2690,21 @@
       <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <v>2007</v>
       </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="25"/>
       <c r="I18">
         <v>1010</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18" s="28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="B19" s="5">
         <v>1011</v>
       </c>
@@ -2553,20 +2717,20 @@
       <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="12">
         <v>2008</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="16"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="12"/>
       <c r="I19">
         <v>1011</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="K19" s="28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="B20" s="41">
+    <row r="20" spans="1:11">
+      <c r="B20" s="26">
         <v>1012</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2578,17 +2742,20 @@
       <c r="E20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="12">
         <v>2009</v>
       </c>
       <c r="I20">
         <v>1012</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20" s="28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="B21" s="5">
         <v>1013</v>
       </c>
@@ -2601,14 +2768,14 @@
       <c r="E21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="12">
         <v>2002</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="25" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2789,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="B29" s="5">
         <v>1101</v>
       </c>
@@ -2635,18 +2802,18 @@
       <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="12">
         <v>2001</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="12">
         <v>3002</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="12">
         <v>1105</v>
       </c>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="B30" s="5">
         <v>1102</v>
       </c>
@@ -2659,16 +2826,16 @@
       <c r="E30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="12">
         <v>2002</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="12">
         <v>4002</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="B31" s="5">
         <v>1103</v>
       </c>
@@ -2681,16 +2848,16 @@
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="12">
         <v>2002</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="12">
         <v>4001</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="B32" s="5">
         <v>1104</v>
       </c>
@@ -2703,19 +2870,19 @@
       <c r="E32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="12">
         <v>2004</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="12">
         <v>3001</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16">
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="K32" s="12">
         <v>4001</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="B33" s="5">
         <v>1105</v>
       </c>
@@ -2728,19 +2895,19 @@
       <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="12">
         <v>2003</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="12">
         <v>3002</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16">
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="K33" s="12">
         <v>4025</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="34.799999999999997">
+    <row r="34" spans="1:12" ht="104.4">
       <c r="B34" s="5">
         <v>1106</v>
       </c>
@@ -2753,20 +2920,20 @@
       <c r="E34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="12">
         <v>2005</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="16"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="16" t="s">
+      <c r="K34" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="L34" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="B35" s="5">
         <v>1107</v>
       </c>
@@ -2779,7 +2946,7 @@
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="12">
         <v>2004</v>
       </c>
       <c r="G35" s="5">
@@ -2787,11 +2954,11 @@
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35">
+      <c r="K35">
         <v>10001</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="B36" s="5">
         <v>1108</v>
       </c>
@@ -2804,17 +2971,17 @@
       <c r="E36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="12">
         <v>2004</v>
       </c>
       <c r="G36">
         <v>3004</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>4009</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="B37" s="5">
         <v>1109</v>
       </c>
@@ -2827,17 +2994,17 @@
       <c r="E37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="12">
         <v>2004</v>
       </c>
       <c r="G37">
         <v>3005</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>4011</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="B38" s="5">
         <v>1110</v>
       </c>
@@ -2850,17 +3017,17 @@
       <c r="E38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="12">
         <v>2004</v>
       </c>
       <c r="G38">
         <v>3006</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>4017</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="B39">
         <v>1111</v>
       </c>
@@ -2885,11 +3052,11 @@
       <c r="I39">
         <v>1106</v>
       </c>
-      <c r="J39" s="5">
+      <c r="K39" s="5">
         <v>4021</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="B40">
         <v>1112</v>
       </c>
@@ -2914,11 +3081,11 @@
       <c r="I40">
         <v>1106</v>
       </c>
-      <c r="J40" s="5">
+      <c r="K40" s="5">
         <v>4024</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="B41">
         <v>1113</v>
       </c>
@@ -2937,11 +3104,11 @@
       <c r="G41">
         <v>3003</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>4029</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="B42">
         <v>1114</v>
       </c>
@@ -2960,11 +3127,11 @@
       <c r="G42">
         <v>3007</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>11001</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="B43">
         <v>1115</v>
       </c>
@@ -2983,11 +3150,11 @@
       <c r="G43">
         <v>3007</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>11002</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="B44">
         <v>1116</v>
       </c>
@@ -3010,7 +3177,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="B45">
         <v>1117</v>
       </c>
@@ -3029,8 +3196,11 @@
       <c r="G45">
         <v>3002</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="K45" s="5">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3038,7 +3208,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="B47" s="5">
         <v>4004</v>
       </c>
@@ -3051,11 +3221,11 @@
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="12">
         <v>2005</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3063,7 +3233,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11">
       <c r="B49">
         <v>9001</v>
       </c>
@@ -3085,9 +3255,9 @@
       <c r="H49">
         <v>9002</v>
       </c>
-      <c r="J49" s="39"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="B50">
         <v>9002</v>
       </c>
@@ -3106,11 +3276,11 @@
       <c r="G50">
         <v>3009</v>
       </c>
-      <c r="J50" s="39" t="s">
+      <c r="K50" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3118,7 +3288,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:11">
       <c r="B53">
         <v>8999</v>
       </c>
@@ -3184,7 +3354,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="58" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3195,7 +3365,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="59"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -3204,7 +3374,7 @@
       <c r="B5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="59"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -3213,7 +3383,7 @@
       <c r="B6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="59"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -3766,7 +3936,7 @@
       <c r="B76">
         <v>3157</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="23" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4050,7 +4220,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="58" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4061,7 +4231,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="59"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -4070,14 +4240,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="59"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="49"/>
+      <c r="C6" s="59"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -4176,7 +4346,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -4194,7 +4364,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -4218,15 +4388,15 @@
       <c r="H1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4258,7 +4428,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4290,7 +4460,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4322,13 +4492,13 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="7"/>
@@ -4382,16 +4552,16 @@
       <c r="C7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>3105</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="5">
         <v>4002</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
         <v>3108</v>
       </c>
       <c r="H7" s="5">
@@ -4411,16 +4581,16 @@
       <c r="C8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <v>3109</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="12" t="s">
         <v>98</v>
       </c>
       <c r="F8" s="5">
         <v>4005</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="12">
         <v>3112</v>
       </c>
       <c r="H8" s="5">
@@ -4440,16 +4610,16 @@
       <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="12">
         <v>3113</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F9" s="5">
         <v>4002</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="12"/>
       <c r="I9" s="5">
         <v>50</v>
       </c>
@@ -4464,16 +4634,16 @@
       <c r="C10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="12">
         <v>3116</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F10" s="5">
         <v>4007</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="12"/>
       <c r="I10" s="5">
         <v>20</v>
       </c>
@@ -4491,8 +4661,8 @@
       <c r="D11" s="5">
         <v>3120</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="5">
@@ -4504,8 +4674,8 @@
       <c r="D12" s="5">
         <v>3121</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="E12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="5">
@@ -4517,8 +4687,8 @@
       <c r="D13" s="5">
         <v>3122</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="5">
@@ -4541,7 +4711,7 @@
       <c r="D15" s="5">
         <v>3123</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>168</v>
       </c>
       <c r="F15" s="5">
@@ -5011,7 +5181,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5 16384:16384">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -5026,10 +5196,10 @@
       <c r="E1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="XFD1" s="34"/>
+      <c r="XFD1" s="21"/>
     </row>
     <row r="2" spans="1:5 16384:16384">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -5046,7 +5216,7 @@
       </c>
     </row>
     <row r="3" spans="1:5 16384:16384">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5063,7 +5233,7 @@
       </c>
     </row>
     <row r="4" spans="1:5 16384:16384">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -5080,7 +5250,7 @@
       </c>
     </row>
     <row r="5" spans="1:5 16384:16384">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5091,7 +5261,7 @@
       </c>
     </row>
     <row r="6" spans="1:5 16384:16384">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3"/>
@@ -5106,7 +5276,7 @@
       <c r="C7" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="22" t="s">
         <v>228</v>
       </c>
       <c r="E7" t="s">

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE87F8-0212-4A70-AFBA-D42A8CC26849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3C9D54-D917-4D15-A828-9CA4F4A8D2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="344">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1339,6 +1339,14 @@
   </si>
   <si>
     <t>나타내는 컬럼이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3007, 4002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3007, 4001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2187,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2829,8 +2837,8 @@
       <c r="F30" s="12">
         <v>2002</v>
       </c>
-      <c r="G30" s="12">
-        <v>4002</v>
+      <c r="G30" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -2851,8 +2859,8 @@
       <c r="F31" s="12">
         <v>2002</v>
       </c>
-      <c r="G31" s="12">
-        <v>4001</v>
+      <c r="G31" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3315,7 +3323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3C9D54-D917-4D15-A828-9CA4F4A8D2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDD0D7A-C7C9-404E-9AD3-27633423F042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="350">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1175,10 +1175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10100, 6001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3009, 9010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1258,10 +1254,6 @@
   </si>
   <si>
     <t>알람이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지,전화 : 토킹 id,나레이션 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1330,14 +1322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>후속이벤트와</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 이벤트간의 간격을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나타내는 컬럼이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1347,6 +1331,46 @@
   </si>
   <si>
     <t>3007, 4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NarraiontID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트에 쓰일 나레이션 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(진입시, 해결, 무시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순으로 나올 나레이션을 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후속이벤트와의 시간을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(수락, 무시)순으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 6001, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지,전화 : 토킹 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2193,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2208,12 +2232,13 @@
     <col min="6" max="6" width="26.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.69921875" customWidth="1"/>
     <col min="8" max="8" width="31.59765625" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" customWidth="1"/>
+    <col min="9" max="9" width="18.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2242,13 +2267,16 @@
         <v>28</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K1" s="45" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1">
+      <c r="L1" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2282,8 +2310,11 @@
       <c r="K2" s="46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="25.2" customHeight="1">
+      <c r="L2" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="25.2" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -2310,16 +2341,19 @@
       </c>
       <c r="I3" s="42"/>
       <c r="J3" s="53" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K3" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="L3" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="31" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1">
+      <c r="M3" s="31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -2342,16 +2376,19 @@
       </c>
       <c r="I4" s="43"/>
       <c r="J4" s="53" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K4" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="L4" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="M4" s="34" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1">
+    <row r="5" spans="1:13" s="5" customFormat="1">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -2372,16 +2409,19 @@
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="53" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K5" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="L5" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="L5" s="34" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="18" thickBot="1">
+      <c r="M5" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -2398,16 +2438,17 @@
       <c r="H6" s="38"/>
       <c r="I6" s="44"/>
       <c r="J6" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="K6" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="L6" s="39" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1">
+      <c r="M6" s="39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" thickBot="1">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2436,14 +2477,17 @@
         <v>50</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K7" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2501,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="B9" s="5">
         <v>1001</v>
       </c>
@@ -2480,16 +2524,17 @@
         <v>1107</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="K9" s="27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="J9" s="25"/>
+      <c r="L9" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="B10" s="5">
         <v>1002</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2509,17 +2554,17 @@
       <c r="I10" s="12">
         <v>1101</v>
       </c>
-      <c r="J10" s="12">
-        <v>10</v>
-      </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="J10" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11" s="5">
         <v>1003</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2537,13 +2582,14 @@
         <v>1104</v>
       </c>
       <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="B12" s="5">
         <v>1004</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2563,17 +2609,17 @@
       <c r="I12" s="12">
         <v>1112</v>
       </c>
-      <c r="J12" s="12">
-        <v>10</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="B13" s="5">
         <v>1005</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2591,16 +2637,17 @@
         <v>1113</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="K13" s="27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="25"/>
+      <c r="L13" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="B14" s="5">
         <v>1006</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2612,18 +2659,19 @@
         <v>2002</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H14" s="12">
         <v>1108</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="B15" s="5">
         <v>1007</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2635,18 +2683,19 @@
         <v>2002</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H15" s="12">
         <v>1109</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="B16" s="5">
         <v>1008</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2658,13 +2707,14 @@
         <v>2002</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H16" s="12">
         <v>1110</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="B17" s="5">
         <v>1009</v>
       </c>
@@ -2681,11 +2731,12 @@
         <v>2006</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="K17" s="28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="25"/>
+      <c r="L17" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="B18" s="5">
         <v>1010</v>
       </c>
@@ -2705,14 +2756,14 @@
       <c r="I18">
         <v>1010</v>
       </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="B19" s="5">
         <v>1011</v>
       </c>
@@ -2733,16 +2784,17 @@
       <c r="I19">
         <v>1011</v>
       </c>
-      <c r="K19" s="28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" s="25"/>
+      <c r="L19" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="B20" s="26">
         <v>1012</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2756,19 +2808,19 @@
       <c r="I20">
         <v>1012</v>
       </c>
-      <c r="J20">
-        <v>20</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="B21" s="5">
         <v>1013</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2780,10 +2832,17 @@
         <v>2002</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>331</v>
+      </c>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="J23" s="25"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2797,12 +2856,12 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="B29" s="5">
         <v>1101</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2821,7 +2880,7 @@
       </c>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="B30" s="5">
         <v>1102</v>
       </c>
@@ -2838,12 +2897,12 @@
         <v>2002</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="B31" s="5">
         <v>1103</v>
       </c>
@@ -2860,12 +2919,12 @@
         <v>2002</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="B32" s="5">
         <v>1104</v>
       </c>
@@ -2886,11 +2945,11 @@
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="K32" s="12">
+      <c r="L32" s="12">
         <v>4001</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="B33" s="5">
         <v>1105</v>
       </c>
@@ -2911,11 +2970,11 @@
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
-      <c r="K33" s="12">
+      <c r="L33" s="12">
         <v>4025</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="104.4">
+    <row r="34" spans="1:13" ht="104.4">
       <c r="B34" s="5">
         <v>1106</v>
       </c>
@@ -2934,14 +2993,14 @@
       <c r="G34" s="5"/>
       <c r="H34" s="12"/>
       <c r="I34" s="5"/>
-      <c r="K34" s="12" t="s">
+      <c r="L34" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="B35" s="5">
         <v>1107</v>
       </c>
@@ -2962,11 +3021,11 @@
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="K35">
+      <c r="L35">
         <v>10001</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="B36" s="5">
         <v>1108</v>
       </c>
@@ -2985,11 +3044,11 @@
       <c r="G36">
         <v>3004</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>4009</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="B37" s="5">
         <v>1109</v>
       </c>
@@ -3008,11 +3067,11 @@
       <c r="G37">
         <v>3005</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>4011</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="B38" s="5">
         <v>1110</v>
       </c>
@@ -3031,11 +3090,11 @@
       <c r="G38">
         <v>3006</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>4017</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="B39">
         <v>1111</v>
       </c>
@@ -3060,11 +3119,11 @@
       <c r="I39">
         <v>1106</v>
       </c>
-      <c r="K39" s="5">
+      <c r="L39" s="5">
         <v>4021</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="B40">
         <v>1112</v>
       </c>
@@ -3089,11 +3148,11 @@
       <c r="I40">
         <v>1106</v>
       </c>
-      <c r="K40" s="5">
+      <c r="L40" s="5">
         <v>4024</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="B41">
         <v>1113</v>
       </c>
@@ -3112,16 +3171,16 @@
       <c r="G41">
         <v>3003</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>4029</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="B42">
         <v>1114</v>
       </c>
       <c r="C42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3135,16 +3194,16 @@
       <c r="G42">
         <v>3007</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>11001</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="B43">
         <v>1115</v>
       </c>
       <c r="C43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3158,16 +3217,16 @@
       <c r="G43">
         <v>3007</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>11002</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="B44">
         <v>1116</v>
       </c>
       <c r="C44" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3185,12 +3244,12 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="B45">
         <v>1117</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3204,11 +3263,11 @@
       <c r="G45">
         <v>3002</v>
       </c>
-      <c r="K45" s="5">
+      <c r="L45" s="5">
         <v>10002</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3216,7 +3275,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="B47" s="5">
         <v>4004</v>
       </c>
@@ -3233,7 +3292,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3300,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="B49">
         <v>9001</v>
       </c>
@@ -3258,14 +3317,14 @@
         <v>2002</v>
       </c>
       <c r="G49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H49">
         <v>9002</v>
       </c>
-      <c r="K49" s="24"/>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" s="24"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="B50">
         <v>9002</v>
       </c>
@@ -3284,24 +3343,27 @@
       <c r="G50">
         <v>3009</v>
       </c>
-      <c r="K50" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="K50" t="s">
+        <v>348</v>
+      </c>
+      <c r="L50" s="24">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="B53">
         <v>8999</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3913,7 +3975,7 @@
         <v>3153</v>
       </c>
       <c r="C72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -4025,7 +4087,7 @@
         <v>3167</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4337,7 +4399,7 @@
         <v>2009</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5136,7 +5198,7 @@
         <v>11001</v>
       </c>
       <c r="C40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D40">
         <v>4001</v>
@@ -5148,7 +5210,7 @@
         <v>11002</v>
       </c>
       <c r="C41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D41">
         <v>4002</v>
@@ -5160,7 +5222,7 @@
         <v>10002</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D42" s="5">
         <v>3167</v>
@@ -5193,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>238</v>
@@ -5324,7 +5386,7 @@
         <v>6003</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D10">
         <v>9002</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDD0D7A-C7C9-404E-9AD3-27633423F042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC5F2D-80D8-476C-AFCB-C5E2084BEBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -1318,10 +1318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NextEventDuartion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나타내는 컬럼이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1371,6 +1367,10 @@
   </si>
   <si>
     <t>메시지,전화 : 토킹 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextEventDuration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2220,25 +2220,25 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
-    <col min="8" max="8" width="31.59765625" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="8" width="31.625" customWidth="1"/>
+    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="23.45" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" thickBot="1">
+    <row r="2" spans="1:13" ht="17.25" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="25.2" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="25.15" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -2341,16 +2341,16 @@
       </c>
       <c r="I3" s="42"/>
       <c r="J3" s="53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L3" s="47" t="s">
         <v>113</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1">
@@ -2376,10 +2376,10 @@
       </c>
       <c r="I4" s="43"/>
       <c r="J4" s="53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>114</v>
@@ -2409,10 +2409,10 @@
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>290</v>
@@ -2421,7 +2421,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="18" thickBot="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.25" thickBot="1">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" thickBot="1">
+    <row r="7" spans="1:13" ht="17.25" thickBot="1">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2477,10 +2477,10 @@
         <v>50</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L7" s="46" t="s">
         <v>115</v>
@@ -2555,7 +2555,7 @@
         <v>1101</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L10" s="12"/>
     </row>
@@ -2610,7 +2610,7 @@
         <v>1112</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L12" s="5"/>
     </row>
@@ -2757,7 +2757,7 @@
         <v>1010</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L18" s="28" t="s">
         <v>326</v>
@@ -2809,7 +2809,7 @@
         <v>1012</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L20" s="28" t="s">
         <v>326</v>
@@ -2897,7 +2897,7 @@
         <v>2002</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -2919,7 +2919,7 @@
         <v>2002</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -2974,7 +2974,7 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="104.4">
+    <row r="34" spans="1:13" ht="99">
       <c r="B34" s="5">
         <v>1106</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>3009</v>
       </c>
       <c r="K50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L50" s="24">
         <v>10100</v>
@@ -3389,10 +3389,10 @@
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3554,7 +3554,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34.799999999999997">
+    <row r="20" spans="1:3" ht="33">
       <c r="B20">
         <v>3101</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="52.2">
+    <row r="86" spans="1:3" ht="49.5">
       <c r="B86">
         <v>3167</v>
       </c>
@@ -4256,9 +4256,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4419,18 +4419,18 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="5"/>
-    <col min="2" max="2" width="14.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="5"/>
+    <col min="2" max="2" width="14.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.3984375" style="5" customWidth="1"/>
-    <col min="9" max="10" width="17.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="5"/>
+    <col min="6" max="6" width="17.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
@@ -5242,12 +5242,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5 16384:16384">
@@ -5285,7 +5285,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:5 16384:16384">
+    <row r="3" spans="1:5 16384:16384" ht="33">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC5F2D-80D8-476C-AFCB-C5E2084BEBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9F9C4-6C5D-4936-991B-D5031D89BF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -1330,10 +1330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NarraiontID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이벤트에 쓰일 나레이션 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1371,6 +1367,10 @@
   </si>
   <si>
     <t>NextEventDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NarraitonID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2220,7 +2220,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2341,16 +2341,16 @@
       </c>
       <c r="I3" s="42"/>
       <c r="J3" s="53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L3" s="47" t="s">
         <v>113</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1">
@@ -2376,10 +2376,10 @@
       </c>
       <c r="I4" s="43"/>
       <c r="J4" s="53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>114</v>
@@ -2412,7 +2412,7 @@
         <v>336</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>290</v>
@@ -2477,10 +2477,10 @@
         <v>50</v>
       </c>
       <c r="J7" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="K7" s="46" t="s">
         <v>349</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>339</v>
       </c>
       <c r="L7" s="46" t="s">
         <v>115</v>
@@ -2555,7 +2555,7 @@
         <v>1101</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L10" s="12"/>
     </row>
@@ -2610,7 +2610,7 @@
         <v>1112</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L12" s="5"/>
     </row>
@@ -2757,7 +2757,7 @@
         <v>1010</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L18" s="28" t="s">
         <v>326</v>
@@ -2809,7 +2809,7 @@
         <v>1012</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L20" s="28" t="s">
         <v>326</v>
@@ -3344,7 +3344,7 @@
         <v>3009</v>
       </c>
       <c r="K50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L50" s="24">
         <v>10100</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9F9C4-6C5D-4936-991B-D5031D89BF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59DEDA-3876-4973-87AF-01E444E230DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="349">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1367,10 +1367,6 @@
   </si>
   <si>
     <t>NextEventDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NarraitonID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2480,7 +2476,7 @@
         <v>348</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>349</v>
+        <v>227</v>
       </c>
       <c r="L7" s="46" t="s">
         <v>115</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\Mandle_10Minute_Game\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59DEDA-3876-4973-87AF-01E444E230DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EFA504-47C9-482A-B524-5AF89BFB1897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="357">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1358,15 +1358,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0, 6001, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메시지,전화 : 토킹 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NextEventDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1 , 6001, -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1, -1, 6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말하는 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true: 플레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false: 업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalkTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6002, -1, -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모님의 전화를 바로 받는 당신은 효자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우우 쓰레기 부모님의 전화를 무시하다니</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2213,28 +2245,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="31.625" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="8" max="8" width="31.59765625" customWidth="1"/>
+    <col min="9" max="9" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.45" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="23.4" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2266,13 +2298,13 @@
         <v>335</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>112</v>
+        <v>314</v>
       </c>
       <c r="L1" s="45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1">
+    <row r="2" spans="1:13" ht="18" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="25.2" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +2378,7 @@
         <v>113</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1">
@@ -2417,7 +2449,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.25" thickBot="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -2444,7 +2476,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" thickBot="1">
+    <row r="7" spans="1:13" ht="18" thickBot="1">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2473,7 +2505,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K7" s="46" t="s">
         <v>227</v>
@@ -2603,7 +2635,7 @@
         <v>1111</v>
       </c>
       <c r="I12" s="12">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>344</v>
@@ -2945,7 +2977,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="2:13">
       <c r="B33" s="5">
         <v>1105</v>
       </c>
@@ -2970,7 +3002,7 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="99">
+    <row r="34" spans="2:13" ht="104.4">
       <c r="B34" s="5">
         <v>1106</v>
       </c>
@@ -2996,7 +3028,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="2:13">
       <c r="B35" s="5">
         <v>1107</v>
       </c>
@@ -3021,7 +3053,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="2:13">
       <c r="B36" s="5">
         <v>1108</v>
       </c>
@@ -3044,7 +3076,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="2:13">
       <c r="B37" s="5">
         <v>1109</v>
       </c>
@@ -3067,7 +3099,7 @@
         <v>4011</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="2:13">
       <c r="B38" s="5">
         <v>1110</v>
       </c>
@@ -3090,7 +3122,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="2:13">
       <c r="B39">
         <v>1111</v>
       </c>
@@ -3115,11 +3147,14 @@
       <c r="I39">
         <v>1106</v>
       </c>
+      <c r="K39" s="24" t="s">
+        <v>354</v>
+      </c>
       <c r="L39" s="5">
         <v>4021</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="2:13">
       <c r="B40">
         <v>1112</v>
       </c>
@@ -3148,7 +3183,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="2:13">
       <c r="B41">
         <v>1113</v>
       </c>
@@ -3171,7 +3206,7 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="2:13">
       <c r="B42">
         <v>1114</v>
       </c>
@@ -3194,7 +3229,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="2:13">
       <c r="B43">
         <v>1115</v>
       </c>
@@ -3217,7 +3252,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="2:13">
       <c r="B44">
         <v>1116</v>
       </c>
@@ -3240,7 +3275,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="2:13">
       <c r="B45">
         <v>1117</v>
       </c>
@@ -3263,108 +3298,111 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="5" t="s">
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
-      <c r="B47" s="5">
+    <row r="50" spans="1:12">
+      <c r="B50" s="5">
         <v>4004</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>147</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F50" s="12">
         <v>2005</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="B49">
+    <row r="52" spans="1:12">
+      <c r="B52">
         <v>9001</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>296</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
         <v>16</v>
       </c>
-      <c r="F49">
+      <c r="F52">
         <v>2002</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G52" t="s">
         <v>300</v>
       </c>
-      <c r="H49">
+      <c r="H52">
         <v>9002</v>
       </c>
-      <c r="L49" s="24"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="B50">
-        <v>9002</v>
-      </c>
-      <c r="C50" t="s">
-        <v>298</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50">
-        <v>2004</v>
-      </c>
-      <c r="G50">
-        <v>3009</v>
-      </c>
-      <c r="K50" t="s">
-        <v>346</v>
-      </c>
-      <c r="L50" s="24">
-        <v>10100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>315</v>
-      </c>
+      <c r="K52" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="L52" s="24"/>
     </row>
     <row r="53" spans="1:12">
       <c r="B53">
+        <v>9002</v>
+      </c>
+      <c r="C53" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53">
+        <v>2004</v>
+      </c>
+      <c r="G53">
+        <v>3009</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="L53" s="24">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56">
         <v>8999</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" t="s">
         <v>316</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3379,16 +3417,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3550,7 +3588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="33">
+    <row r="20" spans="1:3" ht="34.799999999999997">
       <c r="B20">
         <v>3101</v>
       </c>
@@ -4078,7 +4116,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="49.5">
+    <row r="86" spans="1:3" ht="52.2">
       <c r="B86">
         <v>3167</v>
       </c>
@@ -4204,34 +4242,70 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
-        <v>289</v>
+      <c r="B109">
+        <v>5102</v>
+      </c>
+      <c r="C109" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="B110">
-        <v>9001</v>
+        <v>5103</v>
       </c>
       <c r="C110" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="B111">
-        <v>9002</v>
-      </c>
-      <c r="C111" t="s">
-        <v>294</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="B113">
+        <v>5106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="B114">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117">
+        <v>9001</v>
+      </c>
+      <c r="C117" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="B118">
+        <v>9002</v>
+      </c>
+      <c r="C118" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="B119">
         <v>9010</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C119" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4252,9 +4326,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4411,22 +4485,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="5"/>
-    <col min="2" max="2" width="14.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="5"/>
+    <col min="2" max="2" width="14.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" style="5" customWidth="1"/>
     <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="5" customWidth="1"/>
-    <col min="9" max="10" width="17.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="5"/>
+    <col min="6" max="6" width="17.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.3984375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="17.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
@@ -5232,21 +5306,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E700BA1-4920-4342-AF0B-E626177C7CC3}">
-  <dimension ref="A1:XFD10"/>
+  <dimension ref="A1:XFD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5 16384:16384">
+    <row r="1" spans="1:6 16384:16384">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -5262,9 +5337,12 @@
       <c r="E1" s="6" t="s">
         <v>225</v>
       </c>
+      <c r="F1" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="XFD1" s="21"/>
     </row>
-    <row r="2" spans="1:5 16384:16384">
+    <row r="2" spans="1:6 16384:16384">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -5280,8 +5358,11 @@
       <c r="E2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:5 16384:16384" ht="33">
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6 16384:16384">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -5297,8 +5378,11 @@
       <c r="E3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="4" spans="1:5 16384:16384">
+      <c r="F3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6 16384:16384">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -5314,8 +5398,11 @@
       <c r="E4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="5" spans="1:5 16384:16384">
+      <c r="F4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6 16384:16384">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -5326,13 +5413,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:5 16384:16384">
+    <row r="6" spans="1:6 16384:16384">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:5 16384:16384">
+    <row r="7" spans="1:6 16384:16384">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -5348,8 +5435,11 @@
       <c r="E7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="8" spans="1:5 16384:16384">
+      <c r="F7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6 16384:16384">
       <c r="B8">
         <v>6001</v>
       </c>
@@ -5362,8 +5452,11 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5 16384:16384">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6 16384:16384">
       <c r="B9">
         <v>6002</v>
       </c>
@@ -5376,8 +5469,11 @@
       <c r="E9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5 16384:16384">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6 16384:16384">
       <c r="B10">
         <v>6003</v>
       </c>
@@ -5389,6 +5485,29 @@
       </c>
       <c r="E10">
         <v>1.5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6 16384:16384">
+      <c r="B11">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6 16384:16384">
+      <c r="B12">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6 16384:16384">
+      <c r="B13">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6 16384:16384">
+      <c r="B14">
+        <v>6007</v>
       </c>
     </row>
   </sheetData>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EFA504-47C9-482A-B524-5AF89BFB1897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F966B1-1B94-4C40-B525-948BE1AB9913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="372">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1399,6 +1399,66 @@
   </si>
   <si>
     <t>우우 쓰레기 부모님의 전화를 무시하다니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마와의 통화 무시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마와의 통화 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고는 무시할뿐…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 광고에 낚이셨군요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아! 렉 아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배기사의 호감도가 +1 올랐습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[국외발신] 국내 상반기 유망 주식 5종 소개!! 확인 안하면 후회합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식광고 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003, 3168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식광고 채팅 App대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식광고 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배 문자 답장시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 재접속 해결시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 클릭시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 무시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1730,7 +1790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1910,6 +1970,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2247,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2258,7 +2348,7 @@
     <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" style="66" customWidth="1"/>
     <col min="8" max="8" width="31.59765625" customWidth="1"/>
     <col min="9" max="9" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
@@ -2285,7 +2375,7 @@
       <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="60" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="9" t="s">
@@ -2323,7 +2413,7 @@
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="61" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -2361,7 +2451,7 @@
       <c r="F3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="62" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="30" t="s">
@@ -2396,7 +2486,7 @@
       <c r="F4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="63" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="33" t="s">
@@ -2431,7 +2521,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="33" t="s">
         <v>40</v>
       </c>
@@ -2462,7 +2552,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="38"/>
       <c r="I6" s="44"/>
       <c r="J6" s="54" t="s">
@@ -2495,7 +2585,7 @@
       <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="64" t="s">
         <v>48</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2525,7 +2615,7 @@
       <c r="C8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
@@ -2545,7 +2635,7 @@
       <c r="F9" s="12">
         <v>2002</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="65" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="12">
@@ -2573,7 +2663,7 @@
       <c r="F10" s="12">
         <v>2001</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="65">
         <v>3002</v>
       </c>
       <c r="H10" s="12">
@@ -2603,7 +2693,7 @@
       <c r="F11" s="12">
         <v>2002</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="65" t="s">
         <v>104</v>
       </c>
       <c r="H11" s="14">
@@ -2628,7 +2718,7 @@
       <c r="F12" s="12">
         <v>2002</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="65" t="s">
         <v>222</v>
       </c>
       <c r="H12" s="12">
@@ -2658,7 +2748,7 @@
       <c r="F13" s="12">
         <v>2001</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="66">
         <v>3003</v>
       </c>
       <c r="H13" s="12">
@@ -2686,7 +2776,7 @@
       <c r="F14" s="12">
         <v>2002</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="66" t="s">
         <v>301</v>
       </c>
       <c r="H14" s="12">
@@ -2710,7 +2800,7 @@
       <c r="F15" s="12">
         <v>2002</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="66" t="s">
         <v>302</v>
       </c>
       <c r="H15" s="12">
@@ -2734,7 +2824,7 @@
       <c r="F16" s="12">
         <v>2002</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="66" t="s">
         <v>303</v>
       </c>
       <c r="H16" s="12">
@@ -2758,7 +2848,6 @@
       <c r="F17" s="12">
         <v>2006</v>
       </c>
-      <c r="G17" s="25"/>
       <c r="J17" s="25"/>
       <c r="L17" s="28" t="s">
         <v>326</v>
@@ -2780,7 +2869,6 @@
       <c r="F18" s="12">
         <v>2007</v>
       </c>
-      <c r="G18" s="25"/>
       <c r="I18">
         <v>1010</v>
       </c>
@@ -2807,7 +2895,6 @@
       <c r="F19" s="12">
         <v>2008</v>
       </c>
-      <c r="G19" s="25"/>
       <c r="H19" s="12"/>
       <c r="I19">
         <v>1011</v>
@@ -2859,12 +2946,36 @@
       <c r="F21" s="12">
         <v>2002</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="66" t="s">
         <v>331</v>
       </c>
+      <c r="H21">
+        <v>1117</v>
+      </c>
       <c r="J21" s="25"/>
+      <c r="L21" s="24" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
+      <c r="B22" s="5">
+        <v>1014</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2002</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>365</v>
+      </c>
       <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:12">
@@ -2880,7 +2991,7 @@
       <c r="C28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -2900,7 +3011,7 @@
       <c r="F29" s="12">
         <v>2001</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="65">
         <v>3002</v>
       </c>
       <c r="H29" s="12">
@@ -2924,7 +3035,7 @@
       <c r="F30" s="12">
         <v>2002</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="65" t="s">
         <v>337</v>
       </c>
       <c r="H30" s="12"/>
@@ -2946,7 +3057,7 @@
       <c r="F31" s="12">
         <v>2002</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="65" t="s">
         <v>338</v>
       </c>
       <c r="H31" s="12"/>
@@ -2968,7 +3079,7 @@
       <c r="F32" s="12">
         <v>2004</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="65">
         <v>3001</v>
       </c>
       <c r="H32" s="12"/>
@@ -2993,7 +3104,7 @@
       <c r="F33" s="12">
         <v>2003</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="65">
         <v>3002</v>
       </c>
       <c r="H33" s="12"/>
@@ -3018,7 +3129,7 @@
       <c r="F34" s="12">
         <v>2005</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="12"/>
       <c r="I34" s="5"/>
       <c r="L34" s="12" t="s">
@@ -3044,7 +3155,7 @@
       <c r="F35" s="12">
         <v>2004</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="65">
         <v>3003</v>
       </c>
       <c r="H35" s="5"/>
@@ -3069,7 +3180,7 @@
       <c r="F36" s="12">
         <v>2004</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="66">
         <v>3004</v>
       </c>
       <c r="L36">
@@ -3092,7 +3203,7 @@
       <c r="F37" s="12">
         <v>2004</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="66">
         <v>3005</v>
       </c>
       <c r="L37">
@@ -3115,7 +3226,7 @@
       <c r="F38" s="12">
         <v>2004</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="66">
         <v>3006</v>
       </c>
       <c r="L38">
@@ -3138,7 +3249,7 @@
       <c r="F39">
         <v>2004</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="66">
         <v>3007</v>
       </c>
       <c r="H39">
@@ -3170,7 +3281,7 @@
       <c r="F40">
         <v>2003</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="66">
         <v>3007</v>
       </c>
       <c r="H40">
@@ -3199,7 +3310,7 @@
       <c r="F41">
         <v>2003</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="66">
         <v>3003</v>
       </c>
       <c r="L41">
@@ -3222,7 +3333,7 @@
       <c r="F42">
         <v>2004</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="66">
         <v>3007</v>
       </c>
       <c r="L42">
@@ -3245,7 +3356,7 @@
       <c r="F43">
         <v>2004</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="66">
         <v>3007</v>
       </c>
       <c r="L43">
@@ -3268,7 +3379,7 @@
       <c r="F44">
         <v>2001</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="66">
         <v>3007</v>
       </c>
       <c r="H44">
@@ -3291,11 +3402,34 @@
       <c r="F45">
         <v>2004</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="66">
         <v>3002</v>
       </c>
       <c r="L45" s="5">
         <v>10002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46">
+        <v>1118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>366</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>2004</v>
+      </c>
+      <c r="G46" s="66">
+        <v>3002</v>
+      </c>
+      <c r="L46" s="5">
+        <v>10003</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3347,7 +3481,7 @@
       <c r="F52">
         <v>2002</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="66" t="s">
         <v>300</v>
       </c>
       <c r="H52">
@@ -3374,7 +3508,7 @@
       <c r="F53">
         <v>2004</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="66">
         <v>3009</v>
       </c>
       <c r="K53" s="24" t="s">
@@ -3417,10 +3551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4128,6 +4262,9 @@
       <c r="B87">
         <v>3168</v>
       </c>
+      <c r="C87" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
@@ -4261,51 +4398,68 @@
       <c r="B111">
         <v>5104</v>
       </c>
+      <c r="C111" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112">
         <v>5105</v>
       </c>
+      <c r="C112" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="113" spans="1:3">
       <c r="B113">
         <v>5106</v>
       </c>
+      <c r="C113" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
       <c r="B114">
         <v>5107</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="C114" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="B115">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="B117">
+    <row r="122" spans="1:3">
+      <c r="B122">
         <v>9001</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C122" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="B118">
+    <row r="123" spans="1:3">
+      <c r="B123">
         <v>9002</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C123" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="B119">
+    <row r="124" spans="1:3">
+      <c r="B124">
         <v>9010</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C124" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4323,7 +4477,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4483,10 +4637,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -5298,6 +5452,17 @@
         <v>3167</v>
       </c>
     </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="5">
+        <v>10003</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3168</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5306,10 +5471,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E700BA1-4920-4342-AF0B-E626177C7CC3}">
-  <dimension ref="A1:XFD14"/>
+  <dimension ref="A1:XFD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5494,20 +5659,102 @@
       <c r="B11">
         <v>6004</v>
       </c>
+      <c r="C11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11">
+        <v>5102</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6 16384:16384">
       <c r="B12">
         <v>6005</v>
       </c>
+      <c r="C12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12">
+        <v>5103</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6 16384:16384">
       <c r="B13">
         <v>6006</v>
       </c>
+      <c r="C13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13">
+        <v>5104</v>
+      </c>
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6 16384:16384">
       <c r="B14">
         <v>6007</v>
+      </c>
+      <c r="C14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14">
+        <v>5105</v>
+      </c>
+      <c r="E14">
+        <v>1.5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6 16384:16384">
+      <c r="B15">
+        <v>6008</v>
+      </c>
+      <c r="C15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15">
+        <v>5106</v>
+      </c>
+      <c r="E15">
+        <v>1.5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6 16384:16384">
+      <c r="B16">
+        <v>6009</v>
+      </c>
+      <c r="C16" t="s">
+        <v>368</v>
+      </c>
+      <c r="D16">
+        <v>5107</v>
+      </c>
+      <c r="E16">
+        <v>1.5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F966B1-1B94-4C40-B525-948BE1AB9913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0573E99F-1C75-4A8E-93AB-7705E16BF63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
     <sheet name="TextDT" sheetId="2" r:id="rId2"/>
     <sheet name="PrefabDT" sheetId="3" r:id="rId3"/>
     <sheet name="TalkingDT" sheetId="4" r:id="rId4"/>
-    <sheet name="NarrationDT" sheetId="5" r:id="rId5"/>
+    <sheet name="NarrationDT" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="372">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1790,7 +1790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1854,9 +1854,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1956,6 +1953,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -1970,36 +1976,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2337,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2348,7 +2324,7 @@
     <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" style="66" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" style="24" customWidth="1"/>
     <col min="8" max="8" width="31.59765625" customWidth="1"/>
     <col min="9" max="9" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
@@ -2375,22 +2351,22 @@
       <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="44" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2413,22 +2389,22 @@
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="45" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2436,38 +2412,38 @@
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="30" t="s">
         <v>346</v>
       </c>
     </row>
@@ -2475,34 +2451,34 @@
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="53" t="s">
+      <c r="I4" s="42"/>
+      <c r="J4" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="33" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2510,32 +2486,32 @@
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="33" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="53" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="33" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2543,26 +2519,26 @@
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="37" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="54" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="38" t="s">
         <v>322</v>
       </c>
     </row>
@@ -2585,7 +2561,7 @@
       <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2594,13 +2570,13 @@
       <c r="I7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="L7" s="45" t="s">
         <v>115</v>
       </c>
       <c r="M7" s="17"/>
@@ -2615,7 +2591,7 @@
       <c r="C8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="67"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
@@ -2635,15 +2611,15 @@
       <c r="F9" s="12">
         <v>2002</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="12" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="12">
         <v>1107</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="25"/>
-      <c r="L9" s="27" t="s">
+      <c r="J9" s="24"/>
+      <c r="L9" s="26" t="s">
         <v>323</v>
       </c>
     </row>
@@ -2663,7 +2639,7 @@
       <c r="F10" s="12">
         <v>2001</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G10" s="12">
         <v>3002</v>
       </c>
       <c r="H10" s="12">
@@ -2693,14 +2669,14 @@
       <c r="F11" s="12">
         <v>2002</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="12" t="s">
         <v>104</v>
       </c>
       <c r="H11" s="14">
         <v>1104</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="25"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" s="5">
@@ -2718,7 +2694,7 @@
       <c r="F12" s="12">
         <v>2002</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="12" t="s">
         <v>222</v>
       </c>
       <c r="H12" s="12">
@@ -2748,15 +2724,15 @@
       <c r="F13" s="12">
         <v>2001</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="24">
         <v>3003</v>
       </c>
       <c r="H13" s="12">
         <v>1113</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="25"/>
-      <c r="L13" s="27" t="s">
+      <c r="J13" s="24"/>
+      <c r="L13" s="26" t="s">
         <v>325</v>
       </c>
     </row>
@@ -2776,13 +2752,13 @@
       <c r="F14" s="12">
         <v>2002</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="24" t="s">
         <v>301</v>
       </c>
       <c r="H14" s="12">
         <v>1108</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="5">
@@ -2800,13 +2776,13 @@
       <c r="F15" s="12">
         <v>2002</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="24" t="s">
         <v>302</v>
       </c>
       <c r="H15" s="12">
         <v>1109</v>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="5">
@@ -2824,13 +2800,13 @@
       <c r="F16" s="12">
         <v>2002</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="24" t="s">
         <v>303</v>
       </c>
       <c r="H16" s="12">
         <v>1110</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="5">
@@ -2848,8 +2824,8 @@
       <c r="F17" s="12">
         <v>2006</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="L17" s="28" t="s">
+      <c r="J17" s="24"/>
+      <c r="L17" s="27" t="s">
         <v>326</v>
       </c>
     </row>
@@ -2872,10 +2848,10 @@
       <c r="I18">
         <v>1010</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="27" t="s">
         <v>326</v>
       </c>
     </row>
@@ -2899,13 +2875,13 @@
       <c r="I19">
         <v>1011</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="L19" s="28" t="s">
+      <c r="J19" s="24"/>
+      <c r="L19" s="27" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>1012</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2923,10 +2899,10 @@
       <c r="I20">
         <v>1012</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="27" t="s">
         <v>326</v>
       </c>
     </row>
@@ -2946,14 +2922,14 @@
       <c r="F21" s="12">
         <v>2002</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="24" t="s">
         <v>331</v>
       </c>
       <c r="H21">
         <v>1117</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="L21" s="24" t="s">
+      <c r="J21" s="24"/>
+      <c r="L21" s="23" t="s">
         <v>325</v>
       </c>
     </row>
@@ -2973,13 +2949,19 @@
       <c r="F22" s="12">
         <v>2002</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="J22" s="25"/>
+      <c r="H22">
+        <v>1118</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="L22" s="27" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="J23" s="25"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
@@ -2991,7 +2973,7 @@
       <c r="C28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="65"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -3011,7 +2993,7 @@
       <c r="F29" s="12">
         <v>2001</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="12">
         <v>3002</v>
       </c>
       <c r="H29" s="12">
@@ -3035,7 +3017,7 @@
       <c r="F30" s="12">
         <v>2002</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="12" t="s">
         <v>337</v>
       </c>
       <c r="H30" s="12"/>
@@ -3057,7 +3039,7 @@
       <c r="F31" s="12">
         <v>2002</v>
       </c>
-      <c r="G31" s="65" t="s">
+      <c r="G31" s="12" t="s">
         <v>338</v>
       </c>
       <c r="H31" s="12"/>
@@ -3079,7 +3061,7 @@
       <c r="F32" s="12">
         <v>2004</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="12">
         <v>3001</v>
       </c>
       <c r="H32" s="12"/>
@@ -3104,7 +3086,7 @@
       <c r="F33" s="12">
         <v>2003</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="12">
         <v>3002</v>
       </c>
       <c r="H33" s="12"/>
@@ -3129,7 +3111,7 @@
       <c r="F34" s="12">
         <v>2005</v>
       </c>
-      <c r="G34" s="65"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="5"/>
       <c r="L34" s="12" t="s">
@@ -3155,7 +3137,7 @@
       <c r="F35" s="12">
         <v>2004</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="12">
         <v>3003</v>
       </c>
       <c r="H35" s="5"/>
@@ -3180,7 +3162,7 @@
       <c r="F36" s="12">
         <v>2004</v>
       </c>
-      <c r="G36" s="66">
+      <c r="G36" s="24">
         <v>3004</v>
       </c>
       <c r="L36">
@@ -3203,7 +3185,7 @@
       <c r="F37" s="12">
         <v>2004</v>
       </c>
-      <c r="G37" s="66">
+      <c r="G37" s="24">
         <v>3005</v>
       </c>
       <c r="L37">
@@ -3226,7 +3208,7 @@
       <c r="F38" s="12">
         <v>2004</v>
       </c>
-      <c r="G38" s="66">
+      <c r="G38" s="24">
         <v>3006</v>
       </c>
       <c r="L38">
@@ -3249,7 +3231,7 @@
       <c r="F39">
         <v>2004</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="24">
         <v>3007</v>
       </c>
       <c r="H39">
@@ -3258,7 +3240,7 @@
       <c r="I39">
         <v>1106</v>
       </c>
-      <c r="K39" s="24" t="s">
+      <c r="K39" s="23" t="s">
         <v>354</v>
       </c>
       <c r="L39" s="5">
@@ -3281,7 +3263,7 @@
       <c r="F40">
         <v>2003</v>
       </c>
-      <c r="G40" s="66">
+      <c r="G40" s="24">
         <v>3007</v>
       </c>
       <c r="H40">
@@ -3310,7 +3292,7 @@
       <c r="F41">
         <v>2003</v>
       </c>
-      <c r="G41" s="66">
+      <c r="G41" s="24">
         <v>3003</v>
       </c>
       <c r="L41">
@@ -3333,7 +3315,7 @@
       <c r="F42">
         <v>2004</v>
       </c>
-      <c r="G42" s="66">
+      <c r="G42" s="24">
         <v>3007</v>
       </c>
       <c r="L42">
@@ -3356,7 +3338,7 @@
       <c r="F43">
         <v>2004</v>
       </c>
-      <c r="G43" s="66">
+      <c r="G43" s="24">
         <v>3007</v>
       </c>
       <c r="L43">
@@ -3379,7 +3361,7 @@
       <c r="F44">
         <v>2001</v>
       </c>
-      <c r="G44" s="66">
+      <c r="G44" s="24">
         <v>3007</v>
       </c>
       <c r="H44">
@@ -3402,7 +3384,7 @@
       <c r="F45">
         <v>2004</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="24">
         <v>3002</v>
       </c>
       <c r="L45" s="5">
@@ -3425,7 +3407,7 @@
       <c r="F46">
         <v>2004</v>
       </c>
-      <c r="G46" s="66">
+      <c r="G46" s="24">
         <v>3002</v>
       </c>
       <c r="L46" s="5">
@@ -3481,16 +3463,16 @@
       <c r="F52">
         <v>2002</v>
       </c>
-      <c r="G52" s="66" t="s">
+      <c r="G52" s="24" t="s">
         <v>300</v>
       </c>
       <c r="H52">
         <v>9002</v>
       </c>
-      <c r="K52" s="24" t="s">
+      <c r="K52" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="L52" s="24"/>
+      <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12">
       <c r="B53">
@@ -3508,13 +3490,13 @@
       <c r="F53">
         <v>2004</v>
       </c>
-      <c r="G53" s="66">
+      <c r="G53" s="24">
         <v>3009</v>
       </c>
-      <c r="K53" s="24" t="s">
+      <c r="K53" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="L53" s="24">
+      <c r="L53" s="23">
         <v>10100</v>
       </c>
     </row>
@@ -3553,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3592,7 +3574,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="60" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3603,7 +3585,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="61"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -3612,7 +3594,7 @@
       <c r="B5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="61"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -3621,7 +3603,7 @@
       <c r="B6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="61"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -4174,7 +4156,7 @@
       <c r="B76">
         <v>3157</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="22" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4424,11 +4406,6 @@
       </c>
       <c r="C114" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="B115">
-        <v>5108</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4514,7 +4491,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4525,7 +4502,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="61"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -4534,14 +4511,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="61"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="59"/>
+      <c r="C6" s="61"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -5470,23 +5447,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E700BA1-4920-4342-AF0B-E626177C7CC3}">
-  <dimension ref="A1:XFD16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BD1262-A68B-4CC5-B6F4-C8A4739F7212}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" customWidth="1"/>
     <col min="5" max="5" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6 16384:16384">
+    <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -5505,9 +5482,8 @@
       <c r="F1" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="XFD1" s="21"/>
-    </row>
-    <row r="2" spans="1:6 16384:16384">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -5527,7 +5503,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6 16384:16384">
+    <row r="3" spans="1:6" ht="34.799999999999997">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -5547,7 +5523,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:6 16384:16384">
+    <row r="4" spans="1:6" ht="34.799999999999997">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -5567,7 +5543,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:6 16384:16384">
+    <row r="5" spans="1:6">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -5578,13 +5554,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:6 16384:16384">
+    <row r="6" spans="1:6">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:6 16384:16384">
+    <row r="7" spans="1:6" ht="34.799999999999997">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -5594,7 +5570,7 @@
       <c r="C7" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>228</v>
       </c>
       <c r="E7" t="s">
@@ -5604,7 +5580,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:6 16384:16384">
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>6001</v>
       </c>
@@ -5621,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6 16384:16384">
+    <row r="9" spans="1:6">
       <c r="B9">
         <v>6002</v>
       </c>
@@ -5638,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6 16384:16384">
+    <row r="10" spans="1:6">
       <c r="B10">
         <v>6003</v>
       </c>
@@ -5655,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6 16384:16384">
+    <row r="11" spans="1:6">
       <c r="B11">
         <v>6004</v>
       </c>
@@ -5672,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6 16384:16384">
+    <row r="12" spans="1:6">
       <c r="B12">
         <v>6005</v>
       </c>
@@ -5689,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6 16384:16384">
+    <row r="13" spans="1:6">
       <c r="B13">
         <v>6006</v>
       </c>
@@ -5706,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6 16384:16384">
+    <row r="14" spans="1:6">
       <c r="B14">
         <v>6007</v>
       </c>
@@ -5723,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6 16384:16384">
+    <row r="15" spans="1:6">
       <c r="B15">
         <v>6008</v>
       </c>
@@ -5740,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6 16384:16384">
+    <row r="16" spans="1:6">
       <c r="B16">
         <v>6009</v>
       </c>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0573E99F-1C75-4A8E-93AB-7705E16BF63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AD54D8-EDC9-4ECB-855E-A6F12E1F5CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="374">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1459,6 +1459,14 @@
   </si>
   <si>
     <t>광고 무시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1, -1, 6005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1, 6004, -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2313,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2651,6 +2659,7 @@
       <c r="J10" s="12" t="s">
         <v>344</v>
       </c>
+      <c r="K10" s="23"/>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:13">
@@ -3000,6 +3009,9 @@
         <v>1105</v>
       </c>
       <c r="I29" s="12"/>
+      <c r="K29" s="23" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="5">
@@ -3091,6 +3103,9 @@
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
+      <c r="K33" s="23" t="s">
+        <v>373</v>
+      </c>
       <c r="L33" s="12">
         <v>4025</v>
       </c>
@@ -3385,7 +3400,7 @@
         <v>2004</v>
       </c>
       <c r="G45" s="24">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="L45" s="5">
         <v>10002</v>
@@ -3408,7 +3423,7 @@
         <v>2004</v>
       </c>
       <c r="G46" s="24">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="L46" s="5">
         <v>10003</v>
@@ -3535,7 +3550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
@@ -4617,7 +4632,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -5450,8 +5465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BD1262-A68B-4CC5-B6F4-C8A4739F7212}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5503,7 +5518,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34.799999999999997">
+    <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -5523,7 +5538,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34.799999999999997">
+    <row r="4" spans="1:6">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -5560,7 +5575,7 @@
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="34.799999999999997">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AD54D8-EDC9-4ECB-855E-A6F12E1F5CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A3598-56D0-47A7-8BFF-6F42A1570505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -1466,8 +1466,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-1, 6004, -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>'-1, 6004, -1</t>
   </si>
 </sst>
 </file>
@@ -2321,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2659,7 +2658,9 @@
       <c r="J10" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="K10" s="23"/>
+      <c r="K10" s="23" t="s">
+        <v>373</v>
+      </c>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:13">
@@ -3103,9 +3104,7 @@
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
-      <c r="K33" s="23" t="s">
-        <v>373</v>
-      </c>
+      <c r="K33" s="23"/>
       <c r="L33" s="12">
         <v>4025</v>
       </c>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A3598-56D0-47A7-8BFF-6F42A1570505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E31AD75-A696-4370-A829-0816A852F915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -2320,7 +2320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -3549,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5465,7 +5465,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E31AD75-A696-4370-A829-0816A852F915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A508B41-2768-4EEF-BEA1-3ACEB9285900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
   <sheets>
     <sheet name="EventDT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="394">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1265,10 +1265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> -99.-45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>택배기사 채팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1334,10 +1330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(진입시, 해결, 무시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>순으로 나올 나레이션을 표기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1466,7 +1458,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>'-1, 6004, -1</t>
+    <t>(진입시, 수락, 무시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1, 6008,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1, 6004, -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -99, -45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는사람과의 통화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-xxxx-xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여보세요? 혹시 XX씨 맞으실까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네? 아닌데요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄송하지만 전화 잘못 거셨습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는 사람과의 통화App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는 사람 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗 죄송합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3170, 3171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는 사람 대화종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달기사와의 통화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10분뒤에 배달 도착합니다. 건물안으로 올라갈 수 없으니 맞춰서 내려와주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 알겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 관리실에 말해두어서 말씀하시고 올라오시면 되요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달기사와의 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달기사와의 대화종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달기사와의 통화 App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1797,7 +1878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1983,6 +2064,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2318,10 +2402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2368,7 +2452,7 @@
         <v>28</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K1" s="44" t="s">
         <v>314</v>
@@ -2442,16 +2526,16 @@
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="52" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L3" s="46" t="s">
         <v>113</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1">
@@ -2477,10 +2561,10 @@
       </c>
       <c r="I4" s="42"/>
       <c r="J4" s="52" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>114</v>
@@ -2510,10 +2594,10 @@
       </c>
       <c r="I5" s="42"/>
       <c r="J5" s="52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L5" s="47" t="s">
         <v>290</v>
@@ -2539,7 +2623,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="43"/>
       <c r="J6" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48" t="s">
@@ -2578,7 +2662,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K7" s="45" t="s">
         <v>227</v>
@@ -2627,7 +2711,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="24"/>
       <c r="L9" s="26" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2656,7 +2740,7 @@
         <v>1101</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K10" s="23" t="s">
         <v>373</v>
@@ -2714,7 +2798,7 @@
         <v>1116</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L12" s="5"/>
     </row>
@@ -2743,7 +2827,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="24"/>
       <c r="L13" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2751,7 +2835,7 @@
         <v>1006</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2836,7 +2920,7 @@
       </c>
       <c r="J17" s="24"/>
       <c r="L17" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2859,10 +2943,10 @@
         <v>1010</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2886,8 +2970,11 @@
         <v>1011</v>
       </c>
       <c r="J19" s="24"/>
+      <c r="K19" s="23" t="s">
+        <v>372</v>
+      </c>
       <c r="L19" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2910,10 +2997,10 @@
         <v>1012</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2921,7 +3008,7 @@
         <v>1013</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2933,14 +3020,14 @@
         <v>2002</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H21">
         <v>1117</v>
       </c>
       <c r="J21" s="24"/>
-      <c r="L21" s="23" t="s">
-        <v>325</v>
+      <c r="L21" s="27" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2948,7 +3035,7 @@
         <v>1014</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2960,18 +3047,62 @@
         <v>2002</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H22">
         <v>1118</v>
       </c>
       <c r="J22" s="24"/>
       <c r="L22" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:12">
+      <c r="B23" s="5">
+        <v>1015</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="12">
+        <v>2001</v>
+      </c>
+      <c r="G23" s="24">
+        <v>3010</v>
+      </c>
+      <c r="H23">
+        <v>1119</v>
+      </c>
       <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" s="5">
+        <v>1016</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="12">
+        <v>2001</v>
+      </c>
+      <c r="G24" s="24">
+        <v>3011</v>
+      </c>
+      <c r="H24">
+        <v>1120</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
@@ -2992,7 +3123,7 @@
         <v>1101</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3011,7 +3142,7 @@
       </c>
       <c r="I29" s="12"/>
       <c r="K29" s="23" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3031,7 +3162,7 @@
         <v>2002</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -3053,7 +3184,7 @@
         <v>2002</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3255,7 +3386,7 @@
         <v>1106</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L39" s="5">
         <v>4021</v>
@@ -3364,7 +3495,7 @@
         <v>1116</v>
       </c>
       <c r="C44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3387,7 +3518,7 @@
         <v>1117</v>
       </c>
       <c r="C45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3410,7 +3541,7 @@
         <v>1118</v>
       </c>
       <c r="C46" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3428,90 +3559,75 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="5" t="s">
+    <row r="47" spans="2:13">
+      <c r="B47">
+        <v>1119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>380</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>2003</v>
+      </c>
+      <c r="G47" s="24">
+        <v>3010</v>
+      </c>
+      <c r="L47" s="5">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48">
+        <v>1120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>393</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>2003</v>
+      </c>
+      <c r="G48" s="24">
+        <v>3011</v>
+      </c>
+      <c r="L48">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="B50" s="5">
+    <row r="54" spans="1:12">
+      <c r="B54" s="5">
         <v>4004</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C54" t="s">
         <v>147</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F54" s="12">
         <v>2005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="B52">
-        <v>9001</v>
-      </c>
-      <c r="C52" t="s">
-        <v>296</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52">
-        <v>2002</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="H52">
-        <v>9002</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="L52" s="23"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="B53">
-        <v>9002</v>
-      </c>
-      <c r="C53" t="s">
-        <v>298</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53">
-        <v>2004</v>
-      </c>
-      <c r="G53" s="24">
-        <v>3009</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="L53" s="23">
-        <v>10100</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3519,20 +3635,81 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="B56">
+        <v>9001</v>
+      </c>
+      <c r="C56" t="s">
+        <v>296</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>2002</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H56">
+        <v>9002</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="L56" s="23"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="B57">
+        <v>9002</v>
+      </c>
+      <c r="C57" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57">
+        <v>2004</v>
+      </c>
+      <c r="G57" s="24">
+        <v>3009</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="L57" s="23">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="B60">
         <v>8999</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C60" t="s">
         <v>316</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3547,10 +3724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3710,747 +3887,827 @@
         <v>297</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="B18">
+        <v>3010</v>
+      </c>
+      <c r="C18" t="s">
+        <v>376</v>
+      </c>
+    </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>3011</v>
+      </c>
+      <c r="C19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34.799999999999997">
-      <c r="B20">
+    <row r="22" spans="1:3" ht="34.799999999999997">
+      <c r="B22">
         <v>3101</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21">
-        <v>3102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22">
-        <v>3103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="C39" t="s">
-        <v>275</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="C66" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="C70" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="C71" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="C72" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="C73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="C74" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="C75" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76">
-        <v>3157</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>269</v>
+        <v>3155</v>
+      </c>
+      <c r="C76" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="C77" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78">
-        <v>3159</v>
-      </c>
-      <c r="C78" t="s">
-        <v>271</v>
+        <v>3157</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="C79" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80">
+        <v>3159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81">
+        <v>3160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82">
         <v>3161</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="B81">
+    <row r="83" spans="2:3">
+      <c r="B83">
         <v>3162</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="B82">
+    <row r="84" spans="2:3">
+      <c r="B84">
         <v>3163</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="B83">
+    <row r="85" spans="2:3">
+      <c r="B85">
         <v>3164</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="B84">
+    <row r="86" spans="2:3">
+      <c r="B86">
         <v>3165</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="B85">
+    <row r="87" spans="2:3">
+      <c r="B87">
         <v>3166</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C87" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="52.2">
-      <c r="B86">
+    <row r="88" spans="2:3" ht="52.2">
+      <c r="B88">
         <v>3167</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="B87">
+      <c r="C88" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89">
         <v>3168</v>
       </c>
-      <c r="C87" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="C89" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90">
+        <v>3169</v>
+      </c>
+      <c r="C90" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91">
+        <v>3170</v>
+      </c>
+      <c r="C91" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92">
+        <v>3171</v>
+      </c>
+      <c r="C92" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93">
+        <v>3172</v>
+      </c>
+      <c r="C93" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
       <c r="B94">
-        <v>9200</v>
+        <v>3173</v>
       </c>
       <c r="C94" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
       <c r="B95">
-        <v>9201</v>
+        <v>3174</v>
       </c>
       <c r="C95" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>138</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96">
+        <v>3175</v>
+      </c>
+      <c r="C96" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="B97">
-        <v>4001</v>
+        <v>3176</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="B98">
-        <v>4002</v>
-      </c>
-      <c r="C98" t="s">
-        <v>145</v>
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="B99">
-        <v>4003</v>
+        <v>9200</v>
       </c>
       <c r="C99" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="B100">
-        <v>4004</v>
+        <v>9201</v>
       </c>
       <c r="C100" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="B101">
-        <v>4005</v>
-      </c>
-      <c r="C101" t="s">
-        <v>245</v>
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="B102">
-        <v>4006</v>
+        <v>4001</v>
       </c>
       <c r="C102" t="s">
-        <v>246</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="B103">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="C103" t="s">
-        <v>247</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="B104">
+        <v>4003</v>
+      </c>
+      <c r="C104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105">
+        <v>4004</v>
+      </c>
+      <c r="C105" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" t="s">
-        <v>231</v>
+      <c r="B106">
+        <v>4005</v>
+      </c>
+      <c r="C106" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="B107">
-        <v>5100</v>
+        <v>4006</v>
       </c>
       <c r="C107" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108">
-        <v>5101</v>
+        <v>4007</v>
       </c>
       <c r="C108" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="B109">
-        <v>5102</v>
-      </c>
-      <c r="C109" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="B110">
-        <v>5103</v>
-      </c>
-      <c r="C110" t="s">
-        <v>356</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="B111">
-        <v>5104</v>
-      </c>
-      <c r="C111" t="s">
-        <v>359</v>
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112">
-        <v>5105</v>
+        <v>5100</v>
       </c>
       <c r="C112" t="s">
-        <v>360</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="B113">
-        <v>5106</v>
+        <v>5101</v>
       </c>
       <c r="C113" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="B114">
+        <v>5102</v>
+      </c>
+      <c r="C114" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="B115">
+        <v>5103</v>
+      </c>
+      <c r="C115" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116">
+        <v>5104</v>
+      </c>
+      <c r="C116" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117">
+        <v>5105</v>
+      </c>
+      <c r="C117" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="B118">
+        <v>5106</v>
+      </c>
+      <c r="C118" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="B119">
         <v>5107</v>
       </c>
-      <c r="C114" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C119" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="B122">
-        <v>9001</v>
-      </c>
-      <c r="C122" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="B123">
-        <v>9002</v>
-      </c>
-      <c r="C123" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="B124">
+        <v>9001</v>
+      </c>
+      <c r="C124" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="B125">
+        <v>9002</v>
+      </c>
+      <c r="C125" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="B126">
         <v>9010</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C126" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4628,10 +4885,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AABC80-77F5-4366-AF3C-51BE0B577C17}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -5325,7 +5582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="B33" s="5">
         <v>4027</v>
       </c>
@@ -5336,7 +5593,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="B34" s="5">
         <v>4028</v>
       </c>
@@ -5347,7 +5604,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="B35" s="5">
         <v>4029</v>
       </c>
@@ -5367,7 +5624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="B36" s="5">
         <v>4030</v>
       </c>
@@ -5378,79 +5635,149 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:10">
+      <c r="B37" s="5">
+        <v>4031</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3169</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="F37" s="5">
+        <v>4032</v>
+      </c>
+      <c r="I37" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="5">
+        <v>4032</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="5">
+        <v>4033</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3173</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3174</v>
+      </c>
+      <c r="G39" s="5">
+        <v>3175</v>
+      </c>
+      <c r="H39" s="5">
+        <v>4034</v>
+      </c>
+      <c r="I39" s="5">
+        <v>100</v>
+      </c>
+      <c r="J39" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="5">
+        <v>4034</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3176</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="5">
+    <row r="43" spans="1:10">
+      <c r="B43" s="5">
         <v>10001</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D43" s="5">
         <v>3101</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="5">
+    <row r="44" spans="1:10">
+      <c r="B44" s="5">
         <v>10100</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D44" s="5">
         <v>9010</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="B40">
+    <row r="45" spans="1:10">
+      <c r="B45">
         <v>11001</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C45" t="s">
         <v>304</v>
       </c>
-      <c r="D40">
+      <c r="D45">
         <v>4001</v>
       </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41">
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46">
         <v>11002</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C46" t="s">
         <v>305</v>
       </c>
-      <c r="D41">
+      <c r="D46">
         <v>4002</v>
       </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="B42" s="5">
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="5">
         <v>10002</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C47" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D47" s="5">
         <v>3167</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="5">
+    <row r="48" spans="1:10">
+      <c r="B48" s="5">
         <v>10003</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C48" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D48" s="5">
         <v>3168</v>
       </c>
     </row>
@@ -5465,7 +5792,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5494,7 +5821,7 @@
         <v>225</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5534,7 +5861,7 @@
         <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5554,7 +5881,7 @@
         <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5591,7 +5918,7 @@
         <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5650,7 +5977,7 @@
         <v>6004</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D11">
         <v>5102</v>
@@ -5667,7 +5994,7 @@
         <v>6005</v>
       </c>
       <c r="C12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D12">
         <v>5103</v>
@@ -5684,7 +6011,7 @@
         <v>6006</v>
       </c>
       <c r="C13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D13">
         <v>5104</v>
@@ -5701,7 +6028,7 @@
         <v>6007</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D14">
         <v>5105</v>
@@ -5718,7 +6045,7 @@
         <v>6008</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D15">
         <v>5106</v>
@@ -5735,7 +6062,7 @@
         <v>6009</v>
       </c>
       <c r="C16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D16">
         <v>5107</v>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A508B41-2768-4EEF-BEA1-3ACEB9285900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD4071-E459-4897-8618-25CBFC2FFD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="395">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1470,10 +1470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> -99, -45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모르는사람과의 통화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1547,6 +1543,14 @@
   </si>
   <si>
     <t>배달기사와의 통화 App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1, 6009,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1, 6007, 6006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2050,6 +2054,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -2064,9 +2071,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2404,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D0F37-8F82-455B-A8BD-E50AA5512BE5}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2506,7 +2510,7 @@
       <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="58" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -2545,7 +2549,7 @@
       <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31" t="s">
         <v>41</v>
@@ -2580,7 +2584,7 @@
       <c r="B5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="31" t="s">
         <v>152</v>
       </c>
@@ -2611,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="59"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="36" t="s">
         <v>153</v>
       </c>
@@ -2710,8 +2714,11 @@
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="24"/>
-      <c r="L9" s="26" t="s">
-        <v>374</v>
+      <c r="K9" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="L9" s="26">
+        <v>-99</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2853,6 +2860,9 @@
         <v>1108</v>
       </c>
       <c r="J14" s="24"/>
+      <c r="K14" s="23" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="5">
@@ -3062,7 +3072,7 @@
         <v>1015</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3086,7 +3096,7 @@
         <v>1016</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3564,7 +3574,7 @@
         <v>1119</v>
       </c>
       <c r="C47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3587,7 +3597,7 @@
         <v>1120</v>
       </c>
       <c r="C48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3726,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2797C8FA-D3B7-48B0-ACA1-D58AE830954C}">
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3765,7 +3775,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="61" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3776,7 +3786,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="62"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -3785,7 +3795,7 @@
       <c r="B5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="62"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -3794,7 +3804,7 @@
       <c r="B6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="62"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -3892,7 +3902,7 @@
         <v>3010</v>
       </c>
       <c r="C18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3900,7 +3910,7 @@
         <v>3011</v>
       </c>
       <c r="C19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4460,7 +4470,7 @@
         <v>3169</v>
       </c>
       <c r="C90" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="2:3">
@@ -4468,7 +4478,7 @@
         <v>3170</v>
       </c>
       <c r="C91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="2:3">
@@ -4476,7 +4486,7 @@
         <v>3171</v>
       </c>
       <c r="C92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="2:3">
@@ -4484,7 +4494,7 @@
         <v>3172</v>
       </c>
       <c r="C93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="2:3">
@@ -4492,7 +4502,7 @@
         <v>3173</v>
       </c>
       <c r="C94" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="2:3">
@@ -4500,7 +4510,7 @@
         <v>3174</v>
       </c>
       <c r="C95" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="2:3">
@@ -4508,7 +4518,7 @@
         <v>3175</v>
       </c>
       <c r="C96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4516,7 +4526,7 @@
         <v>3176</v>
       </c>
       <c r="C97" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4762,7 +4772,7 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="61" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4773,7 +4783,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="62"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -4782,14 +4792,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="62"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="61"/>
+      <c r="C6" s="62"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -5640,13 +5650,13 @@
         <v>4031</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D37" s="5">
         <v>3169</v>
       </c>
-      <c r="E37" s="62" t="s">
-        <v>383</v>
+      <c r="E37" s="57" t="s">
+        <v>382</v>
       </c>
       <c r="F37" s="5">
         <v>4032</v>
@@ -5660,7 +5670,7 @@
         <v>4032</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D38" s="5">
         <v>3172</v>
@@ -5671,7 +5681,7 @@
         <v>4033</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D39" s="5">
         <v>3173</v>
@@ -5697,7 +5707,7 @@
         <v>4034</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D40" s="5">
         <v>3176</v>
@@ -5792,7 +5802,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/document/projectDT.xlsx
+++ b/document/projectDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\Mandle_10Minute_Game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD4071-E459-4897-8618-25CBFC2FFD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E1E24C-6128-4FEF-B557-44CDB86CEB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A908816F-3EB3-47CA-8A2F-AC05E9BE3A54}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="395">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2409,7 +2409,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2717,8 +2717,8 @@
       <c r="K9" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L9" s="26">
-        <v>-99</v>
+      <c r="L9" s="26" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:13">
